--- a/output5/【河洛話注音】正氣歌【廣韻讀音】.xlsx
+++ b/output5/【河洛話注音】正氣歌【廣韻讀音】.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303BBC5D-4424-4F22-BDE7-234AF819CDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2B214D9-030A-4BC0-9531-3E3F3BA6B9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="1198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="1090">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1579,10 +1579,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hiu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ci2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1615,10 +1611,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄧㄨ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄧㄢ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1859,9 +1851,6 @@
     <t>惡</t>
   </si>
   <si>
-    <t>穢</t>
-  </si>
-  <si>
     <t>疊</t>
   </si>
   <si>
@@ -1892,9 +1881,6 @@
     <t>於</t>
   </si>
   <si>
-    <t>茲</t>
-  </si>
-  <si>
     <t>二</t>
   </si>
   <si>
@@ -1919,9 +1905,6 @@
     <t>致</t>
   </si>
   <si>
-    <t>爾</t>
-  </si>
-  <si>
     <t>亦</t>
   </si>
   <si>
@@ -2815,14 +2798,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tut3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄨㆵ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tin5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2892,14 +2867,6 @@
   </si>
   <si>
     <t>ㄑㄧㄥ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hut7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㆵ˫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3286,14 +3253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ziat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3350,14 +3309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄧ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iong5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3366,14 +3317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ci2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄑㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gan5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3406,14 +3349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>liau5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3422,14 +3357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㆲ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mo7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3438,14 +3365,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄑㄧㄥ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>co1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3454,14 +3373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>le7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㆤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ping1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3478,22 +3389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cut4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㄨㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>piau2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3590,14 +3485,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hoo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆦˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kiat4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3638,1175 +3525,855 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>pho3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㄜ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㆲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kim5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㆬˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buan7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄨㄢ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄨㄚㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄞ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gi7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zia1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄚ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄥ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ku1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄨ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>song3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ting2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄥˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ke1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆤ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄇㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄞ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tho1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㄜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄇㄧㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄠˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄥˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>un5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄚㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tian2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄠˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄢ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puan3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>too5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆦˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>su2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pho3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㄜ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㆲ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kim5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㆬˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buan7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄨㄢ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zut5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㆵˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ki5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kuan1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄨㄢ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄨㄚㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄥ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>an1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄢ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄨㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lai7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄞ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thian1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㄧㄢ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zut1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆰ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆲ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>he7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ming7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄇㄧㄥ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gi7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄐㄧ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zia1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄚ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄨ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄥ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tuan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄨㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ku1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄨ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>song3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆲ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ting2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄥˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆰ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ju5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆡㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kho2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>im1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆬ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ho2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㄨㄣ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄧㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ki3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ke1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆤ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆤ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiau1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄠ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄇㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄣ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zoo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㆦ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄞ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>han5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zi7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zai1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄞ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㄨ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khi2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tho1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㄜ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>miu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄇㄧㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄠˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nai5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄞˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆦ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>king2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㄥˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>un5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sim1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆬ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㆲ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄚㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tian2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄥˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iam5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆰˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄠˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kan1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄢ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆦ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>puan3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㄢ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zo6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄜ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ha6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄚ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lo6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄜ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tong6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄥ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄜ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hu6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>me6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄇㆤ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gong6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㆲ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hing6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄥ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tai6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄞ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iu6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ong6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆲ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ji6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sian6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ho6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄜ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nai6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄞ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ia6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄚ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siong6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆲ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zai6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zai6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄨ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>too5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㆦˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tu6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄨ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄜ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ia6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄚ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆦ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>go6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄜ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iu6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄨ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gong6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㆲ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uan6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄢ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆲ˪</t>
+  </si>
+  <si>
+    <t>zo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>me2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄇㆤˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄥˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄞˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sian2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄞˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄞˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tun3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄨㄣ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄥ˪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7040,7 +6607,7 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -7048,7 +6615,7 @@
         <v>166</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -7117,8 +6684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:AC242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -7176,7 +6743,7 @@
       <c r="R3" s="83"/>
       <c r="T3" s="92"/>
       <c r="V3" s="106" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
     </row>
     <row r="4" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
@@ -7185,7 +6752,7 @@
         <v>272</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F4" s="84" t="s">
         <v>287</v>
@@ -7195,7 +6762,7 @@
       </c>
       <c r="H4" s="84"/>
       <c r="I4" s="84" t="s">
-        <v>1129</v>
+        <v>1030</v>
       </c>
       <c r="J4" s="84" t="s">
         <v>258</v>
@@ -7211,13 +6778,13 @@
         <v>301</v>
       </c>
       <c r="O4" s="84" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="P4" s="84" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="Q4" s="84" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="R4" s="84"/>
       <c r="S4" s="93"/>
@@ -7228,22 +6795,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="80" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" s="80" t="s">
         <v>336</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="G5" s="80" t="s">
         <v>337</v>
-      </c>
-      <c r="F5" s="80" t="s">
-        <v>338</v>
-      </c>
-      <c r="G5" s="80" t="s">
-        <v>339</v>
       </c>
       <c r="H5" s="80" t="s">
         <v>186</v>
       </c>
       <c r="I5" s="80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J5" s="80" t="s">
         <v>202</v>
@@ -7252,22 +6819,22 @@
         <v>208</v>
       </c>
       <c r="L5" s="80" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M5" s="80" t="s">
         <v>198</v>
       </c>
       <c r="N5" s="80" t="s">
+        <v>339</v>
+      </c>
+      <c r="O5" s="80" t="s">
+        <v>340</v>
+      </c>
+      <c r="P5" s="80" t="s">
         <v>341</v>
       </c>
-      <c r="O5" s="80" t="s">
+      <c r="Q5" s="80" t="s">
         <v>342</v>
-      </c>
-      <c r="P5" s="80" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q5" s="80" t="s">
-        <v>344</v>
       </c>
       <c r="R5" s="80" t="s">
         <v>186</v>
@@ -7282,7 +6849,7 @@
         <v>273</v>
       </c>
       <c r="E6" s="85" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F6" s="85" t="s">
         <v>288</v>
@@ -7292,7 +6859,7 @@
       </c>
       <c r="H6" s="85"/>
       <c r="I6" s="85" t="s">
-        <v>1130</v>
+        <v>1031</v>
       </c>
       <c r="J6" s="85" t="s">
         <v>259</v>
@@ -7308,13 +6875,13 @@
         <v>302</v>
       </c>
       <c r="O6" s="85" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="P6" s="85" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="Q6" s="85" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="R6" s="85"/>
       <c r="S6" s="95"/>
@@ -7344,39 +6911,39 @@
     <row r="8" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
       <c r="D8" s="84" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E8" s="84" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F8" s="84" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G8" s="84" t="s">
         <v>280</v>
       </c>
       <c r="H8" s="84"/>
       <c r="I8" s="84" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="J8" s="84" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="K8" s="84" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L8" s="84" t="s">
         <v>297</v>
       </c>
       <c r="M8" s="84"/>
       <c r="N8" s="84" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="O8" s="84" t="s">
-        <v>1123</v>
+        <v>1018</v>
       </c>
       <c r="P8" s="84" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="Q8" s="84" t="s">
         <v>290</v>
@@ -7391,13 +6958,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="E9" s="80" t="s">
+        <v>344</v>
+      </c>
+      <c r="F9" s="80" t="s">
         <v>345</v>
-      </c>
-      <c r="E9" s="80" t="s">
-        <v>346</v>
-      </c>
-      <c r="F9" s="80" t="s">
-        <v>347</v>
       </c>
       <c r="G9" s="80" t="s">
         <v>239</v>
@@ -7406,13 +6973,13 @@
         <v>198</v>
       </c>
       <c r="I9" s="80" t="s">
+        <v>346</v>
+      </c>
+      <c r="J9" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="K9" s="80" t="s">
         <v>348</v>
-      </c>
-      <c r="J9" s="80" t="s">
-        <v>349</v>
-      </c>
-      <c r="K9" s="80" t="s">
-        <v>350</v>
       </c>
       <c r="L9" s="80" t="s">
         <v>205</v>
@@ -7421,16 +6988,16 @@
         <v>186</v>
       </c>
       <c r="N9" s="80" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O9" s="105" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="P9" s="80" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="Q9" s="80" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R9" s="80" t="s">
         <v>186</v>
@@ -7442,39 +7009,39 @@
     <row r="10" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
       <c r="D10" s="85" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E10" s="85" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G10" s="85" t="s">
         <v>281</v>
       </c>
       <c r="H10" s="85"/>
       <c r="I10" s="85" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="J10" s="85" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="K10" s="85" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="L10" s="85" t="s">
         <v>298</v>
       </c>
       <c r="M10" s="85"/>
       <c r="N10" s="85" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="O10" s="85" t="s">
-        <v>1124</v>
+        <v>1019</v>
       </c>
       <c r="P10" s="85" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="Q10" s="85" t="s">
         <v>291</v>
@@ -7506,42 +7073,42 @@
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
       <c r="D12" s="84" t="s">
-        <v>1125</v>
+        <v>720</v>
       </c>
       <c r="E12" s="84" t="s">
-        <v>1131</v>
+        <v>1032</v>
       </c>
       <c r="F12" s="84" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="G12" s="84" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="I12" s="84"/>
       <c r="J12" s="84" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="K12" s="84" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L12" s="84" t="s">
-        <v>1131</v>
+        <v>1032</v>
       </c>
       <c r="M12" s="84" t="s">
         <v>274</v>
       </c>
       <c r="N12" s="84"/>
       <c r="O12" s="84" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="P12" s="84" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="Q12" s="84" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="R12" s="84" t="s">
         <v>260</v>
@@ -7555,31 +7122,31 @@
         <v>3</v>
       </c>
       <c r="D13" s="105" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="E13" s="80" t="s">
+        <v>351</v>
+      </c>
+      <c r="F13" s="80" t="s">
+        <v>352</v>
+      </c>
+      <c r="G13" s="80" t="s">
         <v>353</v>
       </c>
-      <c r="F13" s="80" t="s">
+      <c r="H13" s="80" t="s">
         <v>354</v>
-      </c>
-      <c r="G13" s="80" t="s">
-        <v>355</v>
-      </c>
-      <c r="H13" s="80" t="s">
-        <v>356</v>
       </c>
       <c r="I13" s="80" t="s">
         <v>198</v>
       </c>
       <c r="J13" s="80" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K13" s="80" t="s">
         <v>219</v>
       </c>
       <c r="L13" s="80" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M13" s="80" t="s">
         <v>236</v>
@@ -7588,13 +7155,13 @@
         <v>186</v>
       </c>
       <c r="O13" s="80" t="s">
+        <v>357</v>
+      </c>
+      <c r="P13" s="80" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q13" s="80" t="s">
         <v>359</v>
-      </c>
-      <c r="P13" s="80" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q13" s="80" t="s">
-        <v>361</v>
       </c>
       <c r="R13" s="80" t="s">
         <v>207</v>
@@ -7605,42 +7172,42 @@
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="85" t="s">
-        <v>1126</v>
+        <v>721</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>1132</v>
+        <v>1033</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G14" s="85" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="H14" s="85" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="I14" s="85"/>
       <c r="J14" s="85" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="K14" s="85" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L14" s="85" t="s">
-        <v>1132</v>
+        <v>1033</v>
       </c>
       <c r="M14" s="85" t="s">
         <v>275</v>
       </c>
       <c r="N14" s="85"/>
       <c r="O14" s="85" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="P14" s="85" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="Q14" s="85" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="R14" s="85" t="s">
         <v>261</v>
@@ -7675,29 +7242,29 @@
       <c r="B16" s="56"/>
       <c r="D16" s="84"/>
       <c r="E16" s="84" t="s">
-        <v>1133</v>
+        <v>1034</v>
       </c>
       <c r="F16" s="84" t="s">
-        <v>1134</v>
+        <v>1036</v>
       </c>
       <c r="G16" s="84" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="H16" s="84" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="I16" s="84"/>
       <c r="J16" s="84" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="K16" s="84" t="s">
-        <v>1136</v>
+        <v>658</v>
       </c>
       <c r="L16" s="84" t="s">
         <v>313</v>
       </c>
       <c r="M16" s="84" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="N16" s="84"/>
       <c r="O16" s="84" t="s">
@@ -7707,7 +7274,7 @@
         <v>290</v>
       </c>
       <c r="Q16" s="84" t="s">
-        <v>785</v>
+        <v>1070</v>
       </c>
       <c r="R16" s="84" t="s">
         <v>295</v>
@@ -7724,31 +7291,31 @@
         <v>221</v>
       </c>
       <c r="E17" s="80" t="s">
+        <v>360</v>
+      </c>
+      <c r="F17" s="80" t="s">
+        <v>361</v>
+      </c>
+      <c r="G17" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="H17" s="80" t="s">
         <v>362</v>
-      </c>
-      <c r="F17" s="80" t="s">
-        <v>363</v>
-      </c>
-      <c r="G17" s="80" t="s">
-        <v>347</v>
-      </c>
-      <c r="H17" s="80" t="s">
-        <v>364</v>
       </c>
       <c r="I17" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J17" s="105" t="s">
+        <v>363</v>
+      </c>
+      <c r="K17" s="80" t="s">
+        <v>364</v>
+      </c>
+      <c r="L17" s="80" t="s">
         <v>365</v>
       </c>
-      <c r="K17" s="80" t="s">
-        <v>366</v>
-      </c>
-      <c r="L17" s="80" t="s">
-        <v>367</v>
-      </c>
       <c r="M17" s="100" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="N17" s="80" t="s">
         <v>186</v>
@@ -7757,7 +7324,7 @@
         <v>224</v>
       </c>
       <c r="P17" s="80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="80" t="s">
         <v>189</v>
@@ -7772,29 +7339,29 @@
       <c r="B18" s="58"/>
       <c r="D18" s="85"/>
       <c r="E18" s="85" t="s">
-        <v>742</v>
+        <v>1035</v>
       </c>
       <c r="F18" s="85" t="s">
-        <v>1135</v>
+        <v>1037</v>
       </c>
       <c r="G18" s="85" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="H18" s="85" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="I18" s="85"/>
       <c r="J18" s="85" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="K18" s="85" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="L18" s="85" t="s">
         <v>314</v>
       </c>
       <c r="M18" s="85" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="N18" s="85"/>
       <c r="O18" s="85" t="s">
@@ -7804,7 +7371,7 @@
         <v>291</v>
       </c>
       <c r="Q18" s="85" t="s">
-        <v>786</v>
+        <v>1071</v>
       </c>
       <c r="R18" s="85" t="s">
         <v>296</v>
@@ -7835,33 +7402,33 @@
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
       <c r="D20" s="84" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E20" s="84"/>
       <c r="F20" s="84" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="G20" s="84" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="H20" s="84" t="s">
-        <v>1127</v>
+        <v>1020</v>
       </c>
       <c r="I20" s="84" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="J20" s="84"/>
       <c r="K20" s="84" t="s">
-        <v>1137</v>
+        <v>764</v>
       </c>
       <c r="L20" s="84" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="M20" s="84" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="N20" s="84" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="O20" s="84"/>
       <c r="P20" s="84" t="s">
@@ -7871,7 +7438,7 @@
         <v>290</v>
       </c>
       <c r="R20" s="84" t="s">
-        <v>785</v>
+        <v>1070</v>
       </c>
       <c r="S20" s="93"/>
       <c r="V20" s="107"/>
@@ -7882,37 +7449,37 @@
         <v>5</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E21" s="80" t="s">
         <v>193</v>
       </c>
       <c r="F21" s="80" t="s">
+        <v>367</v>
+      </c>
+      <c r="G21" s="105" t="s">
+        <v>368</v>
+      </c>
+      <c r="H21" s="80" t="s">
+        <v>791</v>
+      </c>
+      <c r="I21" s="80" t="s">
         <v>369</v>
-      </c>
-      <c r="G21" s="105" t="s">
-        <v>370</v>
-      </c>
-      <c r="H21" s="80" t="s">
-        <v>800</v>
-      </c>
-      <c r="I21" s="80" t="s">
-        <v>371</v>
       </c>
       <c r="J21" s="80" t="s">
         <v>186</v>
       </c>
       <c r="K21" s="80" t="s">
+        <v>370</v>
+      </c>
+      <c r="L21" s="98" t="s">
+        <v>371</v>
+      </c>
+      <c r="M21" s="80" t="s">
         <v>372</v>
       </c>
-      <c r="L21" s="98" t="s">
+      <c r="N21" s="80" t="s">
         <v>373</v>
-      </c>
-      <c r="M21" s="80" t="s">
-        <v>374</v>
-      </c>
-      <c r="N21" s="80" t="s">
-        <v>375</v>
       </c>
       <c r="O21" s="80" t="s">
         <v>186</v>
@@ -7921,9 +7488,9 @@
         <v>224</v>
       </c>
       <c r="Q21" s="80" t="s">
-        <v>368</v>
-      </c>
-      <c r="R21" s="80" t="s">
+        <v>366</v>
+      </c>
+      <c r="R21" s="98" t="s">
         <v>189</v>
       </c>
       <c r="S21" s="94"/>
@@ -7932,33 +7499,33 @@
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
       <c r="D22" s="85" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E22" s="85"/>
       <c r="F22" s="85" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G22" s="85" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="H22" s="85" t="s">
-        <v>1128</v>
+        <v>1021</v>
       </c>
       <c r="I22" s="85" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="J22" s="85"/>
       <c r="K22" s="85" t="s">
-        <v>1138</v>
+        <v>765</v>
       </c>
       <c r="L22" s="85" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="M22" s="85" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="N22" s="85" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="O22" s="85"/>
       <c r="P22" s="85" t="s">
@@ -7968,7 +7535,7 @@
         <v>291</v>
       </c>
       <c r="R22" s="85" t="s">
-        <v>786</v>
+        <v>1071</v>
       </c>
       <c r="S22" s="96"/>
       <c r="V22" s="108"/>
@@ -7999,33 +7566,33 @@
         <v>262</v>
       </c>
       <c r="E24" s="84" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F24" s="84"/>
       <c r="G24" s="84" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H24" s="84" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="I24" s="84" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="J24" s="84" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="K24" s="84"/>
       <c r="L24" s="84" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="M24" s="84" t="s">
-        <v>1139</v>
+        <v>1038</v>
       </c>
       <c r="N24" s="84" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="O24" s="84" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P24" s="84"/>
       <c r="Q24" s="84" t="s">
@@ -8046,37 +7613,37 @@
         <v>208</v>
       </c>
       <c r="E25" s="80" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F25" s="80" t="s">
         <v>193</v>
       </c>
       <c r="G25" s="80" t="s">
+        <v>374</v>
+      </c>
+      <c r="H25" s="80" t="s">
+        <v>375</v>
+      </c>
+      <c r="I25" s="80" t="s">
         <v>376</v>
       </c>
-      <c r="H25" s="80" t="s">
+      <c r="J25" s="80" t="s">
         <v>377</v>
-      </c>
-      <c r="I25" s="80" t="s">
-        <v>378</v>
-      </c>
-      <c r="J25" s="80" t="s">
-        <v>379</v>
       </c>
       <c r="K25" s="80" t="s">
         <v>186</v>
       </c>
       <c r="L25" s="98" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M25" s="98" t="s">
         <v>237</v>
       </c>
       <c r="N25" s="80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="O25" s="80" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P25" s="80" t="s">
         <v>186</v>
@@ -8085,7 +7652,7 @@
         <v>224</v>
       </c>
       <c r="R25" s="80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="S25" s="94"/>
       <c r="V25" s="60"/>
@@ -8096,33 +7663,33 @@
         <v>263</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="F26" s="85"/>
       <c r="G26" s="85" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H26" s="85" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="I26" s="85" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="J26" s="85" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K26" s="85"/>
       <c r="L26" s="85" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="M26" s="85" t="s">
-        <v>1140</v>
+        <v>1039</v>
       </c>
       <c r="N26" s="85" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="O26" s="85" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P26" s="85"/>
       <c r="Q26" s="85" t="s">
@@ -8165,39 +7732,39 @@
     <row r="28" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="56"/>
       <c r="D28" s="84" t="s">
-        <v>785</v>
+        <v>1070</v>
       </c>
       <c r="E28" s="84" t="s">
         <v>274</v>
       </c>
       <c r="F28" s="84" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="G28" s="84"/>
       <c r="H28" s="84" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="I28" s="84" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J28" s="84" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="K28" s="84" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="L28" s="84"/>
       <c r="M28" s="84" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="N28" s="84" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="O28" s="84" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="P28" s="84" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="Q28" s="84"/>
       <c r="R28" s="84" t="s">
@@ -8215,44 +7782,44 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="80" t="s">
+      <c r="D29" s="98" t="s">
         <v>189</v>
       </c>
       <c r="E29" s="80" t="s">
         <v>236</v>
       </c>
       <c r="F29" s="80" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G29" s="80" t="s">
         <v>193</v>
       </c>
       <c r="H29" s="80" t="s">
+        <v>380</v>
+      </c>
+      <c r="I29" s="80" t="s">
+        <v>381</v>
+      </c>
+      <c r="J29" s="80" t="s">
         <v>382</v>
       </c>
-      <c r="I29" s="80" t="s">
+      <c r="K29" s="80" t="s">
         <v>383</v>
-      </c>
-      <c r="J29" s="80" t="s">
-        <v>384</v>
-      </c>
-      <c r="K29" s="98" t="s">
-        <v>385</v>
       </c>
       <c r="L29" s="80" t="s">
         <v>186</v>
       </c>
       <c r="M29" s="80" t="s">
+        <v>384</v>
+      </c>
+      <c r="N29" s="80" t="s">
+        <v>385</v>
+      </c>
+      <c r="O29" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="N29" s="80" t="s">
+      <c r="P29" s="80" t="s">
         <v>387</v>
-      </c>
-      <c r="O29" s="80" t="s">
-        <v>388</v>
-      </c>
-      <c r="P29" s="80" t="s">
-        <v>389</v>
       </c>
       <c r="Q29" s="80" t="s">
         <v>186</v>
@@ -8270,39 +7837,39 @@
     <row r="30" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="58"/>
       <c r="D30" s="85" t="s">
-        <v>786</v>
+        <v>1071</v>
       </c>
       <c r="E30" s="85" t="s">
         <v>275</v>
       </c>
       <c r="F30" s="85" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G30" s="85"/>
       <c r="H30" s="85" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="I30" s="85" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="J30" s="85" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="K30" s="85" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="L30" s="85"/>
       <c r="M30" s="85" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="N30" s="85" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="O30" s="85" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="P30" s="85" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="Q30" s="85"/>
       <c r="R30" s="85" t="s">
@@ -8345,33 +7912,33 @@
         <v>290</v>
       </c>
       <c r="E32" s="84" t="s">
-        <v>785</v>
+        <v>1070</v>
       </c>
       <c r="F32" s="84" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G32" s="84" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="H32" s="84"/>
       <c r="I32" s="84" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="J32" s="84" t="s">
-        <v>1141</v>
+        <v>696</v>
       </c>
       <c r="K32" s="84" t="s">
         <v>276</v>
       </c>
       <c r="L32" s="84" t="s">
-        <v>703</v>
+        <v>1072</v>
       </c>
       <c r="M32" s="84"/>
       <c r="N32" s="84" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="O32" s="84" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="P32" s="84" t="s">
         <v>287</v>
@@ -8393,43 +7960,43 @@
         <v>8</v>
       </c>
       <c r="D33" s="80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E33" s="80" t="s">
         <v>189</v>
       </c>
       <c r="F33" s="80" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G33" s="80" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H33" s="80" t="s">
         <v>193</v>
       </c>
       <c r="I33" s="80" t="s">
+        <v>389</v>
+      </c>
+      <c r="J33" s="80" t="s">
+        <v>390</v>
+      </c>
+      <c r="K33" s="80" t="s">
         <v>391</v>
       </c>
-      <c r="J33" s="80" t="s">
+      <c r="L33" s="98" t="s">
         <v>392</v>
-      </c>
-      <c r="K33" s="80" t="s">
-        <v>393</v>
-      </c>
-      <c r="L33" s="98" t="s">
-        <v>394</v>
       </c>
       <c r="M33" s="80" t="s">
         <v>186</v>
       </c>
       <c r="N33" s="80" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="O33" s="80" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="P33" s="80" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="Q33" s="80" t="s">
         <v>188</v>
@@ -8446,33 +8013,33 @@
         <v>291</v>
       </c>
       <c r="E34" s="85" t="s">
-        <v>786</v>
+        <v>1071</v>
       </c>
       <c r="F34" s="85" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G34" s="85" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="H34" s="85"/>
       <c r="I34" s="85" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="J34" s="85" t="s">
-        <v>1142</v>
+        <v>697</v>
       </c>
       <c r="K34" s="85" t="s">
         <v>277</v>
       </c>
       <c r="L34" s="85" t="s">
-        <v>704</v>
+        <v>1073</v>
       </c>
       <c r="M34" s="85"/>
       <c r="N34" s="85" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="O34" s="85" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="P34" s="85" t="s">
         <v>288</v>
@@ -8513,39 +8080,39 @@
         <v>290</v>
       </c>
       <c r="F36" s="84" t="s">
-        <v>785</v>
+        <v>1070</v>
       </c>
       <c r="G36" s="84" t="s">
-        <v>1143</v>
+        <v>1040</v>
       </c>
       <c r="H36" s="84" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="I36" s="84"/>
       <c r="J36" s="84" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="K36" s="84" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="L36" s="84" t="s">
         <v>243</v>
       </c>
       <c r="M36" s="84" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="N36" s="84"/>
       <c r="O36" s="84" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="P36" s="84" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="Q36" s="84" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="R36" s="84" t="s">
-        <v>1145</v>
+        <v>888</v>
       </c>
       <c r="S36" s="93"/>
       <c r="V36" s="60"/>
@@ -8559,46 +8126,46 @@
         <v>224</v>
       </c>
       <c r="E37" s="80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F37" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="G37" s="98" t="s">
-        <v>397</v>
+      <c r="G37" s="100" t="s">
+        <v>395</v>
       </c>
       <c r="H37" s="80" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I37" s="80" t="s">
         <v>193</v>
       </c>
       <c r="J37" s="80" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K37" s="80" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L37" s="80" t="s">
         <v>197</v>
       </c>
       <c r="M37" s="80" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N37" s="80" t="s">
         <v>186</v>
       </c>
       <c r="O37" s="80" t="s">
+        <v>399</v>
+      </c>
+      <c r="P37" s="80" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q37" s="80" t="s">
         <v>401</v>
       </c>
-      <c r="P37" s="80" t="s">
+      <c r="R37" s="80" t="s">
         <v>402</v>
-      </c>
-      <c r="Q37" s="80" t="s">
-        <v>403</v>
-      </c>
-      <c r="R37" s="80" t="s">
-        <v>404</v>
       </c>
       <c r="S37" s="94"/>
       <c r="V37" s="60"/>
@@ -8612,39 +8179,39 @@
         <v>291</v>
       </c>
       <c r="F38" s="85" t="s">
-        <v>786</v>
+        <v>1071</v>
       </c>
       <c r="G38" s="85" t="s">
-        <v>1144</v>
+        <v>1041</v>
       </c>
       <c r="H38" s="85" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="I38" s="85"/>
       <c r="J38" s="85" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="K38" s="85" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="L38" s="85" t="s">
         <v>253</v>
       </c>
       <c r="M38" s="85" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="N38" s="85"/>
       <c r="O38" s="85" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="P38" s="85" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="Q38" s="85" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="R38" s="85" t="s">
-        <v>1146</v>
+        <v>889</v>
       </c>
       <c r="S38" s="96"/>
       <c r="V38" s="60"/>
@@ -8679,33 +8246,33 @@
         <v>290</v>
       </c>
       <c r="G40" s="84" t="s">
-        <v>785</v>
+        <v>1070</v>
       </c>
       <c r="H40" s="84" t="s">
         <v>284</v>
       </c>
       <c r="I40" s="84" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="J40" s="84"/>
       <c r="K40" s="84" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="L40" s="84" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="M40" s="84" t="s">
-        <v>723</v>
+        <v>1074</v>
       </c>
       <c r="N40" s="84"/>
       <c r="O40" s="84" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="P40" s="84" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="Q40" s="84" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="R40" s="84"/>
       <c r="S40" s="93"/>
@@ -8723,7 +8290,7 @@
         <v>224</v>
       </c>
       <c r="F41" s="80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G41" s="80" t="s">
         <v>189</v>
@@ -8732,31 +8299,31 @@
         <v>188</v>
       </c>
       <c r="I41" s="80" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J41" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="K41" s="100" t="s">
+      <c r="K41" s="80" t="s">
+        <v>403</v>
+      </c>
+      <c r="L41" s="80" t="s">
+        <v>404</v>
+      </c>
+      <c r="M41" s="80" t="s">
         <v>405</v>
-      </c>
-      <c r="L41" s="80" t="s">
-        <v>406</v>
-      </c>
-      <c r="M41" s="98" t="s">
-        <v>407</v>
       </c>
       <c r="N41" s="80" t="s">
         <v>211</v>
       </c>
       <c r="O41" s="80" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="P41" s="80" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q41" s="80" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="R41" s="80" t="s">
         <v>211</v>
@@ -8774,33 +8341,33 @@
         <v>291</v>
       </c>
       <c r="G42" s="85" t="s">
-        <v>786</v>
+        <v>1071</v>
       </c>
       <c r="H42" s="85" t="s">
         <v>285</v>
       </c>
       <c r="I42" s="85" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="J42" s="85"/>
       <c r="K42" s="85" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="L42" s="85" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="M42" s="85" t="s">
-        <v>724</v>
+        <v>1075</v>
       </c>
       <c r="N42" s="85"/>
       <c r="O42" s="85" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="P42" s="85" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="Q42" s="85" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="R42" s="85"/>
       <c r="S42" s="96"/>
@@ -8829,26 +8396,26 @@
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="56"/>
       <c r="D44" s="84" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="E44" s="84" t="s">
-        <v>1141</v>
+        <v>696</v>
       </c>
       <c r="F44" s="84" t="s">
         <v>303</v>
       </c>
       <c r="G44" s="84"/>
       <c r="H44" s="84" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="I44" s="84" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="J44" s="84" t="s">
         <v>243</v>
       </c>
       <c r="K44" s="84" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L44" s="84"/>
       <c r="M44" s="84" t="s">
@@ -8858,13 +8425,13 @@
         <v>290</v>
       </c>
       <c r="O44" s="84" t="s">
-        <v>785</v>
+        <v>1070</v>
       </c>
       <c r="P44" s="84" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="Q44" s="84" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="R44" s="84"/>
       <c r="S44" s="93"/>
@@ -8876,22 +8443,22 @@
         <v>11</v>
       </c>
       <c r="D45" s="80" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E45" s="80" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F45" s="80" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G45" s="80" t="s">
         <v>186</v>
       </c>
       <c r="H45" s="80" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I45" s="80" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J45" s="80" t="s">
         <v>197</v>
@@ -8906,16 +8473,16 @@
         <v>224</v>
       </c>
       <c r="N45" s="80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="O45" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="P45" s="98" t="s">
-        <v>412</v>
+      <c r="P45" s="80" t="s">
+        <v>1080</v>
       </c>
       <c r="Q45" s="80" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="R45" s="80" t="s">
         <v>198</v>
@@ -8926,26 +8493,26 @@
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
       <c r="D46" s="85" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>1142</v>
+        <v>697</v>
       </c>
       <c r="F46" s="85" t="s">
         <v>304</v>
       </c>
       <c r="G46" s="85"/>
       <c r="H46" s="85" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="I46" s="85" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="J46" s="85" t="s">
         <v>253</v>
       </c>
       <c r="K46" s="85" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L46" s="85"/>
       <c r="M46" s="85" t="s">
@@ -8955,13 +8522,13 @@
         <v>291</v>
       </c>
       <c r="O46" s="85" t="s">
-        <v>786</v>
+        <v>1071</v>
       </c>
       <c r="P46" s="85" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="Q46" s="85" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="R46" s="85"/>
       <c r="S46" s="96"/>
@@ -8990,20 +8557,20 @@
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="56"/>
       <c r="D48" s="84" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="E48" s="84" t="s">
-        <v>1147</v>
+        <v>878</v>
       </c>
       <c r="F48" s="84" t="s">
         <v>303</v>
       </c>
       <c r="G48" s="84" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="H48" s="84"/>
       <c r="I48" s="84" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="J48" s="84" t="s">
         <v>250</v>
@@ -9015,17 +8582,17 @@
         <v>312</v>
       </c>
       <c r="M48" s="84" t="s">
-        <v>323</v>
+        <v>1084</v>
       </c>
       <c r="N48" s="84" t="s">
-        <v>785</v>
+        <v>1070</v>
       </c>
       <c r="O48" s="84" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="P48" s="84"/>
       <c r="Q48" s="84" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="R48" s="84" t="s">
         <v>272</v>
@@ -9039,7 +8606,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="80" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E49" s="80" t="s">
         <v>231</v>
@@ -9048,13 +8615,13 @@
         <v>194</v>
       </c>
       <c r="G49" s="80" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H49" s="80" t="s">
         <v>186</v>
       </c>
       <c r="I49" s="80" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J49" s="80" t="s">
         <v>191</v>
@@ -9063,25 +8630,25 @@
         <v>242</v>
       </c>
       <c r="L49" s="80" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M49" s="98" t="s">
-        <v>226</v>
+        <v>1081</v>
       </c>
       <c r="N49" s="80" t="s">
         <v>189</v>
       </c>
       <c r="O49" s="80" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="P49" s="80" t="s">
         <v>198</v>
       </c>
       <c r="Q49" s="80" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="R49" s="80" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="S49" s="94"/>
       <c r="V49" s="60"/>
@@ -9089,42 +8656,42 @@
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
       <c r="D50" s="85" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>728</v>
+        <v>879</v>
       </c>
       <c r="F50" s="85" t="s">
         <v>304</v>
       </c>
       <c r="G50" s="85" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="H50" s="85"/>
       <c r="I50" s="85" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="J50" s="85" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K50" s="85" t="s">
         <v>283</v>
       </c>
       <c r="L50" s="85" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M50" s="85" t="s">
-        <v>332</v>
+        <v>1085</v>
       </c>
       <c r="N50" s="85" t="s">
-        <v>786</v>
+        <v>1071</v>
       </c>
       <c r="O50" s="85" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="P50" s="85"/>
       <c r="Q50" s="85" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="R50" s="85" t="s">
         <v>273</v>
@@ -9155,40 +8722,42 @@
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
       <c r="D52" s="84" t="s">
-        <v>1148</v>
+        <v>1042</v>
       </c>
       <c r="E52" s="84" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="F52" s="84" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="G52" s="84"/>
       <c r="H52" s="84" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I52" s="84" t="s">
-        <v>1150</v>
+        <v>1086</v>
       </c>
       <c r="J52" s="84" t="s">
         <v>256</v>
       </c>
       <c r="K52" s="84" t="s">
-        <v>1123</v>
+        <v>1018</v>
       </c>
       <c r="L52" s="84"/>
       <c r="M52" s="84" t="s">
-        <v>741</v>
-      </c>
-      <c r="N52" s="84"/>
+        <v>732</v>
+      </c>
+      <c r="N52" s="84" t="s">
+        <v>1028</v>
+      </c>
       <c r="O52" s="84" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="P52" s="84" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="Q52" s="84" t="s">
-        <v>1148</v>
+        <v>1042</v>
       </c>
       <c r="R52" s="84"/>
       <c r="S52" s="93"/>
@@ -9200,22 +8769,22 @@
         <v>13</v>
       </c>
       <c r="D53" s="80" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E53" s="80" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F53" s="80" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G53" s="80" t="s">
         <v>186</v>
       </c>
       <c r="H53" s="80" t="s">
-        <v>420</v>
-      </c>
-      <c r="I53" s="80" t="s">
-        <v>421</v>
+        <v>417</v>
+      </c>
+      <c r="I53" s="98" t="s">
+        <v>418</v>
       </c>
       <c r="J53" s="80" t="s">
         <v>199</v>
@@ -9227,19 +8796,19 @@
         <v>186</v>
       </c>
       <c r="M53" s="80" t="s">
+        <v>419</v>
+      </c>
+      <c r="N53" s="80" t="s">
+        <v>1082</v>
+      </c>
+      <c r="O53" s="80" t="s">
+        <v>420</v>
+      </c>
+      <c r="P53" s="80" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q53" s="80" t="s">
         <v>422</v>
-      </c>
-      <c r="N53" s="80" t="s">
-        <v>423</v>
-      </c>
-      <c r="O53" s="80" t="s">
-        <v>424</v>
-      </c>
-      <c r="P53" s="80" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q53" s="80" t="s">
-        <v>426</v>
       </c>
       <c r="R53" s="80" t="s">
         <v>186</v>
@@ -9250,40 +8819,42 @@
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="85" t="s">
-        <v>1149</v>
+        <v>1043</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="F54" s="85" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="G54" s="85"/>
       <c r="H54" s="85" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="I54" s="85" t="s">
-        <v>1151</v>
+        <v>1087</v>
       </c>
       <c r="J54" s="85" t="s">
         <v>257</v>
       </c>
       <c r="K54" s="85" t="s">
-        <v>1124</v>
+        <v>1019</v>
       </c>
       <c r="L54" s="85"/>
       <c r="M54" s="85" t="s">
-        <v>742</v>
-      </c>
-      <c r="N54" s="85"/>
+        <v>733</v>
+      </c>
+      <c r="N54" s="85" t="s">
+        <v>1029</v>
+      </c>
       <c r="O54" s="85" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="P54" s="85" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="Q54" s="85" t="s">
-        <v>1149</v>
+        <v>1043</v>
       </c>
       <c r="R54" s="85"/>
       <c r="S54" s="96"/>
@@ -9312,45 +8883,45 @@
     <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="56"/>
       <c r="D56" s="84" t="s">
-        <v>1152</v>
+        <v>1044</v>
       </c>
       <c r="E56" s="84" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F56" s="84" t="s">
         <v>270</v>
       </c>
       <c r="G56" s="84" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="H56" s="84"/>
       <c r="I56" s="84" t="s">
-        <v>1147</v>
+        <v>878</v>
       </c>
       <c r="J56" s="84" t="s">
-        <v>1154</v>
+        <v>1046</v>
       </c>
       <c r="K56" s="84" t="s">
-        <v>1156</v>
+        <v>1048</v>
       </c>
       <c r="L56" s="84" t="s">
-        <v>1157</v>
+        <v>738</v>
       </c>
       <c r="M56" s="84" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="N56" s="84" t="s">
         <v>260</v>
       </c>
       <c r="O56" s="84" t="s">
-        <v>1159</v>
+        <v>1050</v>
       </c>
       <c r="P56" s="84"/>
       <c r="Q56" s="84" t="s">
         <v>260</v>
       </c>
       <c r="R56" s="84" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="S56" s="93"/>
       <c r="V56" s="60"/>
@@ -9361,16 +8932,16 @@
         <v>14</v>
       </c>
       <c r="D57" s="80" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E57" s="80" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F57" s="80" t="s">
         <v>196</v>
       </c>
       <c r="G57" s="81" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H57" s="80" t="s">
         <v>186</v>
@@ -9379,22 +8950,22 @@
         <v>231</v>
       </c>
       <c r="J57" s="80" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="K57" s="80" t="s">
         <v>204</v>
       </c>
       <c r="L57" s="80" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M57" s="80" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="N57" s="80" t="s">
         <v>207</v>
       </c>
       <c r="O57" s="80" t="s">
-        <v>432</v>
+        <v>1083</v>
       </c>
       <c r="P57" s="80" t="s">
         <v>198</v>
@@ -9403,7 +8974,7 @@
         <v>207</v>
       </c>
       <c r="R57" s="80" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="S57" s="94"/>
       <c r="V57" s="60"/>
@@ -9411,45 +8982,45 @@
     <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="58"/>
       <c r="D58" s="85" t="s">
-        <v>1153</v>
+        <v>1045</v>
       </c>
       <c r="E58" s="85" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="F58" s="85" t="s">
         <v>271</v>
       </c>
       <c r="G58" s="85" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="H58" s="85"/>
       <c r="I58" s="85" t="s">
-        <v>728</v>
+        <v>879</v>
       </c>
       <c r="J58" s="85" t="s">
-        <v>1155</v>
+        <v>1047</v>
       </c>
       <c r="K58" s="85" t="s">
-        <v>648</v>
+        <v>1049</v>
       </c>
       <c r="L58" s="85" t="s">
-        <v>1158</v>
+        <v>739</v>
       </c>
       <c r="M58" s="85" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="N58" s="85" t="s">
         <v>261</v>
       </c>
       <c r="O58" s="85" t="s">
-        <v>1160</v>
+        <v>1051</v>
       </c>
       <c r="P58" s="85"/>
       <c r="Q58" s="85" t="s">
         <v>261</v>
       </c>
       <c r="R58" s="85" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="S58" s="96"/>
       <c r="V58" s="60"/>
@@ -9477,41 +9048,43 @@
     <row r="60" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="56"/>
       <c r="D60" s="84" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="E60" s="84" t="s">
         <v>289</v>
       </c>
-      <c r="F60" s="84"/>
+      <c r="F60" s="84" t="s">
+        <v>1026</v>
+      </c>
       <c r="G60" s="84" t="s">
-        <v>1157</v>
+        <v>738</v>
       </c>
       <c r="H60" s="84" t="s">
         <v>268</v>
       </c>
       <c r="I60" s="84" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="J60" s="84"/>
       <c r="K60" s="84" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="L60" s="84" t="s">
         <v>305</v>
       </c>
       <c r="M60" s="84" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="N60" s="84"/>
       <c r="O60" s="84"/>
       <c r="P60" s="84" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="Q60" s="84" t="s">
-        <v>1161</v>
+        <v>1052</v>
       </c>
       <c r="R60" s="84" t="s">
-        <v>1157</v>
+        <v>738</v>
       </c>
       <c r="S60" s="93"/>
       <c r="V60" s="60"/>
@@ -9522,34 +9095,34 @@
         <v>15</v>
       </c>
       <c r="D61" s="80" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E61" s="80" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F61" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="G61" s="81" t="s">
-        <v>430</v>
+      <c r="G61" s="101" t="s">
+        <v>426</v>
       </c>
       <c r="H61" s="80" t="s">
         <v>232</v>
       </c>
       <c r="I61" s="80" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="J61" s="80" t="s">
         <v>233</v>
       </c>
       <c r="K61" s="80" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="L61" s="80" t="s">
         <v>225</v>
       </c>
       <c r="M61" s="80" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="N61" s="80" t="s">
         <v>221</v>
@@ -9558,13 +9131,13 @@
         <v>222</v>
       </c>
       <c r="P61" s="80" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="Q61" s="80" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="R61" s="98" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="S61" s="94"/>
       <c r="V61" s="60"/>
@@ -9572,41 +9145,43 @@
     <row r="62" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="58"/>
       <c r="D62" s="85" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="E62" s="85" t="s">
-        <v>334</v>
-      </c>
-      <c r="F62" s="85"/>
+        <v>332</v>
+      </c>
+      <c r="F62" s="85" t="s">
+        <v>1027</v>
+      </c>
       <c r="G62" s="85" t="s">
-        <v>1158</v>
+        <v>739</v>
       </c>
       <c r="H62" s="85" t="s">
         <v>269</v>
       </c>
       <c r="I62" s="85" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="J62" s="85"/>
       <c r="K62" s="85" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="L62" s="85" t="s">
         <v>306</v>
       </c>
       <c r="M62" s="85" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="N62" s="85"/>
       <c r="O62" s="85"/>
       <c r="P62" s="85" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="Q62" s="85" t="s">
-        <v>329</v>
+        <v>1053</v>
       </c>
       <c r="R62" s="85" t="s">
-        <v>1158</v>
+        <v>739</v>
       </c>
       <c r="S62" s="96"/>
       <c r="V62" s="60"/>
@@ -9634,10 +9209,10 @@
     <row r="64" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="56"/>
       <c r="D64" s="84" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="E64" s="84" t="s">
-        <v>1162</v>
+        <v>692</v>
       </c>
       <c r="F64" s="84" t="s">
         <v>260</v>
@@ -9646,31 +9221,31 @@
         <v>250</v>
       </c>
       <c r="H64" s="84" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="I64" s="84"/>
       <c r="J64" s="84"/>
       <c r="K64" s="84" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="L64" s="84" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="M64" s="84" t="s">
-        <v>1156</v>
+        <v>1048</v>
       </c>
       <c r="N64" s="84" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="O64" s="84"/>
       <c r="P64" s="84" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="Q64" s="84" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="R64" s="84" t="s">
-        <v>1156</v>
+        <v>1048</v>
       </c>
       <c r="S64" s="93"/>
       <c r="V64" s="60"/>
@@ -9681,10 +9256,10 @@
         <v>16</v>
       </c>
       <c r="D65" s="80" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E65" s="80" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F65" s="80" t="s">
         <v>207</v>
@@ -9693,7 +9268,7 @@
         <v>191</v>
       </c>
       <c r="H65" s="80" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I65" s="80" t="s">
         <v>198</v>
@@ -9702,25 +9277,25 @@
         <v>230</v>
       </c>
       <c r="K65" s="100" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="L65" s="80" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M65" s="80" t="s">
         <v>204</v>
       </c>
       <c r="N65" s="80" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="O65" s="80" t="s">
         <v>186</v>
       </c>
       <c r="P65" s="80" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="Q65" s="80" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="R65" s="80" t="s">
         <v>204</v>
@@ -9731,43 +9306,43 @@
     <row r="66" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="58"/>
       <c r="D66" s="85" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="E66" s="85" t="s">
-        <v>1163</v>
+        <v>693</v>
       </c>
       <c r="F66" s="85" t="s">
         <v>261</v>
       </c>
       <c r="G66" s="85" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H66" s="85" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="I66" s="85"/>
       <c r="J66" s="85"/>
       <c r="K66" s="85" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="L66" s="85" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="M66" s="85" t="s">
-        <v>648</v>
+        <v>1049</v>
       </c>
       <c r="N66" s="85" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="O66" s="85"/>
       <c r="P66" s="85" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="Q66" s="85" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="R66" s="85" t="s">
-        <v>648</v>
+        <v>1049</v>
       </c>
       <c r="S66" s="96"/>
       <c r="V66" s="60"/>
@@ -9799,36 +9374,36 @@
       </c>
       <c r="E68" s="84"/>
       <c r="F68" s="84" t="s">
-        <v>1148</v>
+        <v>1042</v>
       </c>
       <c r="G68" s="84" t="s">
         <v>258</v>
       </c>
       <c r="H68" s="84" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="I68" s="84" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="J68" s="84"/>
       <c r="K68" s="84" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="L68" s="84" t="s">
         <v>268</v>
       </c>
       <c r="M68" s="84" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="N68" s="84" t="s">
         <v>319</v>
       </c>
       <c r="O68" s="84"/>
       <c r="P68" s="84" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="Q68" s="84" t="s">
-        <v>1162</v>
+        <v>692</v>
       </c>
       <c r="R68" s="84" t="s">
         <v>260</v>
@@ -9848,28 +9423,28 @@
         <v>186</v>
       </c>
       <c r="F69" s="80" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G69" s="81" t="s">
         <v>202</v>
       </c>
       <c r="H69" s="80" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="I69" s="80" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="J69" s="80" t="s">
         <v>186</v>
       </c>
       <c r="K69" s="80" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L69" s="80" t="s">
         <v>232</v>
       </c>
       <c r="M69" s="80" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="N69" s="80" t="s">
         <v>228</v>
@@ -9878,10 +9453,10 @@
         <v>235</v>
       </c>
       <c r="P69" s="80" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="Q69" s="80" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="R69" s="80" t="s">
         <v>207</v>
@@ -9896,36 +9471,36 @@
       </c>
       <c r="E70" s="85"/>
       <c r="F70" s="85" t="s">
-        <v>1149</v>
+        <v>1043</v>
       </c>
       <c r="G70" s="85" t="s">
         <v>259</v>
       </c>
       <c r="H70" s="85" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="I70" s="85" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="J70" s="85"/>
       <c r="K70" s="85" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="L70" s="85" t="s">
         <v>269</v>
       </c>
       <c r="M70" s="85" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="N70" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O70" s="85"/>
       <c r="P70" s="85" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="Q70" s="85" t="s">
-        <v>1163</v>
+        <v>693</v>
       </c>
       <c r="R70" s="85" t="s">
         <v>261</v>
@@ -9960,10 +9535,10 @@
       </c>
       <c r="E72" s="84"/>
       <c r="F72" s="84" t="s">
-        <v>1164</v>
+        <v>1054</v>
       </c>
       <c r="G72" s="84" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="H72" s="84" t="s">
         <v>299</v>
@@ -9972,23 +9547,23 @@
         <v>250</v>
       </c>
       <c r="J72" s="84" t="s">
-        <v>773</v>
+        <v>1088</v>
       </c>
       <c r="K72" s="84" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="L72" s="84" t="s">
-        <v>1166</v>
+        <v>1056</v>
       </c>
       <c r="M72" s="84"/>
       <c r="N72" s="84" t="s">
         <v>315</v>
       </c>
       <c r="O72" s="84" t="s">
-        <v>773</v>
+        <v>1088</v>
       </c>
       <c r="P72" s="84" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="Q72" s="84" t="s">
         <v>322</v>
@@ -10014,7 +9589,7 @@
         <v>217</v>
       </c>
       <c r="G73" s="80" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H73" s="80" t="s">
         <v>209</v>
@@ -10023,10 +9598,10 @@
         <v>191</v>
       </c>
       <c r="J73" s="98" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K73" s="80" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L73" s="80" t="s">
         <v>238</v>
@@ -10038,13 +9613,13 @@
         <v>213</v>
       </c>
       <c r="O73" s="98" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="P73" s="80" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q73" s="80" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="R73" s="80" t="s">
         <v>202</v>
@@ -10059,38 +9634,38 @@
       </c>
       <c r="E74" s="85"/>
       <c r="F74" s="85" t="s">
-        <v>1165</v>
+        <v>1055</v>
       </c>
       <c r="G74" s="85" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="H74" s="85" t="s">
         <v>300</v>
       </c>
       <c r="I74" s="85" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J74" s="85" t="s">
-        <v>774</v>
+        <v>1089</v>
       </c>
       <c r="K74" s="85" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="L74" s="85" t="s">
-        <v>1167</v>
+        <v>1057</v>
       </c>
       <c r="M74" s="85"/>
       <c r="N74" s="85" t="s">
         <v>316</v>
       </c>
       <c r="O74" s="85" t="s">
-        <v>774</v>
+        <v>1089</v>
       </c>
       <c r="P74" s="85" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="Q74" s="85" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="R74" s="85" t="s">
         <v>259</v>
@@ -10146,9 +9721,9 @@
         <v>19</v>
       </c>
       <c r="D77" s="80" t="s">
-        <v>450</v>
-      </c>
-      <c r="E77" s="102" t="s">
+        <v>445</v>
+      </c>
+      <c r="E77" s="80" t="s">
         <v>198</v>
       </c>
       <c r="F77" s="80"/>
@@ -10295,19 +9870,19 @@
     <row r="84" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="56"/>
       <c r="D84" s="84" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="E84" s="84" t="s">
         <v>299</v>
       </c>
       <c r="F84" s="84" t="s">
-        <v>1156</v>
+        <v>1048</v>
       </c>
       <c r="G84" s="84" t="s">
-        <v>773</v>
+        <v>1088</v>
       </c>
       <c r="H84" s="84" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="I84" s="84"/>
       <c r="J84" s="84" t="s">
@@ -10317,7 +9892,7 @@
         <v>260</v>
       </c>
       <c r="L84" s="84" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="M84" s="84" t="s">
         <v>309</v>
@@ -10327,13 +9902,13 @@
       </c>
       <c r="O84" s="84"/>
       <c r="P84" s="84" t="s">
-        <v>1131</v>
+        <v>1032</v>
       </c>
       <c r="Q84" s="84" t="s">
         <v>290</v>
       </c>
       <c r="R84" s="84" t="s">
-        <v>785</v>
+        <v>1070</v>
       </c>
       <c r="S84" s="93"/>
       <c r="V84" s="60"/>
@@ -10344,7 +9919,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="80" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E85" s="80" t="s">
         <v>209</v>
@@ -10353,10 +9928,10 @@
         <v>204</v>
       </c>
       <c r="G85" s="101" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H85" s="80" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I85" s="80" t="s">
         <v>186</v>
@@ -10368,22 +9943,22 @@
         <v>207</v>
       </c>
       <c r="L85" s="80" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="M85" s="80" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="N85" s="80" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="O85" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P85" s="80" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Q85" s="80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="R85" s="80" t="s">
         <v>189</v>
@@ -10394,19 +9969,19 @@
     <row r="86" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="58"/>
       <c r="D86" s="85" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="E86" s="85" t="s">
         <v>300</v>
       </c>
       <c r="F86" s="85" t="s">
-        <v>648</v>
+        <v>1049</v>
       </c>
       <c r="G86" s="85" t="s">
-        <v>774</v>
+        <v>1089</v>
       </c>
       <c r="H86" s="85" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="I86" s="85"/>
       <c r="J86" s="85" t="s">
@@ -10416,7 +9991,7 @@
         <v>261</v>
       </c>
       <c r="L86" s="85" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="M86" s="85" t="s">
         <v>310</v>
@@ -10426,13 +10001,13 @@
       </c>
       <c r="O86" s="85"/>
       <c r="P86" s="85" t="s">
-        <v>1132</v>
+        <v>1033</v>
       </c>
       <c r="Q86" s="85" t="s">
         <v>291</v>
       </c>
       <c r="R86" s="85" t="s">
-        <v>786</v>
+        <v>1071</v>
       </c>
       <c r="S86" s="96"/>
       <c r="V86" s="60"/>
@@ -10463,23 +10038,23 @@
         <v>268</v>
       </c>
       <c r="E88" s="84" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="F88" s="84"/>
       <c r="G88" s="84" t="s">
-        <v>1168</v>
+        <v>1058</v>
       </c>
       <c r="H88" s="84" t="s">
         <v>290</v>
       </c>
       <c r="I88" s="84" t="s">
-        <v>785</v>
+        <v>1070</v>
       </c>
       <c r="J88" s="84" t="s">
         <v>274</v>
       </c>
       <c r="K88" s="84" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="L88" s="84"/>
       <c r="M88" s="84"/>
@@ -10497,19 +10072,19 @@
         <v>22</v>
       </c>
       <c r="D89" s="80" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E89" s="80" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F89" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G89" s="80" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="H89" s="80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I89" s="80" t="s">
         <v>189</v>
@@ -10518,7 +10093,7 @@
         <v>236</v>
       </c>
       <c r="K89" s="80" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="L89" s="80" t="s">
         <v>198</v>
@@ -10538,23 +10113,23 @@
         <v>269</v>
       </c>
       <c r="E90" s="85" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="F90" s="85"/>
       <c r="G90" s="85" t="s">
-        <v>1169</v>
+        <v>1059</v>
       </c>
       <c r="H90" s="85" t="s">
         <v>291</v>
       </c>
       <c r="I90" s="85" t="s">
-        <v>786</v>
+        <v>1071</v>
       </c>
       <c r="J90" s="85" t="s">
         <v>275</v>
       </c>
       <c r="K90" s="85" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="L90" s="85"/>
       <c r="M90" s="85"/>
@@ -10595,29 +10170,29 @@
         <v>284</v>
       </c>
       <c r="F92" s="84" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="G92" s="84" t="s">
-        <v>1162</v>
+        <v>692</v>
       </c>
       <c r="H92" s="84" t="s">
         <v>260</v>
       </c>
       <c r="I92" s="84"/>
       <c r="J92" s="84" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="K92" s="84" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="L92" s="84" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M92" s="84" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="N92" s="84" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="O92" s="84"/>
       <c r="P92" s="84" t="s">
@@ -10627,7 +10202,7 @@
         <v>248</v>
       </c>
       <c r="R92" s="84" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="S92" s="93"/>
       <c r="V92" s="60"/>
@@ -10638,16 +10213,16 @@
         <v>23</v>
       </c>
       <c r="D93" s="80" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E93" s="80" t="s">
         <v>188</v>
       </c>
       <c r="F93" s="80" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G93" s="80" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H93" s="80" t="s">
         <v>207</v>
@@ -10656,31 +10231,31 @@
         <v>186</v>
       </c>
       <c r="J93" s="98" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="K93" s="98" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="L93" s="80" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M93" s="80" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="N93" s="80" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="O93" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P93" s="80" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="Q93" s="80" t="s">
         <v>190</v>
       </c>
       <c r="R93" s="80" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S93" s="94"/>
       <c r="V93" s="60"/>
@@ -10694,29 +10269,29 @@
         <v>285</v>
       </c>
       <c r="F94" s="85" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="G94" s="85" t="s">
-        <v>1163</v>
+        <v>693</v>
       </c>
       <c r="H94" s="85" t="s">
         <v>261</v>
       </c>
       <c r="I94" s="85"/>
       <c r="J94" s="85" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="K94" s="85" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="L94" s="85" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M94" s="85" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="N94" s="85" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="O94" s="85"/>
       <c r="P94" s="85" t="s">
@@ -10726,7 +10301,7 @@
         <v>249</v>
       </c>
       <c r="R94" s="85" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="S94" s="96"/>
       <c r="V94" s="60"/>
@@ -10754,10 +10329,10 @@
     <row r="96" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="56"/>
       <c r="D96" s="84" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="E96" s="84" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="F96" s="84"/>
       <c r="G96" s="84" t="s">
@@ -10770,7 +10345,7 @@
         <v>262</v>
       </c>
       <c r="J96" s="84" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="K96" s="84" t="s">
         <v>307</v>
@@ -10791,28 +10366,28 @@
         <v>24</v>
       </c>
       <c r="D97" s="80" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E97" s="80" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F97" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G97" s="81" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H97" s="80" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I97" s="80" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="J97" s="80" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="K97" s="80" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L97" s="80" t="s">
         <v>198</v>
@@ -10829,10 +10404,10 @@
     <row r="98" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="58"/>
       <c r="D98" s="85" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="E98" s="85" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F98" s="85"/>
       <c r="G98" s="85" t="s">
@@ -10845,7 +10420,7 @@
         <v>263</v>
       </c>
       <c r="J98" s="85" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="K98" s="85" t="s">
         <v>308</v>
@@ -10889,10 +10464,10 @@
         <v>254</v>
       </c>
       <c r="F100" s="84" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="G100" s="84" t="s">
-        <v>1164</v>
+        <v>1054</v>
       </c>
       <c r="H100" s="84" t="s">
         <v>317</v>
@@ -10908,17 +10483,17 @@
         <v>278</v>
       </c>
       <c r="M100" s="84" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="N100" s="84" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="O100" s="84"/>
       <c r="P100" s="84" t="s">
-        <v>1170</v>
+        <v>1060</v>
       </c>
       <c r="Q100" s="84" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="R100" s="84" t="s">
         <v>246</v>
@@ -10935,16 +10510,16 @@
         <v>224</v>
       </c>
       <c r="E101" s="80" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F101" s="80" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G101" s="80" t="s">
         <v>217</v>
       </c>
       <c r="H101" s="80" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="I101" s="80" t="s">
         <v>186</v>
@@ -10959,19 +10534,19 @@
         <v>215</v>
       </c>
       <c r="M101" s="80" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="N101" s="98" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="O101" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P101" s="80" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="Q101" s="80" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="R101" s="80" t="s">
         <v>184</v>
@@ -10988,10 +10563,10 @@
         <v>255</v>
       </c>
       <c r="F102" s="85" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="G102" s="85" t="s">
-        <v>1165</v>
+        <v>1055</v>
       </c>
       <c r="H102" s="85" t="s">
         <v>318</v>
@@ -11007,17 +10582,17 @@
         <v>279</v>
       </c>
       <c r="M102" s="85" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="N102" s="85" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="O102" s="85"/>
       <c r="P102" s="85" t="s">
-        <v>756</v>
+        <v>1061</v>
       </c>
       <c r="Q102" s="85" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="R102" s="85" t="s">
         <v>247</v>
@@ -11049,23 +10624,23 @@
       <c r="B104" s="56"/>
       <c r="D104" s="84"/>
       <c r="E104" s="84" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="F104" s="84"/>
       <c r="G104" s="84" t="s">
-        <v>1170</v>
+        <v>1060</v>
       </c>
       <c r="H104" s="84" t="s">
         <v>244</v>
       </c>
       <c r="I104" s="84" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="J104" s="84" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="K104" s="84" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="L104" s="84"/>
       <c r="M104" s="84"/>
@@ -11083,28 +10658,28 @@
         <v>26</v>
       </c>
       <c r="D105" s="80" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E105" s="80" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F105" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G105" s="101" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H105" s="80" t="s">
         <v>183</v>
       </c>
       <c r="I105" s="80" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="J105" s="80" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="K105" s="80" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="L105" s="80" t="s">
         <v>198</v>
@@ -11122,23 +10697,23 @@
       <c r="B106" s="58"/>
       <c r="D106" s="85"/>
       <c r="E106" s="85" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="F106" s="85"/>
       <c r="G106" s="85" t="s">
-        <v>756</v>
+        <v>1061</v>
       </c>
       <c r="H106" s="85" t="s">
         <v>245</v>
       </c>
       <c r="I106" s="85" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="J106" s="85" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="K106" s="85" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="L106" s="85"/>
       <c r="M106" s="85"/>
@@ -11173,45 +10748,45 @@
     <row r="108" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="56"/>
       <c r="D108" s="84" t="s">
-        <v>1171</v>
+        <v>1060</v>
       </c>
       <c r="E108" s="84" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="F108" s="84" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="G108" s="84" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="H108" s="84" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="I108" s="84"/>
       <c r="J108" s="84" t="s">
-        <v>1171</v>
+        <v>1060</v>
       </c>
       <c r="K108" s="84" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="L108" s="84" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="M108" s="84" t="s">
-        <v>1172</v>
+        <v>1062</v>
       </c>
       <c r="N108" s="84" t="s">
-        <v>817</v>
+        <v>780</v>
       </c>
       <c r="O108" s="84"/>
       <c r="P108" s="84" t="s">
-        <v>997</v>
+        <v>1070</v>
       </c>
       <c r="Q108" s="84" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="R108" s="84" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="S108" s="93"/>
       <c r="V108" s="60"/>
@@ -11222,37 +10797,37 @@
         <v>27</v>
       </c>
       <c r="D109" s="80" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E109" s="80" t="s">
         <v>223</v>
       </c>
       <c r="F109" s="80" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G109" s="80" t="s">
         <v>210</v>
       </c>
       <c r="H109" s="98" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="I109" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J109" s="80" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="K109" s="80" t="s">
         <v>234</v>
       </c>
       <c r="L109" s="80" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="M109" s="80" t="s">
         <v>187</v>
       </c>
       <c r="N109" s="80" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="O109" s="80" t="s">
         <v>198</v>
@@ -11261,10 +10836,10 @@
         <v>189</v>
       </c>
       <c r="Q109" s="80" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="R109" s="80" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="S109" s="94"/>
       <c r="V109" s="60"/>
@@ -11272,45 +10847,45 @@
     <row r="110" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="58"/>
       <c r="D110" s="85" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E110" s="85" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="F110" s="85" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="G110" s="85" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="H110" s="85" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="I110" s="85"/>
       <c r="J110" s="85" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="K110" s="85" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="L110" s="85" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="M110" s="85" t="s">
-        <v>1173</v>
+        <v>1063</v>
       </c>
       <c r="N110" s="85" t="s">
-        <v>818</v>
+        <v>781</v>
       </c>
       <c r="O110" s="85"/>
       <c r="P110" s="85" t="s">
-        <v>998</v>
+        <v>1071</v>
       </c>
       <c r="Q110" s="85" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="R110" s="85" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="S110" s="96"/>
       <c r="V110" s="60"/>
@@ -11338,26 +10913,26 @@
     <row r="112" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B112" s="56"/>
       <c r="D112" s="84" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="E112" s="84" t="s">
-        <v>1174</v>
+        <v>1022</v>
       </c>
       <c r="F112" s="84"/>
       <c r="G112" s="84" t="s">
-        <v>997</v>
+        <v>1070</v>
       </c>
       <c r="H112" s="84" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="I112" s="84" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="J112" s="84" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="K112" s="84" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="L112" s="84"/>
       <c r="M112" s="84"/>
@@ -11375,10 +10950,10 @@
         <v>28</v>
       </c>
       <c r="D113" s="80" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E113" s="80" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F113" s="80" t="s">
         <v>186</v>
@@ -11387,16 +10962,16 @@
         <v>189</v>
       </c>
       <c r="H113" s="98" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="I113" s="80" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="J113" s="80" t="s">
         <v>185</v>
       </c>
       <c r="K113" s="98" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="L113" s="80" t="s">
         <v>198</v>
@@ -11413,26 +10988,26 @@
     <row r="114" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B114" s="58"/>
       <c r="D114" s="85" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="E114" s="85" t="s">
-        <v>1175</v>
+        <v>1023</v>
       </c>
       <c r="F114" s="85"/>
       <c r="G114" s="85" t="s">
-        <v>998</v>
+        <v>1071</v>
       </c>
       <c r="H114" s="85" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="I114" s="85" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="J114" s="85" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="K114" s="85" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="L114" s="85"/>
       <c r="M114" s="85"/>
@@ -11467,45 +11042,45 @@
     <row r="116" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="56"/>
       <c r="D116" s="84" t="s">
-        <v>997</v>
+        <v>1070</v>
       </c>
       <c r="E116" s="84" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="F116" s="84" t="s">
-        <v>833</v>
+        <v>632</v>
       </c>
       <c r="G116" s="84" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="H116" s="84" t="s">
-        <v>837</v>
+        <v>323</v>
       </c>
       <c r="I116" s="84"/>
       <c r="J116" s="84" t="s">
-        <v>997</v>
+        <v>1070</v>
       </c>
       <c r="K116" s="84" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="L116" s="84" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
       <c r="M116" s="84" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
       <c r="N116" s="84" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="O116" s="84"/>
       <c r="P116" s="84" t="s">
-        <v>847</v>
+        <v>712</v>
       </c>
       <c r="Q116" s="84" t="s">
-        <v>997</v>
+        <v>1070</v>
       </c>
       <c r="R116" s="84" t="s">
-        <v>849</v>
+        <v>832</v>
       </c>
       <c r="S116" s="93"/>
       <c r="V116" s="60"/>
@@ -11519,16 +11094,16 @@
         <v>189</v>
       </c>
       <c r="E117" s="80" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F117" s="98" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G117" s="81" t="s">
         <v>240</v>
       </c>
       <c r="H117" s="80" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="I117" s="80" t="s">
         <v>186</v>
@@ -11537,28 +11112,28 @@
         <v>189</v>
       </c>
       <c r="K117" s="80" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="L117" s="80" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="M117" s="80" t="s">
         <v>203</v>
       </c>
       <c r="N117" s="98" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="O117" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P117" s="80" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Q117" s="80" t="s">
         <v>189</v>
       </c>
       <c r="R117" s="80" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="S117" s="94"/>
       <c r="V117" s="60"/>
@@ -11566,45 +11141,45 @@
     <row r="118" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="58"/>
       <c r="D118" s="85" t="s">
-        <v>998</v>
+        <v>1071</v>
       </c>
       <c r="E118" s="85" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="F118" s="85" t="s">
-        <v>834</v>
+        <v>633</v>
       </c>
       <c r="G118" s="85" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="H118" s="85" t="s">
-        <v>838</v>
+        <v>324</v>
       </c>
       <c r="I118" s="85"/>
       <c r="J118" s="85" t="s">
-        <v>998</v>
+        <v>1071</v>
       </c>
       <c r="K118" s="85" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="L118" s="85" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
       <c r="M118" s="85" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="N118" s="85" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="O118" s="85"/>
       <c r="P118" s="85" t="s">
-        <v>848</v>
+        <v>713</v>
       </c>
       <c r="Q118" s="85" t="s">
-        <v>998</v>
+        <v>1071</v>
       </c>
       <c r="R118" s="85" t="s">
-        <v>850</v>
+        <v>833</v>
       </c>
       <c r="S118" s="96"/>
       <c r="V118" s="60"/>
@@ -11632,26 +11207,26 @@
     <row r="120" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="56"/>
       <c r="D120" s="84" t="s">
-        <v>851</v>
+        <v>646</v>
       </c>
       <c r="E120" s="84" t="s">
-        <v>853</v>
+        <v>834</v>
       </c>
       <c r="F120" s="84"/>
       <c r="G120" s="84" t="s">
-        <v>855</v>
+        <v>714</v>
       </c>
       <c r="H120" s="84" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="I120" s="84" t="s">
-        <v>859</v>
+        <v>726</v>
       </c>
       <c r="J120" s="84" t="s">
-        <v>861</v>
+        <v>838</v>
       </c>
       <c r="K120" s="84" t="s">
-        <v>863</v>
+        <v>840</v>
       </c>
       <c r="L120" s="84"/>
       <c r="M120" s="84"/>
@@ -11669,28 +11244,28 @@
         <v>30</v>
       </c>
       <c r="D121" s="80" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E121" s="80" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F121" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G121" s="81" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="H121" s="80" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="I121" s="80" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J121" s="80" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K121" s="80" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="L121" s="80" t="s">
         <v>198</v>
@@ -11707,26 +11282,26 @@
     <row r="122" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B122" s="58"/>
       <c r="D122" s="85" t="s">
-        <v>852</v>
+        <v>647</v>
       </c>
       <c r="E122" s="85" t="s">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="F122" s="85"/>
       <c r="G122" s="85" t="s">
-        <v>856</v>
+        <v>715</v>
       </c>
       <c r="H122" s="85" t="s">
-        <v>858</v>
+        <v>837</v>
       </c>
       <c r="I122" s="85" t="s">
-        <v>860</v>
+        <v>727</v>
       </c>
       <c r="J122" s="85" t="s">
-        <v>862</v>
+        <v>839</v>
       </c>
       <c r="K122" s="85" t="s">
-        <v>864</v>
+        <v>841</v>
       </c>
       <c r="L122" s="85"/>
       <c r="M122" s="85"/>
@@ -11761,45 +11336,45 @@
     <row r="124" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="56"/>
       <c r="D124" s="84" t="s">
-        <v>847</v>
+        <v>712</v>
       </c>
       <c r="E124" s="84" t="s">
-        <v>997</v>
+        <v>1070</v>
       </c>
       <c r="F124" s="84" t="s">
-        <v>865</v>
+        <v>325</v>
       </c>
       <c r="G124" s="84" t="s">
-        <v>867</v>
+        <v>718</v>
       </c>
       <c r="H124" s="84" t="s">
-        <v>869</v>
+        <v>842</v>
       </c>
       <c r="I124" s="84"/>
       <c r="J124" s="84" t="s">
-        <v>871</v>
+        <v>844</v>
       </c>
       <c r="K124" s="84" t="s">
-        <v>873</v>
+        <v>846</v>
       </c>
       <c r="L124" s="84" t="s">
-        <v>875</v>
+        <v>848</v>
       </c>
       <c r="M124" s="84" t="s">
-        <v>877</v>
+        <v>850</v>
       </c>
       <c r="N124" s="84" t="s">
-        <v>879</v>
+        <v>852</v>
       </c>
       <c r="O124" s="84"/>
       <c r="P124" s="84" t="s">
-        <v>847</v>
+        <v>712</v>
       </c>
       <c r="Q124" s="84" t="s">
-        <v>997</v>
+        <v>1070</v>
       </c>
       <c r="R124" s="84" t="s">
-        <v>881</v>
+        <v>854</v>
       </c>
       <c r="S124" s="93"/>
       <c r="V124" s="60"/>
@@ -11810,7 +11385,7 @@
         <v>31</v>
       </c>
       <c r="D125" s="80" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E125" s="80" t="s">
         <v>189</v>
@@ -11819,40 +11394,40 @@
         <v>227</v>
       </c>
       <c r="G125" s="81" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="H125" s="80" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="I125" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J125" s="80" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="K125" s="80" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="L125" s="80" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="M125" s="98" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="N125" s="103" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="O125" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P125" s="80" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Q125" s="80" t="s">
         <v>189</v>
       </c>
       <c r="R125" s="80" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="S125" s="94"/>
       <c r="V125" s="60"/>
@@ -11860,45 +11435,45 @@
     <row r="126" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="58"/>
       <c r="D126" s="85" t="s">
-        <v>848</v>
+        <v>713</v>
       </c>
       <c r="E126" s="85" t="s">
-        <v>998</v>
+        <v>1071</v>
       </c>
       <c r="F126" s="85" t="s">
-        <v>866</v>
+        <v>326</v>
       </c>
       <c r="G126" s="85" t="s">
-        <v>868</v>
+        <v>719</v>
       </c>
       <c r="H126" s="85" t="s">
-        <v>870</v>
+        <v>843</v>
       </c>
       <c r="I126" s="85"/>
       <c r="J126" s="85" t="s">
-        <v>872</v>
+        <v>845</v>
       </c>
       <c r="K126" s="85" t="s">
-        <v>874</v>
+        <v>847</v>
       </c>
       <c r="L126" s="85" t="s">
-        <v>876</v>
+        <v>849</v>
       </c>
       <c r="M126" s="85" t="s">
-        <v>878</v>
+        <v>851</v>
       </c>
       <c r="N126" s="85" t="s">
-        <v>880</v>
+        <v>853</v>
       </c>
       <c r="O126" s="85"/>
       <c r="P126" s="85" t="s">
-        <v>848</v>
+        <v>713</v>
       </c>
       <c r="Q126" s="85" t="s">
-        <v>998</v>
+        <v>1071</v>
       </c>
       <c r="R126" s="85" t="s">
-        <v>882</v>
+        <v>855</v>
       </c>
       <c r="S126" s="96"/>
       <c r="V126" s="60"/>
@@ -11926,26 +11501,26 @@
     <row r="128" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B128" s="56"/>
       <c r="D128" s="84" t="s">
-        <v>883</v>
+        <v>856</v>
       </c>
       <c r="E128" s="84" t="s">
-        <v>885</v>
+        <v>858</v>
       </c>
       <c r="F128" s="84"/>
       <c r="G128" s="84" t="s">
-        <v>887</v>
+        <v>860</v>
       </c>
       <c r="H128" s="84" t="s">
-        <v>889</v>
+        <v>862</v>
       </c>
       <c r="I128" s="84" t="s">
-        <v>891</v>
+        <v>864</v>
       </c>
       <c r="J128" s="84" t="s">
-        <v>893</v>
+        <v>772</v>
       </c>
       <c r="K128" s="84" t="s">
-        <v>895</v>
+        <v>866</v>
       </c>
       <c r="L128" s="84"/>
       <c r="M128" s="84"/>
@@ -11963,28 +11538,28 @@
         <v>32</v>
       </c>
       <c r="D129" s="80" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E129" s="100" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F129" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G129" s="80" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H129" s="80" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="I129" s="80" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="J129" s="80" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="K129" s="80" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="L129" s="80" t="s">
         <v>198</v>
@@ -12001,26 +11576,26 @@
     <row r="130" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B130" s="58"/>
       <c r="D130" s="85" t="s">
-        <v>884</v>
+        <v>857</v>
       </c>
       <c r="E130" s="85" t="s">
-        <v>886</v>
+        <v>859</v>
       </c>
       <c r="F130" s="85"/>
       <c r="G130" s="85" t="s">
-        <v>888</v>
+        <v>861</v>
       </c>
       <c r="H130" s="85" t="s">
-        <v>890</v>
+        <v>863</v>
       </c>
       <c r="I130" s="85" t="s">
-        <v>892</v>
+        <v>865</v>
       </c>
       <c r="J130" s="85" t="s">
-        <v>894</v>
+        <v>773</v>
       </c>
       <c r="K130" s="85" t="s">
-        <v>896</v>
+        <v>867</v>
       </c>
       <c r="L130" s="85"/>
       <c r="M130" s="85"/>
@@ -12055,44 +11630,46 @@
     <row r="132" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B132" s="56"/>
       <c r="D132" s="84" t="s">
-        <v>847</v>
+        <v>712</v>
       </c>
       <c r="E132" s="84" t="s">
-        <v>997</v>
+        <v>1070</v>
       </c>
       <c r="F132" s="84" t="s">
-        <v>897</v>
+        <v>868</v>
       </c>
       <c r="G132" s="84" t="s">
-        <v>899</v>
+        <v>870</v>
       </c>
       <c r="H132" s="84" t="s">
-        <v>901</v>
+        <v>872</v>
       </c>
       <c r="I132" s="84"/>
       <c r="J132" s="84" t="s">
-        <v>903</v>
+        <v>874</v>
       </c>
       <c r="K132" s="84" t="s">
-        <v>1176</v>
+        <v>303</v>
       </c>
       <c r="L132" s="84" t="s">
-        <v>1174</v>
+        <v>1022</v>
       </c>
       <c r="M132" s="84" t="s">
-        <v>907</v>
+        <v>876</v>
       </c>
       <c r="N132" s="84" t="s">
-        <v>879</v>
+        <v>852</v>
       </c>
       <c r="O132" s="84"/>
       <c r="P132" s="84" t="s">
-        <v>1177</v>
+        <v>878</v>
       </c>
       <c r="Q132" s="84" t="s">
-        <v>911</v>
-      </c>
-      <c r="R132" s="84"/>
+        <v>650</v>
+      </c>
+      <c r="R132" s="84" t="s">
+        <v>1026</v>
+      </c>
       <c r="S132" s="93"/>
       <c r="V132" s="60"/>
     </row>
@@ -12102,37 +11679,37 @@
         <v>33</v>
       </c>
       <c r="D133" s="80" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E133" s="80" t="s">
         <v>189</v>
       </c>
       <c r="F133" s="80" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G133" s="81" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H133" s="80" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="I133" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J133" s="80" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="K133" s="80" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="L133" s="80" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="M133" s="80" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="N133" s="80" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="O133" s="80" t="s">
         <v>198</v>
@@ -12141,7 +11718,7 @@
         <v>231</v>
       </c>
       <c r="Q133" s="80" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="R133" s="80" t="s">
         <v>218</v>
@@ -12152,44 +11729,46 @@
     <row r="134" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B134" s="58"/>
       <c r="D134" s="85" t="s">
-        <v>848</v>
+        <v>713</v>
       </c>
       <c r="E134" s="85" t="s">
-        <v>998</v>
+        <v>1071</v>
       </c>
       <c r="F134" s="85" t="s">
-        <v>898</v>
+        <v>869</v>
       </c>
       <c r="G134" s="85" t="s">
-        <v>900</v>
+        <v>871</v>
       </c>
       <c r="H134" s="85" t="s">
-        <v>902</v>
+        <v>873</v>
       </c>
       <c r="I134" s="85"/>
       <c r="J134" s="85" t="s">
-        <v>904</v>
+        <v>875</v>
       </c>
       <c r="K134" s="85" t="s">
-        <v>1118</v>
+        <v>304</v>
       </c>
       <c r="L134" s="104" t="s">
-        <v>1175</v>
+        <v>1023</v>
       </c>
       <c r="M134" s="85" t="s">
-        <v>908</v>
+        <v>877</v>
       </c>
       <c r="N134" s="85" t="s">
-        <v>880</v>
+        <v>853</v>
       </c>
       <c r="O134" s="85"/>
       <c r="P134" s="85" t="s">
-        <v>868</v>
+        <v>879</v>
       </c>
       <c r="Q134" s="85" t="s">
-        <v>912</v>
-      </c>
-      <c r="R134" s="85"/>
+        <v>651</v>
+      </c>
+      <c r="R134" s="85" t="s">
+        <v>1027</v>
+      </c>
       <c r="S134" s="96"/>
       <c r="V134" s="60"/>
     </row>
@@ -12216,26 +11795,26 @@
     <row r="136" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B136" s="56"/>
       <c r="D136" s="84" t="s">
-        <v>913</v>
+        <v>880</v>
       </c>
       <c r="E136" s="84" t="s">
-        <v>915</v>
+        <v>882</v>
       </c>
       <c r="F136" s="84"/>
       <c r="G136" s="84" t="s">
-        <v>917</v>
+        <v>884</v>
       </c>
       <c r="H136" s="84" t="s">
-        <v>879</v>
+        <v>852</v>
       </c>
       <c r="I136" s="84" t="s">
-        <v>919</v>
+        <v>886</v>
       </c>
       <c r="J136" s="84" t="s">
-        <v>921</v>
+        <v>888</v>
       </c>
       <c r="K136" s="84" t="s">
-        <v>923</v>
+        <v>1076</v>
       </c>
       <c r="L136" s="84"/>
       <c r="M136" s="84"/>
@@ -12253,28 +11832,28 @@
         <v>34</v>
       </c>
       <c r="D137" s="98" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E137" s="80" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F137" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G137" s="98" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H137" s="80" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="I137" s="80" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="J137" s="80" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="K137" s="98" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="L137" s="80" t="s">
         <v>198</v>
@@ -12291,26 +11870,26 @@
     <row r="138" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B138" s="58"/>
       <c r="D138" s="85" t="s">
-        <v>914</v>
+        <v>881</v>
       </c>
       <c r="E138" s="85" t="s">
-        <v>916</v>
+        <v>883</v>
       </c>
       <c r="F138" s="85"/>
       <c r="G138" s="85" t="s">
-        <v>918</v>
+        <v>885</v>
       </c>
       <c r="H138" s="85" t="s">
-        <v>880</v>
+        <v>853</v>
       </c>
       <c r="I138" s="85" t="s">
-        <v>920</v>
+        <v>887</v>
       </c>
       <c r="J138" s="85" t="s">
-        <v>922</v>
+        <v>889</v>
       </c>
       <c r="K138" s="85" t="s">
-        <v>924</v>
+        <v>1077</v>
       </c>
       <c r="L138" s="85"/>
       <c r="M138" s="85"/>
@@ -12345,45 +11924,45 @@
     <row r="140" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B140" s="56"/>
       <c r="D140" s="84" t="s">
-        <v>851</v>
+        <v>646</v>
       </c>
       <c r="E140" s="84" t="s">
-        <v>925</v>
+        <v>256</v>
       </c>
       <c r="F140" s="84" t="s">
-        <v>927</v>
+        <v>890</v>
       </c>
       <c r="G140" s="84" t="s">
-        <v>929</v>
+        <v>274</v>
       </c>
       <c r="H140" s="84" t="s">
-        <v>931</v>
+        <v>892</v>
       </c>
       <c r="I140" s="84"/>
       <c r="J140" s="84" t="s">
-        <v>933</v>
+        <v>706</v>
       </c>
       <c r="K140" s="84" t="s">
-        <v>909</v>
+        <v>878</v>
       </c>
       <c r="L140" s="84" t="s">
-        <v>935</v>
+        <v>744</v>
       </c>
       <c r="M140" s="84" t="s">
-        <v>937</v>
+        <v>894</v>
       </c>
       <c r="N140" s="84" t="s">
-        <v>939</v>
+        <v>896</v>
       </c>
       <c r="O140" s="84"/>
       <c r="P140" s="84" t="s">
-        <v>941</v>
+        <v>299</v>
       </c>
       <c r="Q140" s="84" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="R140" s="84" t="s">
-        <v>943</v>
+        <v>898</v>
       </c>
       <c r="S140" s="93"/>
       <c r="V140" s="60"/>
@@ -12394,37 +11973,37 @@
         <v>35</v>
       </c>
       <c r="D141" s="80" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E141" s="80" t="s">
         <v>199</v>
       </c>
       <c r="F141" s="98" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="G141" s="81" t="s">
         <v>236</v>
       </c>
       <c r="H141" s="80" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="I141" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J141" s="80" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="K141" s="80" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="L141" s="80" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M141" s="80" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="N141" s="98" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="O141" s="80" t="s">
         <v>198</v>
@@ -12433,10 +12012,10 @@
         <v>209</v>
       </c>
       <c r="Q141" s="80" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="R141" s="80" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="S141" s="94"/>
       <c r="V141" s="60"/>
@@ -12444,45 +12023,45 @@
     <row r="142" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B142" s="58"/>
       <c r="D142" s="85" t="s">
-        <v>852</v>
+        <v>647</v>
       </c>
       <c r="E142" s="85" t="s">
-        <v>926</v>
+        <v>257</v>
       </c>
       <c r="F142" s="85" t="s">
-        <v>928</v>
+        <v>891</v>
       </c>
       <c r="G142" s="85" t="s">
-        <v>930</v>
+        <v>275</v>
       </c>
       <c r="H142" s="85" t="s">
-        <v>932</v>
+        <v>893</v>
       </c>
       <c r="I142" s="85"/>
       <c r="J142" s="85" t="s">
-        <v>934</v>
+        <v>707</v>
       </c>
       <c r="K142" s="85" t="s">
-        <v>910</v>
+        <v>879</v>
       </c>
       <c r="L142" s="85" t="s">
-        <v>936</v>
+        <v>745</v>
       </c>
       <c r="M142" s="85" t="s">
-        <v>938</v>
+        <v>895</v>
       </c>
       <c r="N142" s="85" t="s">
-        <v>940</v>
+        <v>897</v>
       </c>
       <c r="O142" s="85"/>
       <c r="P142" s="85" t="s">
-        <v>942</v>
+        <v>300</v>
       </c>
       <c r="Q142" s="85" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="R142" s="85" t="s">
-        <v>944</v>
+        <v>899</v>
       </c>
       <c r="S142" s="96"/>
       <c r="V142" s="60"/>
@@ -12510,26 +12089,26 @@
     <row r="144" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B144" s="56"/>
       <c r="D144" s="84" t="s">
-        <v>1178</v>
+        <v>1042</v>
       </c>
       <c r="E144" s="84" t="s">
-        <v>945</v>
+        <v>900</v>
       </c>
       <c r="F144" s="84"/>
       <c r="G144" s="84" t="s">
-        <v>947</v>
+        <v>762</v>
       </c>
       <c r="H144" s="84" t="s">
-        <v>1180</v>
+        <v>1064</v>
       </c>
       <c r="I144" s="84" t="s">
-        <v>943</v>
+        <v>898</v>
       </c>
       <c r="J144" s="84" t="s">
-        <v>1178</v>
+        <v>1042</v>
       </c>
       <c r="K144" s="84" t="s">
-        <v>949</v>
+        <v>1078</v>
       </c>
       <c r="L144" s="84"/>
       <c r="M144" s="84"/>
@@ -12547,28 +12126,28 @@
         <v>36</v>
       </c>
       <c r="D145" s="80" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E145" s="80" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F145" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G145" s="81" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H145" s="98" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="I145" s="80" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="J145" s="80" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="K145" s="98" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L145" s="80" t="s">
         <v>198</v>
@@ -12585,26 +12164,26 @@
     <row r="146" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B146" s="58"/>
       <c r="D146" s="85" t="s">
-        <v>1179</v>
+        <v>1043</v>
       </c>
       <c r="E146" s="85" t="s">
-        <v>946</v>
+        <v>901</v>
       </c>
       <c r="F146" s="85"/>
       <c r="G146" s="85" t="s">
-        <v>948</v>
+        <v>763</v>
       </c>
       <c r="H146" s="85" t="s">
-        <v>1181</v>
+        <v>1065</v>
       </c>
       <c r="I146" s="85" t="s">
-        <v>944</v>
+        <v>899</v>
       </c>
       <c r="J146" s="85" t="s">
-        <v>1179</v>
+        <v>1043</v>
       </c>
       <c r="K146" s="85" t="s">
-        <v>950</v>
+        <v>1079</v>
       </c>
       <c r="L146" s="85"/>
       <c r="M146" s="85"/>
@@ -12639,45 +12218,45 @@
     <row r="148" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B148" s="56"/>
       <c r="D148" s="84" t="s">
-        <v>951</v>
+        <v>902</v>
       </c>
       <c r="E148" s="84" t="s">
-        <v>953</v>
+        <v>904</v>
       </c>
       <c r="F148" s="84" t="s">
-        <v>955</v>
+        <v>906</v>
       </c>
       <c r="G148" s="84" t="s">
-        <v>957</v>
+        <v>908</v>
       </c>
       <c r="H148" s="84" t="s">
-        <v>959</v>
+        <v>748</v>
       </c>
       <c r="I148" s="84"/>
       <c r="J148" s="84" t="s">
-        <v>1182</v>
+        <v>1038</v>
       </c>
       <c r="K148" s="84" t="s">
-        <v>961</v>
+        <v>910</v>
       </c>
       <c r="L148" s="84" t="s">
-        <v>997</v>
+        <v>1070</v>
       </c>
       <c r="M148" s="84" t="s">
-        <v>963</v>
+        <v>250</v>
       </c>
       <c r="N148" s="84" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="O148" s="84"/>
       <c r="P148" s="84" t="s">
-        <v>965</v>
+        <v>912</v>
       </c>
       <c r="Q148" s="84" t="s">
-        <v>967</v>
+        <v>272</v>
       </c>
       <c r="R148" s="84" t="s">
-        <v>1081</v>
+        <v>990</v>
       </c>
       <c r="S148" s="93"/>
       <c r="V148" s="60"/>
@@ -12688,19 +12267,19 @@
         <v>37</v>
       </c>
       <c r="D149" s="80" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E149" s="80" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F149" s="80" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G149" s="80" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H149" s="80" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="I149" s="80" t="s">
         <v>186</v>
@@ -12709,7 +12288,7 @@
         <v>237</v>
       </c>
       <c r="K149" s="80" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="L149" s="80" t="s">
         <v>189</v>
@@ -12718,19 +12297,19 @@
         <v>191</v>
       </c>
       <c r="N149" s="80" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="O149" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P149" s="80" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="Q149" s="80" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="R149" s="80" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="S149" s="94"/>
       <c r="V149" s="60"/>
@@ -12738,45 +12317,45 @@
     <row r="150" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B150" s="58"/>
       <c r="D150" s="85" t="s">
-        <v>952</v>
+        <v>903</v>
       </c>
       <c r="E150" s="85" t="s">
-        <v>954</v>
+        <v>905</v>
       </c>
       <c r="F150" s="85" t="s">
-        <v>956</v>
+        <v>907</v>
       </c>
       <c r="G150" s="85" t="s">
-        <v>958</v>
+        <v>909</v>
       </c>
       <c r="H150" s="85" t="s">
-        <v>960</v>
+        <v>749</v>
       </c>
       <c r="I150" s="85"/>
       <c r="J150" s="85" t="s">
-        <v>1183</v>
+        <v>1039</v>
       </c>
       <c r="K150" s="85" t="s">
-        <v>962</v>
+        <v>911</v>
       </c>
       <c r="L150" s="85" t="s">
-        <v>998</v>
+        <v>1071</v>
       </c>
       <c r="M150" s="85" t="s">
-        <v>964</v>
+        <v>327</v>
       </c>
       <c r="N150" s="85" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="O150" s="85"/>
       <c r="P150" s="85" t="s">
-        <v>966</v>
+        <v>913</v>
       </c>
       <c r="Q150" s="85" t="s">
-        <v>968</v>
+        <v>273</v>
       </c>
       <c r="R150" s="85" t="s">
-        <v>1082</v>
+        <v>991</v>
       </c>
       <c r="S150" s="96"/>
       <c r="V150" s="60"/>
@@ -12804,26 +12383,26 @@
     <row r="152" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B152" s="56"/>
       <c r="D152" s="84" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="E152" s="84" t="s">
-        <v>969</v>
+        <v>914</v>
       </c>
       <c r="F152" s="84"/>
       <c r="G152" s="84" t="s">
-        <v>859</v>
+        <v>726</v>
       </c>
       <c r="H152" s="84" t="s">
-        <v>1184</v>
+        <v>1056</v>
       </c>
       <c r="I152" s="84" t="s">
-        <v>955</v>
+        <v>906</v>
       </c>
       <c r="J152" s="84" t="s">
-        <v>971</v>
+        <v>1084</v>
       </c>
       <c r="K152" s="84" t="s">
-        <v>973</v>
+        <v>666</v>
       </c>
       <c r="L152" s="84"/>
       <c r="M152" s="84"/>
@@ -12844,25 +12423,25 @@
         <v>240</v>
       </c>
       <c r="E153" s="80" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F153" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G153" s="80" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="H153" s="80" t="s">
         <v>238</v>
       </c>
       <c r="I153" s="80" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="J153" s="80" t="s">
         <v>226</v>
       </c>
       <c r="K153" s="98" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="L153" s="80" t="s">
         <v>198</v>
@@ -12879,26 +12458,26 @@
     <row r="154" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B154" s="58"/>
       <c r="D154" s="85" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="E154" s="85" t="s">
-        <v>970</v>
+        <v>915</v>
       </c>
       <c r="F154" s="85"/>
       <c r="G154" s="85" t="s">
-        <v>860</v>
+        <v>727</v>
       </c>
       <c r="H154" s="85" t="s">
-        <v>1185</v>
+        <v>1057</v>
       </c>
       <c r="I154" s="85" t="s">
-        <v>956</v>
+        <v>907</v>
       </c>
       <c r="J154" s="85" t="s">
-        <v>972</v>
+        <v>1085</v>
       </c>
       <c r="K154" s="85" t="s">
-        <v>974</v>
+        <v>667</v>
       </c>
       <c r="L154" s="85"/>
       <c r="M154" s="85"/>
@@ -12933,45 +12512,45 @@
     <row r="156" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B156" s="56"/>
       <c r="D156" s="84" t="s">
-        <v>975</v>
+        <v>916</v>
       </c>
       <c r="E156" s="84" t="s">
-        <v>977</v>
+        <v>616</v>
       </c>
       <c r="F156" s="84" t="s">
-        <v>979</v>
+        <v>918</v>
       </c>
       <c r="G156" s="84" t="s">
-        <v>925</v>
+        <v>256</v>
       </c>
       <c r="H156" s="84" t="s">
-        <v>927</v>
+        <v>890</v>
       </c>
       <c r="I156" s="84"/>
       <c r="J156" s="84" t="s">
-        <v>981</v>
+        <v>920</v>
       </c>
       <c r="K156" s="84" t="s">
-        <v>983</v>
+        <v>922</v>
       </c>
       <c r="L156" s="84" t="s">
-        <v>985</v>
+        <v>924</v>
       </c>
       <c r="M156" s="84" t="s">
-        <v>987</v>
+        <v>254</v>
       </c>
       <c r="N156" s="84" t="s">
-        <v>989</v>
+        <v>287</v>
       </c>
       <c r="O156" s="84"/>
       <c r="P156" s="84" t="s">
-        <v>991</v>
+        <v>926</v>
       </c>
       <c r="Q156" s="84" t="s">
-        <v>847</v>
+        <v>712</v>
       </c>
       <c r="R156" s="84" t="s">
-        <v>993</v>
+        <v>928</v>
       </c>
       <c r="S156" s="93"/>
       <c r="V156" s="60"/>
@@ -12982,49 +12561,49 @@
         <v>39</v>
       </c>
       <c r="D157" s="80" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E157" s="80" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F157" s="80" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="G157" s="80" t="s">
         <v>199</v>
       </c>
       <c r="H157" s="80" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="I157" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J157" s="80" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="K157" s="80" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="L157" s="80" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="M157" s="80" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="N157" s="80" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O157" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P157" s="80" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="Q157" s="80" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="R157" s="80" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="S157" s="94"/>
       <c r="V157" s="60"/>
@@ -13032,45 +12611,45 @@
     <row r="158" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B158" s="58"/>
       <c r="D158" s="85" t="s">
-        <v>976</v>
+        <v>917</v>
       </c>
       <c r="E158" s="85" t="s">
-        <v>978</v>
+        <v>617</v>
       </c>
       <c r="F158" s="85" t="s">
-        <v>980</v>
+        <v>919</v>
       </c>
       <c r="G158" s="85" t="s">
-        <v>926</v>
+        <v>257</v>
       </c>
       <c r="H158" s="85" t="s">
-        <v>928</v>
+        <v>891</v>
       </c>
       <c r="I158" s="85"/>
       <c r="J158" s="85" t="s">
-        <v>982</v>
+        <v>921</v>
       </c>
       <c r="K158" s="85" t="s">
-        <v>984</v>
+        <v>923</v>
       </c>
       <c r="L158" s="85" t="s">
-        <v>986</v>
+        <v>925</v>
       </c>
       <c r="M158" s="85" t="s">
-        <v>988</v>
+        <v>255</v>
       </c>
       <c r="N158" s="85" t="s">
-        <v>990</v>
+        <v>288</v>
       </c>
       <c r="O158" s="85"/>
       <c r="P158" s="85" t="s">
-        <v>992</v>
+        <v>927</v>
       </c>
       <c r="Q158" s="85" t="s">
-        <v>848</v>
+        <v>713</v>
       </c>
       <c r="R158" s="85" t="s">
-        <v>994</v>
+        <v>929</v>
       </c>
       <c r="S158" s="96"/>
       <c r="V158" s="60"/>
@@ -13098,26 +12677,26 @@
     <row r="160" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B160" s="56"/>
       <c r="D160" s="84" t="s">
-        <v>995</v>
+        <v>930</v>
       </c>
       <c r="E160" s="84" t="s">
-        <v>997</v>
+        <v>776</v>
       </c>
       <c r="F160" s="84"/>
       <c r="G160" s="84" t="s">
-        <v>999</v>
+        <v>932</v>
       </c>
       <c r="H160" s="84" t="s">
-        <v>963</v>
+        <v>250</v>
       </c>
       <c r="I160" s="84" t="s">
-        <v>971</v>
+        <v>1084</v>
       </c>
       <c r="J160" s="84" t="s">
-        <v>1001</v>
+        <v>626</v>
       </c>
       <c r="K160" s="84" t="s">
-        <v>1003</v>
+        <v>934</v>
       </c>
       <c r="L160" s="84"/>
       <c r="M160" s="84"/>
@@ -13138,13 +12717,13 @@
         <v>214</v>
       </c>
       <c r="E161" s="80" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F161" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G161" s="80" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="H161" s="80" t="s">
         <v>191</v>
@@ -13153,7 +12732,7 @@
         <v>226</v>
       </c>
       <c r="J161" s="80" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K161" s="80" t="s">
         <v>201</v>
@@ -13173,26 +12752,26 @@
     <row r="162" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B162" s="58"/>
       <c r="D162" s="85" t="s">
-        <v>996</v>
+        <v>931</v>
       </c>
       <c r="E162" s="85" t="s">
-        <v>998</v>
+        <v>777</v>
       </c>
       <c r="F162" s="85"/>
       <c r="G162" s="85" t="s">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="H162" s="85" t="s">
-        <v>964</v>
+        <v>327</v>
       </c>
       <c r="I162" s="85" t="s">
-        <v>972</v>
+        <v>1085</v>
       </c>
       <c r="J162" s="85" t="s">
-        <v>1002</v>
+        <v>627</v>
       </c>
       <c r="K162" s="85" t="s">
-        <v>1004</v>
+        <v>935</v>
       </c>
       <c r="L162" s="85"/>
       <c r="M162" s="85"/>
@@ -13227,45 +12806,45 @@
     <row r="164" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B164" s="56"/>
       <c r="D164" s="84" t="s">
-        <v>1005</v>
+        <v>680</v>
       </c>
       <c r="E164" s="84" t="s">
-        <v>1007</v>
+        <v>936</v>
       </c>
       <c r="F164" s="84" t="s">
-        <v>1009</v>
+        <v>938</v>
       </c>
       <c r="G164" s="84" t="s">
-        <v>871</v>
+        <v>844</v>
       </c>
       <c r="H164" s="84" t="s">
-        <v>1011</v>
+        <v>692</v>
       </c>
       <c r="I164" s="84"/>
       <c r="J164" s="84" t="s">
-        <v>1013</v>
+        <v>940</v>
       </c>
       <c r="K164" s="84" t="s">
-        <v>1015</v>
+        <v>942</v>
       </c>
       <c r="L164" s="84" t="s">
-        <v>1017</v>
+        <v>944</v>
       </c>
       <c r="M164" s="84" t="s">
-        <v>947</v>
+        <v>762</v>
       </c>
       <c r="N164" s="84" t="s">
-        <v>1019</v>
+        <v>946</v>
       </c>
       <c r="O164" s="84"/>
       <c r="P164" s="84" t="s">
-        <v>1021</v>
+        <v>948</v>
       </c>
       <c r="Q164" s="84" t="s">
-        <v>1023</v>
+        <v>276</v>
       </c>
       <c r="R164" s="84" t="s">
-        <v>1025</v>
+        <v>950</v>
       </c>
       <c r="S164" s="93"/>
       <c r="V164" s="60"/>
@@ -13276,49 +12855,49 @@
         <v>41</v>
       </c>
       <c r="D165" s="80" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E165" s="98" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F165" s="98" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G165" s="80" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H165" s="80" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I165" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J165" s="80" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="K165" s="98" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="L165" s="80" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="M165" s="80" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="N165" s="98" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="O165" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P165" s="98" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="Q165" s="80" t="s">
         <v>241</v>
       </c>
       <c r="R165" s="80" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="S165" s="94"/>
       <c r="V165" s="60"/>
@@ -13326,45 +12905,45 @@
     <row r="166" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B166" s="58"/>
       <c r="D166" s="85" t="s">
-        <v>1006</v>
+        <v>681</v>
       </c>
       <c r="E166" s="85" t="s">
-        <v>1008</v>
+        <v>937</v>
       </c>
       <c r="F166" s="85" t="s">
-        <v>1010</v>
+        <v>939</v>
       </c>
       <c r="G166" s="85" t="s">
-        <v>872</v>
+        <v>845</v>
       </c>
       <c r="H166" s="85" t="s">
-        <v>1012</v>
+        <v>693</v>
       </c>
       <c r="I166" s="85"/>
       <c r="J166" s="85" t="s">
-        <v>1014</v>
+        <v>941</v>
       </c>
       <c r="K166" s="85" t="s">
-        <v>1016</v>
+        <v>943</v>
       </c>
       <c r="L166" s="85" t="s">
-        <v>1018</v>
+        <v>945</v>
       </c>
       <c r="M166" s="85" t="s">
-        <v>948</v>
+        <v>763</v>
       </c>
       <c r="N166" s="85" t="s">
-        <v>1020</v>
+        <v>947</v>
       </c>
       <c r="O166" s="85"/>
       <c r="P166" s="85" t="s">
-        <v>1022</v>
+        <v>949</v>
       </c>
       <c r="Q166" s="85" t="s">
-        <v>1024</v>
+        <v>277</v>
       </c>
       <c r="R166" s="85" t="s">
-        <v>1026</v>
+        <v>951</v>
       </c>
       <c r="S166" s="96"/>
       <c r="V166" s="60"/>
@@ -13392,24 +12971,24 @@
       <c r="B168" s="56"/>
       <c r="C168" s="1"/>
       <c r="D168" s="84" t="s">
-        <v>1027</v>
+        <v>258</v>
       </c>
       <c r="E168" s="84"/>
       <c r="F168" s="84"/>
       <c r="G168" s="84" t="s">
-        <v>1029</v>
+        <v>952</v>
       </c>
       <c r="H168" s="84" t="s">
-        <v>1031</v>
+        <v>954</v>
       </c>
       <c r="I168" s="84" t="s">
-        <v>1033</v>
+        <v>956</v>
       </c>
       <c r="J168" s="84" t="s">
-        <v>1035</v>
+        <v>251</v>
       </c>
       <c r="K168" s="84" t="s">
-        <v>1037</v>
+        <v>958</v>
       </c>
       <c r="L168" s="84"/>
       <c r="M168" s="84"/>
@@ -13429,7 +13008,7 @@
         <v>202</v>
       </c>
       <c r="E169" s="80" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F169" s="80" t="s">
         <v>186</v>
@@ -13438,16 +13017,16 @@
         <v>212</v>
       </c>
       <c r="H169" s="98" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="I169" s="80" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="J169" s="80" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="K169" s="80" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="L169" s="80" t="s">
         <v>198</v>
@@ -13463,24 +13042,24 @@
       <c r="B170" s="58"/>
       <c r="C170" s="1"/>
       <c r="D170" s="85" t="s">
-        <v>1028</v>
+        <v>259</v>
       </c>
       <c r="E170" s="85"/>
       <c r="F170" s="85"/>
       <c r="G170" s="85" t="s">
-        <v>1030</v>
+        <v>953</v>
       </c>
       <c r="H170" s="85" t="s">
-        <v>1032</v>
+        <v>955</v>
       </c>
       <c r="I170" s="85" t="s">
-        <v>1034</v>
+        <v>957</v>
       </c>
       <c r="J170" s="85" t="s">
-        <v>1036</v>
+        <v>252</v>
       </c>
       <c r="K170" s="85" t="s">
-        <v>1038</v>
+        <v>959</v>
       </c>
       <c r="L170" s="85"/>
       <c r="M170" s="85"/>
@@ -13513,45 +13092,45 @@
       <c r="B172" s="56"/>
       <c r="C172" s="1"/>
       <c r="D172" s="84" t="s">
-        <v>1027</v>
+        <v>258</v>
       </c>
       <c r="E172" s="84" t="s">
-        <v>1039</v>
+        <v>664</v>
       </c>
       <c r="F172" s="84" t="s">
-        <v>1041</v>
+        <v>960</v>
       </c>
       <c r="G172" s="84" t="s">
-        <v>1043</v>
+        <v>962</v>
       </c>
       <c r="H172" s="84" t="s">
-        <v>1045</v>
+        <v>248</v>
       </c>
       <c r="I172" s="84"/>
       <c r="J172" s="84" t="s">
-        <v>1047</v>
+        <v>964</v>
       </c>
       <c r="K172" s="84" t="s">
-        <v>1049</v>
+        <v>315</v>
       </c>
       <c r="L172" s="84" t="s">
-        <v>1186</v>
+        <v>1024</v>
       </c>
       <c r="M172" s="84" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="N172" s="84" t="s">
-        <v>899</v>
+        <v>870</v>
       </c>
       <c r="O172" s="84"/>
       <c r="P172" s="84" t="s">
-        <v>995</v>
+        <v>930</v>
       </c>
       <c r="Q172" s="84" t="s">
-        <v>837</v>
+        <v>323</v>
       </c>
       <c r="R172" s="84" t="s">
-        <v>1051</v>
+        <v>966</v>
       </c>
     </row>
     <row r="173" spans="2:22" ht="58.5">
@@ -13564,34 +13143,34 @@
         <v>202</v>
       </c>
       <c r="E173" s="80" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F173" s="80" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G173" s="81" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="H173" s="80" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="I173" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J173" s="80" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="K173" s="80" t="s">
         <v>213</v>
       </c>
       <c r="L173" s="98" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="M173" s="80" t="s">
         <v>185</v>
       </c>
       <c r="N173" s="80" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="O173" s="80" t="s">
         <v>198</v>
@@ -13603,52 +13182,52 @@
         <v>219</v>
       </c>
       <c r="R173" s="80" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="174" spans="2:22">
       <c r="B174" s="58"/>
       <c r="C174" s="1"/>
       <c r="D174" s="85" t="s">
-        <v>1028</v>
+        <v>259</v>
       </c>
       <c r="E174" s="85" t="s">
-        <v>1040</v>
+        <v>665</v>
       </c>
       <c r="F174" s="85" t="s">
-        <v>1042</v>
+        <v>961</v>
       </c>
       <c r="G174" s="85" t="s">
-        <v>1044</v>
+        <v>963</v>
       </c>
       <c r="H174" s="85" t="s">
-        <v>1046</v>
+        <v>249</v>
       </c>
       <c r="I174" s="85"/>
       <c r="J174" s="85" t="s">
-        <v>1048</v>
+        <v>965</v>
       </c>
       <c r="K174" s="85" t="s">
-        <v>1050</v>
+        <v>316</v>
       </c>
       <c r="L174" s="85" t="s">
-        <v>1187</v>
+        <v>1025</v>
       </c>
       <c r="M174" s="85" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="N174" s="85" t="s">
-        <v>900</v>
+        <v>871</v>
       </c>
       <c r="O174" s="85"/>
       <c r="P174" s="85" t="s">
-        <v>996</v>
+        <v>931</v>
       </c>
       <c r="Q174" s="85" t="s">
-        <v>838</v>
+        <v>324</v>
       </c>
       <c r="R174" s="85" t="s">
-        <v>1052</v>
+        <v>967</v>
       </c>
     </row>
     <row r="175" spans="2:22">
@@ -13674,26 +13253,26 @@
       <c r="B176" s="56"/>
       <c r="C176" s="1"/>
       <c r="D176" s="84" t="s">
-        <v>1053</v>
+        <v>710</v>
       </c>
       <c r="E176" s="84" t="s">
-        <v>905</v>
+        <v>303</v>
       </c>
       <c r="F176" s="84"/>
       <c r="G176" s="84" t="s">
-        <v>989</v>
+        <v>287</v>
       </c>
       <c r="H176" s="84" t="s">
-        <v>859</v>
+        <v>726</v>
       </c>
       <c r="I176" s="84" t="s">
-        <v>1055</v>
+        <v>968</v>
       </c>
       <c r="J176" s="84" t="s">
-        <v>1057</v>
+        <v>970</v>
       </c>
       <c r="K176" s="84" t="s">
-        <v>1059</v>
+        <v>972</v>
       </c>
       <c r="L176" s="84"/>
       <c r="M176" s="84"/>
@@ -13710,10 +13289,10 @@
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="80" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E177" s="80" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F177" s="80" t="s">
         <v>186</v>
@@ -13722,16 +13301,16 @@
         <v>195</v>
       </c>
       <c r="H177" s="98" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I177" s="80" t="s">
         <v>216</v>
       </c>
       <c r="J177" s="98" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="K177" s="98" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="L177" s="80" t="s">
         <v>198</v>
@@ -13747,26 +13326,26 @@
       <c r="B178" s="58"/>
       <c r="C178" s="1"/>
       <c r="D178" s="85" t="s">
-        <v>1054</v>
+        <v>711</v>
       </c>
       <c r="E178" s="85" t="s">
-        <v>906</v>
+        <v>304</v>
       </c>
       <c r="F178" s="85"/>
       <c r="G178" s="85" t="s">
-        <v>990</v>
+        <v>288</v>
       </c>
       <c r="H178" s="85" t="s">
-        <v>860</v>
+        <v>727</v>
       </c>
       <c r="I178" s="85" t="s">
-        <v>1056</v>
+        <v>969</v>
       </c>
       <c r="J178" s="85" t="s">
-        <v>1058</v>
+        <v>971</v>
       </c>
       <c r="K178" s="85" t="s">
-        <v>1060</v>
+        <v>973</v>
       </c>
       <c r="L178" s="85"/>
       <c r="M178" s="85"/>
@@ -13799,45 +13378,45 @@
       <c r="B180" s="56"/>
       <c r="C180" s="1"/>
       <c r="D180" s="84" t="s">
-        <v>965</v>
+        <v>912</v>
       </c>
       <c r="E180" s="84" t="s">
-        <v>1061</v>
+        <v>746</v>
       </c>
       <c r="F180" s="84" t="s">
-        <v>1063</v>
+        <v>974</v>
       </c>
       <c r="G180" s="84" t="s">
-        <v>995</v>
+        <v>930</v>
       </c>
       <c r="H180" s="84" t="s">
-        <v>1065</v>
+        <v>688</v>
       </c>
       <c r="I180" s="84"/>
       <c r="J180" s="84" t="s">
-        <v>997</v>
+        <v>1070</v>
       </c>
       <c r="K180" s="84" t="s">
-        <v>1188</v>
+        <v>1066</v>
       </c>
       <c r="L180" s="84" t="s">
-        <v>935</v>
+        <v>744</v>
       </c>
       <c r="M180" s="84" t="s">
-        <v>1067</v>
+        <v>976</v>
       </c>
       <c r="N180" s="84" t="s">
-        <v>1069</v>
+        <v>978</v>
       </c>
       <c r="O180" s="84"/>
       <c r="P180" s="84" t="s">
-        <v>1071</v>
+        <v>980</v>
       </c>
       <c r="Q180" s="84" t="s">
-        <v>1190</v>
+        <v>1048</v>
       </c>
       <c r="R180" s="84" t="s">
-        <v>1073</v>
+        <v>982</v>
       </c>
     </row>
     <row r="181" spans="2:18" ht="58.5">
@@ -13847,19 +13426,19 @@
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="80" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E181" s="80" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F181" s="80" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G181" s="81" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="H181" s="80" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="I181" s="80" t="s">
         <v>186</v>
@@ -13868,73 +13447,73 @@
         <v>189</v>
       </c>
       <c r="K181" s="80" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L181" s="80" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M181" s="80" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="N181" s="80" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="O181" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P181" s="80" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="Q181" s="80" t="s">
         <v>204</v>
       </c>
       <c r="R181" s="80" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="182" spans="2:18">
       <c r="B182" s="58"/>
       <c r="C182" s="1"/>
       <c r="D182" s="85" t="s">
-        <v>966</v>
+        <v>913</v>
       </c>
       <c r="E182" s="85" t="s">
-        <v>1062</v>
+        <v>747</v>
       </c>
       <c r="F182" s="85" t="s">
-        <v>1064</v>
+        <v>975</v>
       </c>
       <c r="G182" s="85" t="s">
-        <v>996</v>
+        <v>931</v>
       </c>
       <c r="H182" s="85" t="s">
-        <v>1066</v>
+        <v>689</v>
       </c>
       <c r="I182" s="85"/>
       <c r="J182" s="85" t="s">
-        <v>998</v>
+        <v>1071</v>
       </c>
       <c r="K182" s="85" t="s">
-        <v>1189</v>
+        <v>1067</v>
       </c>
       <c r="L182" s="85" t="s">
-        <v>936</v>
+        <v>745</v>
       </c>
       <c r="M182" s="85" t="s">
-        <v>1068</v>
+        <v>977</v>
       </c>
       <c r="N182" s="85" t="s">
-        <v>1070</v>
+        <v>979</v>
       </c>
       <c r="O182" s="85"/>
       <c r="P182" s="85" t="s">
-        <v>1072</v>
+        <v>981</v>
       </c>
       <c r="Q182" s="85" t="s">
-        <v>1191</v>
+        <v>1049</v>
       </c>
       <c r="R182" s="85" t="s">
-        <v>1074</v>
+        <v>983</v>
       </c>
     </row>
     <row r="183" spans="2:18">
@@ -13960,26 +13539,26 @@
       <c r="B184" s="56"/>
       <c r="C184" s="1"/>
       <c r="D184" s="84" t="s">
-        <v>1075</v>
+        <v>984</v>
       </c>
       <c r="E184" s="84" t="s">
-        <v>1077</v>
+        <v>986</v>
       </c>
       <c r="F184" s="84"/>
       <c r="G184" s="84" t="s">
-        <v>1005</v>
+        <v>680</v>
       </c>
       <c r="H184" s="84" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="I184" s="84" t="s">
-        <v>971</v>
+        <v>1084</v>
       </c>
       <c r="J184" s="84" t="s">
-        <v>1079</v>
+        <v>988</v>
       </c>
       <c r="K184" s="84" t="s">
-        <v>899</v>
+        <v>870</v>
       </c>
       <c r="L184" s="84"/>
       <c r="M184" s="84"/>
@@ -13996,16 +13575,16 @@
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="80" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="E185" s="80" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F185" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G185" s="81" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H185" s="80" t="s">
         <v>240</v>
@@ -14014,10 +13593,10 @@
         <v>226</v>
       </c>
       <c r="J185" s="98" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="K185" s="80" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="L185" s="80" t="s">
         <v>198</v>
@@ -14033,26 +13612,26 @@
       <c r="B186" s="58"/>
       <c r="C186" s="1"/>
       <c r="D186" s="85" t="s">
-        <v>1076</v>
+        <v>985</v>
       </c>
       <c r="E186" s="85" t="s">
-        <v>1078</v>
+        <v>987</v>
       </c>
       <c r="F186" s="85"/>
       <c r="G186" s="85" t="s">
-        <v>1006</v>
+        <v>681</v>
       </c>
       <c r="H186" s="85" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="I186" s="85" t="s">
-        <v>972</v>
+        <v>1085</v>
       </c>
       <c r="J186" s="85" t="s">
-        <v>1080</v>
+        <v>989</v>
       </c>
       <c r="K186" s="85" t="s">
-        <v>900</v>
+        <v>871</v>
       </c>
       <c r="L186" s="85"/>
       <c r="M186" s="85"/>
@@ -14085,45 +13664,45 @@
       <c r="B188" s="56"/>
       <c r="C188" s="1"/>
       <c r="D188" s="84" t="s">
-        <v>1081</v>
+        <v>990</v>
       </c>
       <c r="E188" s="84" t="s">
-        <v>837</v>
+        <v>323</v>
       </c>
       <c r="F188" s="84" t="s">
-        <v>1083</v>
+        <v>992</v>
       </c>
       <c r="G188" s="84" t="s">
-        <v>1083</v>
+        <v>992</v>
       </c>
       <c r="H188" s="84" t="s">
-        <v>1171</v>
+        <v>1060</v>
       </c>
       <c r="I188" s="84"/>
       <c r="J188" s="84" t="s">
-        <v>1192</v>
+        <v>1086</v>
       </c>
       <c r="K188" s="84" t="s">
-        <v>1177</v>
+        <v>878</v>
       </c>
       <c r="L188" s="84" t="s">
-        <v>1085</v>
+        <v>656</v>
       </c>
       <c r="M188" s="84" t="s">
-        <v>1087</v>
+        <v>994</v>
       </c>
       <c r="N188" s="84" t="s">
-        <v>1089</v>
+        <v>636</v>
       </c>
       <c r="O188" s="84"/>
       <c r="P188" s="84" t="s">
-        <v>1091</v>
+        <v>996</v>
       </c>
       <c r="Q188" s="84" t="s">
-        <v>1091</v>
+        <v>996</v>
       </c>
       <c r="R188" s="84" t="s">
-        <v>1188</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="189" spans="2:18" ht="58.5">
@@ -14133,94 +13712,94 @@
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="80" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="E189" s="80" t="s">
         <v>219</v>
       </c>
       <c r="F189" s="80" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G189" s="80" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="H189" s="98" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="I189" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J189" s="98" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K189" s="80" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="L189" s="98" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M189" s="80" t="s">
         <v>220</v>
       </c>
       <c r="N189" s="80" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O189" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P189" s="80" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="Q189" s="80" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="R189" s="80" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="190" spans="2:18">
       <c r="B190" s="58"/>
       <c r="C190" s="1"/>
       <c r="D190" s="85" t="s">
-        <v>1082</v>
+        <v>991</v>
       </c>
       <c r="E190" s="85" t="s">
-        <v>838</v>
+        <v>324</v>
       </c>
       <c r="F190" s="85" t="s">
-        <v>1084</v>
+        <v>993</v>
       </c>
       <c r="G190" s="85" t="s">
-        <v>1084</v>
+        <v>993</v>
       </c>
       <c r="H190" s="85" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I190" s="85"/>
       <c r="J190" s="85" t="s">
-        <v>1193</v>
+        <v>1087</v>
       </c>
       <c r="K190" s="85" t="s">
-        <v>868</v>
+        <v>879</v>
       </c>
       <c r="L190" s="85" t="s">
-        <v>1086</v>
+        <v>657</v>
       </c>
       <c r="M190" s="85" t="s">
-        <v>1088</v>
+        <v>995</v>
       </c>
       <c r="N190" s="85" t="s">
-        <v>1090</v>
+        <v>637</v>
       </c>
       <c r="O190" s="85"/>
       <c r="P190" s="85" t="s">
-        <v>1092</v>
+        <v>997</v>
       </c>
       <c r="Q190" s="85" t="s">
-        <v>1092</v>
+        <v>997</v>
       </c>
       <c r="R190" s="85" t="s">
-        <v>1189</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="191" spans="2:18">
@@ -14246,26 +13825,26 @@
       <c r="B192" s="56"/>
       <c r="C192" s="1"/>
       <c r="D192" s="84" t="s">
-        <v>1093</v>
+        <v>624</v>
       </c>
       <c r="E192" s="84" t="s">
-        <v>1095</v>
+        <v>998</v>
       </c>
       <c r="F192" s="84"/>
       <c r="G192" s="84" t="s">
-        <v>1097</v>
+        <v>694</v>
       </c>
       <c r="H192" s="84" t="s">
-        <v>947</v>
+        <v>762</v>
       </c>
       <c r="I192" s="84" t="s">
-        <v>1099</v>
+        <v>1000</v>
       </c>
       <c r="J192" s="84" t="s">
-        <v>1190</v>
+        <v>1048</v>
       </c>
       <c r="K192" s="84" t="s">
-        <v>1101</v>
+        <v>1002</v>
       </c>
       <c r="L192" s="84"/>
       <c r="M192" s="84"/>
@@ -14282,22 +13861,22 @@
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="80" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E193" s="98" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F193" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G193" s="81" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H193" s="80" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="I193" s="80" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="J193" s="80" t="s">
         <v>204</v>
@@ -14319,26 +13898,26 @@
       <c r="B194" s="58"/>
       <c r="C194" s="1"/>
       <c r="D194" s="85" t="s">
-        <v>1094</v>
+        <v>625</v>
       </c>
       <c r="E194" s="85" t="s">
-        <v>1096</v>
+        <v>999</v>
       </c>
       <c r="F194" s="85"/>
       <c r="G194" s="85" t="s">
-        <v>1098</v>
+        <v>695</v>
       </c>
       <c r="H194" s="85" t="s">
-        <v>948</v>
+        <v>763</v>
       </c>
       <c r="I194" s="85" t="s">
-        <v>1100</v>
+        <v>1001</v>
       </c>
       <c r="J194" s="85" t="s">
-        <v>1191</v>
+        <v>1049</v>
       </c>
       <c r="K194" s="85" t="s">
-        <v>1102</v>
+        <v>1003</v>
       </c>
       <c r="L194" s="85"/>
       <c r="M194" s="85"/>
@@ -14371,45 +13950,45 @@
       <c r="B196" s="56"/>
       <c r="C196" s="1"/>
       <c r="D196" s="84" t="s">
-        <v>1103</v>
+        <v>1004</v>
       </c>
       <c r="E196" s="84" t="s">
-        <v>1105</v>
+        <v>284</v>
       </c>
       <c r="F196" s="84" t="s">
-        <v>929</v>
+        <v>274</v>
       </c>
       <c r="G196" s="84" t="s">
-        <v>1178</v>
+        <v>1042</v>
       </c>
       <c r="H196" s="84" t="s">
-        <v>1194</v>
+        <v>1068</v>
       </c>
       <c r="I196" s="84"/>
       <c r="J196" s="84" t="s">
-        <v>1107</v>
+        <v>1006</v>
       </c>
       <c r="K196" s="84" t="s">
-        <v>1109</v>
+        <v>286</v>
       </c>
       <c r="L196" s="84" t="s">
-        <v>1171</v>
+        <v>1060</v>
       </c>
       <c r="M196" s="84" t="s">
-        <v>1111</v>
+        <v>1008</v>
       </c>
       <c r="N196" s="84" t="s">
-        <v>1113</v>
+        <v>1010</v>
       </c>
       <c r="O196" s="84"/>
       <c r="P196" s="84" t="s">
-        <v>1196</v>
+        <v>760</v>
       </c>
       <c r="Q196" s="84" t="s">
-        <v>1115</v>
+        <v>678</v>
       </c>
       <c r="R196" s="84" t="s">
-        <v>1107</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="197" spans="2:18" ht="58.5">
@@ -14419,7 +13998,7 @@
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="80" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="E197" s="80" t="s">
         <v>188</v>
@@ -14428,7 +14007,7 @@
         <v>236</v>
       </c>
       <c r="G197" s="81" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="H197" s="80" t="s">
         <v>192</v>
@@ -14437,76 +14016,76 @@
         <v>186</v>
       </c>
       <c r="J197" s="80" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="K197" s="80" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="L197" s="80" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M197" s="80" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="N197" s="80" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="O197" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P197" s="98" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q197" s="80" t="s">
         <v>380</v>
       </c>
-      <c r="Q197" s="80" t="s">
-        <v>382</v>
-      </c>
       <c r="R197" s="80" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="198" spans="2:18">
       <c r="B198" s="58"/>
       <c r="C198" s="1"/>
       <c r="D198" s="85" t="s">
-        <v>1104</v>
+        <v>1005</v>
       </c>
       <c r="E198" s="85" t="s">
-        <v>1106</v>
+        <v>285</v>
       </c>
       <c r="F198" s="85" t="s">
-        <v>930</v>
+        <v>275</v>
       </c>
       <c r="G198" s="85" t="s">
-        <v>1179</v>
+        <v>1043</v>
       </c>
       <c r="H198" s="85" t="s">
-        <v>1195</v>
+        <v>1069</v>
       </c>
       <c r="I198" s="85"/>
       <c r="J198" s="85" t="s">
-        <v>1108</v>
+        <v>1007</v>
       </c>
       <c r="K198" s="85" t="s">
-        <v>1110</v>
+        <v>311</v>
       </c>
       <c r="L198" s="85" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="M198" s="85" t="s">
-        <v>1112</v>
+        <v>1009</v>
       </c>
       <c r="N198" s="85" t="s">
-        <v>1114</v>
+        <v>1011</v>
       </c>
       <c r="O198" s="85"/>
       <c r="P198" s="85" t="s">
-        <v>1197</v>
+        <v>761</v>
       </c>
       <c r="Q198" s="85" t="s">
-        <v>1116</v>
+        <v>679</v>
       </c>
       <c r="R198" s="85" t="s">
-        <v>1108</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="199" spans="2:18">
@@ -14532,26 +14111,26 @@
       <c r="B200" s="56"/>
       <c r="C200" s="1"/>
       <c r="D200" s="84" t="s">
-        <v>1117</v>
+        <v>1012</v>
       </c>
       <c r="E200" s="84" t="s">
-        <v>1119</v>
+        <v>1014</v>
       </c>
       <c r="F200" s="84"/>
       <c r="G200" s="84" t="s">
-        <v>921</v>
+        <v>888</v>
       </c>
       <c r="H200" s="84" t="s">
-        <v>1182</v>
+        <v>1038</v>
       </c>
       <c r="I200" s="84" t="s">
-        <v>1121</v>
+        <v>1016</v>
       </c>
       <c r="J200" s="84" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="K200" s="84" t="s">
-        <v>1113</v>
+        <v>1010</v>
       </c>
       <c r="L200" s="84"/>
       <c r="M200" s="84"/>
@@ -14568,28 +14147,28 @@
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="80" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E201" s="98" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="F201" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G201" s="81" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="H201" s="80" t="s">
         <v>237</v>
       </c>
       <c r="I201" s="80" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="J201" s="80" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K201" s="80" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="L201" s="80" t="s">
         <v>198</v>
@@ -14605,26 +14184,26 @@
       <c r="B202" s="58"/>
       <c r="C202" s="1"/>
       <c r="D202" s="85" t="s">
-        <v>1118</v>
+        <v>1013</v>
       </c>
       <c r="E202" s="85" t="s">
-        <v>1120</v>
+        <v>1015</v>
       </c>
       <c r="F202" s="85"/>
       <c r="G202" s="85" t="s">
-        <v>922</v>
+        <v>889</v>
       </c>
       <c r="H202" s="85" t="s">
-        <v>1183</v>
+        <v>1039</v>
       </c>
       <c r="I202" s="85" t="s">
-        <v>1122</v>
+        <v>1017</v>
       </c>
       <c r="J202" s="85" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="K202" s="85" t="s">
-        <v>1114</v>
+        <v>1011</v>
       </c>
       <c r="L202" s="85"/>
       <c r="M202" s="85"/>

--- a/output5/【河洛話注音】正氣歌【廣韻讀音】.xlsx
+++ b/output5/【河洛話注音】正氣歌【廣韻讀音】.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2B214D9-030A-4BC0-9531-3E3F3BA6B9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9626DFA1-80EE-477F-A6BB-576287CB82FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -31,7 +31,6 @@
     <definedName name="顯示注音輸入">env!$C$8</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="1094">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2055,9 +2054,6 @@
     <t>張</t>
   </si>
   <si>
-    <t>椎</t>
-  </si>
-  <si>
     <t>蘇</t>
   </si>
   <si>
@@ -2073,9 +2069,6 @@
     <t>頭</t>
   </si>
   <si>
-    <t>嵇</t>
-  </si>
-  <si>
     <t>侍</t>
   </si>
   <si>
@@ -2142,9 +2135,6 @@
     <t>江</t>
   </si>
   <si>
-    <t>楫</t>
-  </si>
-  <si>
     <t>慷</t>
   </si>
   <si>
@@ -2229,9 +2219,6 @@
     <t>柱</t>
   </si>
   <si>
-    <t>尊</t>
-  </si>
-  <si>
     <t>三</t>
   </si>
   <si>
@@ -2325,9 +2312,6 @@
     <t>同</t>
   </si>
   <si>
-    <t>皂</t>
-  </si>
-  <si>
     <t>棲</t>
   </si>
   <si>
@@ -3083,14 +3067,6 @@
   </si>
   <si>
     <t>ㆣㄚㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄞ˪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3341,14 +3317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>huat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄚㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>liau5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3557,14 +3525,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kim5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㆬˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buan7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3581,14 +3541,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kuan1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄨㄢ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>guat8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3605,14 +3557,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄨㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lai7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3765,14 +3709,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hiong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tian5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3789,14 +3725,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>huan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pi3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3909,14 +3837,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cu1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3973,14 +3893,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nai5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄞˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>koo3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4125,255 +4037,363 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>zo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>me2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄇㆤˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄥˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄞˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sian2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄞˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tun3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄨㄣ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄥ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zo2</t>
+  </si>
+  <si>
+    <t>ㄗㄜˋ</t>
+  </si>
+  <si>
+    <t>si2</t>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+  </si>
+  <si>
+    <t>hiu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>su2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㄨˋ</t>
-  </si>
-  <si>
-    <t>zi1</t>
-  </si>
-  <si>
-    <t>ㄐㄧ</t>
-  </si>
-  <si>
-    <t>zo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ha2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>me2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄇㆤˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hing2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄥˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tai2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄞˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ji2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sian2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nai2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄞˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆲˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zai2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄞˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>go2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uan2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tun3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄨㄣ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄣ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㄣ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄨ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giong7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄧㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zing3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄥ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㄞ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄞ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄚㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lim2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㆬˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuan3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄨㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lun7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄨㄣ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uan7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ning5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄧㄥˊ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4381,7 +4401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="84">
+  <fonts count="83">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -4962,13 +4982,6 @@
       <name val="吳守禮細明台語注音"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="26"/>
-      <color rgb="FFFF0000"/>
-      <name val="芫荽 0.94"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -5140,7 +5153,7 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5437,12 +5450,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6607,7 +6614,7 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -6615,7 +6622,7 @@
         <v>166</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -6742,8 +6749,8 @@
       <c r="Q3" s="83"/>
       <c r="R3" s="83"/>
       <c r="T3" s="92"/>
-      <c r="V3" s="106" t="s">
-        <v>790</v>
+      <c r="V3" s="104" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="4" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
@@ -6752,7 +6759,7 @@
         <v>272</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="F4" s="84" t="s">
         <v>287</v>
@@ -6762,7 +6769,7 @@
       </c>
       <c r="H4" s="84"/>
       <c r="I4" s="84" t="s">
-        <v>1030</v>
+        <v>1003</v>
       </c>
       <c r="J4" s="84" t="s">
         <v>258</v>
@@ -6778,17 +6785,17 @@
         <v>301</v>
       </c>
       <c r="O4" s="84" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="P4" s="84" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="Q4" s="84" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="R4" s="84"/>
       <c r="S4" s="93"/>
-      <c r="V4" s="107"/>
+      <c r="V4" s="105"/>
     </row>
     <row r="5" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="57">
@@ -6840,7 +6847,7 @@
         <v>186</v>
       </c>
       <c r="S5" s="94"/>
-      <c r="V5" s="107"/>
+      <c r="V5" s="105"/>
     </row>
     <row r="6" spans="2:29" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
@@ -6849,7 +6856,7 @@
         <v>273</v>
       </c>
       <c r="E6" s="85" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F6" s="85" t="s">
         <v>288</v>
@@ -6859,7 +6866,7 @@
       </c>
       <c r="H6" s="85"/>
       <c r="I6" s="85" t="s">
-        <v>1031</v>
+        <v>1004</v>
       </c>
       <c r="J6" s="85" t="s">
         <v>259</v>
@@ -6875,17 +6882,17 @@
         <v>302</v>
       </c>
       <c r="O6" s="85" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="P6" s="85" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="Q6" s="85" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="R6" s="85"/>
       <c r="S6" s="95"/>
-      <c r="V6" s="107"/>
+      <c r="V6" s="105"/>
     </row>
     <row r="7" spans="2:29" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="55"/>
@@ -6906,51 +6913,51 @@
       <c r="Q7" s="83"/>
       <c r="R7" s="83"/>
       <c r="S7" s="66"/>
-      <c r="V7" s="107"/>
+      <c r="V7" s="105"/>
     </row>
     <row r="8" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
       <c r="D8" s="84" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E8" s="84" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F8" s="84" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G8" s="84" t="s">
         <v>280</v>
       </c>
       <c r="H8" s="84"/>
       <c r="I8" s="84" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="J8" s="84" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="K8" s="84" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="L8" s="84" t="s">
         <v>297</v>
       </c>
       <c r="M8" s="84"/>
       <c r="N8" s="84" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="O8" s="84" t="s">
-        <v>1018</v>
+        <v>995</v>
       </c>
       <c r="P8" s="84" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="Q8" s="84" t="s">
         <v>290</v>
       </c>
       <c r="R8" s="84"/>
       <c r="S8" s="93"/>
-      <c r="V8" s="107"/>
+      <c r="V8" s="105"/>
     </row>
     <row r="9" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="57">
@@ -6990,11 +6997,11 @@
       <c r="N9" s="80" t="s">
         <v>349</v>
       </c>
-      <c r="O9" s="105" t="s">
-        <v>787</v>
+      <c r="O9" s="103" t="s">
+        <v>780</v>
       </c>
       <c r="P9" s="80" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="Q9" s="80" t="s">
         <v>350</v>
@@ -7004,51 +7011,51 @@
       </c>
       <c r="S9" s="94"/>
       <c r="T9" s="92"/>
-      <c r="V9" s="107"/>
+      <c r="V9" s="105"/>
     </row>
     <row r="10" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
       <c r="D10" s="85" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E10" s="85" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="G10" s="85" t="s">
         <v>281</v>
       </c>
       <c r="H10" s="85"/>
       <c r="I10" s="85" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="J10" s="85" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="K10" s="85" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="L10" s="85" t="s">
         <v>298</v>
       </c>
       <c r="M10" s="85"/>
       <c r="N10" s="85" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="O10" s="85" t="s">
-        <v>1019</v>
+        <v>996</v>
       </c>
       <c r="P10" s="85" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="Q10" s="85" t="s">
         <v>291</v>
       </c>
       <c r="R10" s="85"/>
       <c r="S10" s="96"/>
-      <c r="V10" s="107"/>
+      <c r="V10" s="105"/>
     </row>
     <row r="11" spans="2:29" s="66" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="65"/>
@@ -7068,61 +7075,61 @@
       <c r="P11" s="83"/>
       <c r="Q11" s="83"/>
       <c r="R11" s="83"/>
-      <c r="V11" s="107"/>
+      <c r="V11" s="105"/>
     </row>
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
       <c r="D12" s="84" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="E12" s="84" t="s">
-        <v>1032</v>
+        <v>1005</v>
       </c>
       <c r="F12" s="84" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G12" s="84" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="I12" s="84"/>
       <c r="J12" s="84" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="K12" s="84" t="s">
         <v>323</v>
       </c>
       <c r="L12" s="84" t="s">
-        <v>1032</v>
+        <v>1005</v>
       </c>
       <c r="M12" s="84" t="s">
         <v>274</v>
       </c>
       <c r="N12" s="84"/>
       <c r="O12" s="84" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="P12" s="84" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="Q12" s="84" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="R12" s="84" t="s">
         <v>260</v>
       </c>
       <c r="S12" s="93"/>
-      <c r="V12" s="107"/>
+      <c r="V12" s="105"/>
     </row>
     <row r="13" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="57">
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="105" t="s">
-        <v>788</v>
+      <c r="D13" s="103" t="s">
+        <v>781</v>
       </c>
       <c r="E13" s="80" t="s">
         <v>351</v>
@@ -7167,53 +7174,53 @@
         <v>207</v>
       </c>
       <c r="S13" s="94"/>
-      <c r="V13" s="107"/>
+      <c r="V13" s="105"/>
     </row>
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="85" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>1033</v>
+        <v>1006</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G14" s="85" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="H14" s="85" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="I14" s="85"/>
       <c r="J14" s="85" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="K14" s="85" t="s">
         <v>324</v>
       </c>
       <c r="L14" s="85" t="s">
-        <v>1033</v>
+        <v>1006</v>
       </c>
       <c r="M14" s="85" t="s">
         <v>275</v>
       </c>
       <c r="N14" s="85"/>
       <c r="O14" s="85" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="P14" s="85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="Q14" s="85" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="R14" s="85" t="s">
         <v>261</v>
       </c>
       <c r="S14" s="96"/>
-      <c r="V14" s="107"/>
+      <c r="V14" s="105"/>
     </row>
     <row r="15" spans="2:29" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="63"/>
@@ -7233,7 +7240,7 @@
       <c r="P15" s="83"/>
       <c r="Q15" s="83"/>
       <c r="R15" s="83"/>
-      <c r="V15" s="107"/>
+      <c r="V15" s="105"/>
       <c r="AC15" s="67" t="s">
         <v>182</v>
       </c>
@@ -7242,29 +7249,29 @@
       <c r="B16" s="56"/>
       <c r="D16" s="84"/>
       <c r="E16" s="84" t="s">
-        <v>1034</v>
+        <v>1007</v>
       </c>
       <c r="F16" s="84" t="s">
-        <v>1036</v>
+        <v>1009</v>
       </c>
       <c r="G16" s="84" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="H16" s="84" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="I16" s="84"/>
       <c r="J16" s="84" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="K16" s="84" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="L16" s="84" t="s">
         <v>313</v>
       </c>
       <c r="M16" s="84" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="N16" s="84"/>
       <c r="O16" s="84" t="s">
@@ -7274,13 +7281,13 @@
         <v>290</v>
       </c>
       <c r="Q16" s="84" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="R16" s="84" t="s">
         <v>295</v>
       </c>
       <c r="S16" s="93"/>
-      <c r="V16" s="107"/>
+      <c r="V16" s="105"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="57">
@@ -7305,7 +7312,7 @@
       <c r="I17" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="J17" s="105" t="s">
+      <c r="J17" s="103" t="s">
         <v>363</v>
       </c>
       <c r="K17" s="80" t="s">
@@ -7315,7 +7322,7 @@
         <v>365</v>
       </c>
       <c r="M17" s="100" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="N17" s="80" t="s">
         <v>186</v>
@@ -7333,35 +7340,35 @@
         <v>200</v>
       </c>
       <c r="S17" s="94"/>
-      <c r="V17" s="107"/>
+      <c r="V17" s="105"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="85"/>
       <c r="E18" s="85" t="s">
-        <v>1035</v>
+        <v>1008</v>
       </c>
       <c r="F18" s="85" t="s">
-        <v>1037</v>
+        <v>1010</v>
       </c>
       <c r="G18" s="85" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H18" s="85" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="I18" s="85"/>
       <c r="J18" s="85" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K18" s="85" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="L18" s="85" t="s">
         <v>314</v>
       </c>
       <c r="M18" s="85" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="N18" s="85"/>
       <c r="O18" s="85" t="s">
@@ -7371,13 +7378,13 @@
         <v>291</v>
       </c>
       <c r="Q18" s="85" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="R18" s="85" t="s">
         <v>296</v>
       </c>
       <c r="S18" s="96"/>
-      <c r="V18" s="107"/>
+      <c r="V18" s="105"/>
     </row>
     <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="63"/>
@@ -7397,38 +7404,38 @@
       <c r="P19" s="83"/>
       <c r="Q19" s="83"/>
       <c r="R19" s="83"/>
-      <c r="V19" s="107"/>
+      <c r="V19" s="105"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
       <c r="D20" s="84" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E20" s="84"/>
       <c r="F20" s="84" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G20" s="84" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H20" s="84" t="s">
-        <v>1020</v>
+        <v>997</v>
       </c>
       <c r="I20" s="84" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="J20" s="84"/>
       <c r="K20" s="84" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L20" s="84" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="M20" s="84" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="N20" s="84" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="O20" s="84"/>
       <c r="P20" s="84" t="s">
@@ -7438,10 +7445,10 @@
         <v>290</v>
       </c>
       <c r="R20" s="84" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="S20" s="93"/>
-      <c r="V20" s="107"/>
+      <c r="V20" s="105"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="57">
@@ -7457,11 +7464,11 @@
       <c r="F21" s="80" t="s">
         <v>367</v>
       </c>
-      <c r="G21" s="105" t="s">
+      <c r="G21" s="103" t="s">
         <v>368</v>
       </c>
       <c r="H21" s="80" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="I21" s="80" t="s">
         <v>369</v>
@@ -7494,38 +7501,38 @@
         <v>189</v>
       </c>
       <c r="S21" s="94"/>
-      <c r="V21" s="107"/>
+      <c r="V21" s="105"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
       <c r="D22" s="85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E22" s="85"/>
       <c r="F22" s="85" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="G22" s="85" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H22" s="85" t="s">
-        <v>1021</v>
+        <v>998</v>
       </c>
       <c r="I22" s="85" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="J22" s="85"/>
       <c r="K22" s="85" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L22" s="85" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="M22" s="85" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="N22" s="85" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="O22" s="85"/>
       <c r="P22" s="85" t="s">
@@ -7535,10 +7542,10 @@
         <v>291</v>
       </c>
       <c r="R22" s="85" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="S22" s="96"/>
-      <c r="V22" s="108"/>
+      <c r="V22" s="106"/>
     </row>
     <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="63"/>
@@ -7566,30 +7573,30 @@
         <v>262</v>
       </c>
       <c r="E24" s="84" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F24" s="84"/>
       <c r="G24" s="84" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="H24" s="84" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="I24" s="84" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="J24" s="84" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="K24" s="84"/>
       <c r="L24" s="84" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="M24" s="84" t="s">
-        <v>1038</v>
+        <v>1011</v>
       </c>
       <c r="N24" s="84" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="O24" s="84" t="s">
         <v>329</v>
@@ -7663,30 +7670,30 @@
         <v>263</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F26" s="85"/>
       <c r="G26" s="85" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H26" s="85" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="I26" s="85" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="J26" s="85" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="K26" s="85"/>
       <c r="L26" s="85" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="M26" s="85" t="s">
-        <v>1039</v>
+        <v>1012</v>
       </c>
       <c r="N26" s="85" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="O26" s="85" t="s">
         <v>330</v>
@@ -7732,39 +7739,39 @@
     <row r="28" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="56"/>
       <c r="D28" s="84" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="E28" s="84" t="s">
         <v>274</v>
       </c>
       <c r="F28" s="84" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G28" s="84"/>
       <c r="H28" s="84" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="I28" s="84" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="J28" s="84" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="K28" s="84" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="L28" s="84"/>
       <c r="M28" s="84" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="N28" s="84" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="O28" s="84" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="P28" s="84" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="Q28" s="84"/>
       <c r="R28" s="84" t="s">
@@ -7837,39 +7844,39 @@
     <row r="30" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="58"/>
       <c r="D30" s="85" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="E30" s="85" t="s">
         <v>275</v>
       </c>
       <c r="F30" s="85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="G30" s="85"/>
       <c r="H30" s="85" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="I30" s="85" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="J30" s="85" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="K30" s="85" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="L30" s="85"/>
       <c r="M30" s="85" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="N30" s="85" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="O30" s="85" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="P30" s="85" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="Q30" s="85"/>
       <c r="R30" s="85" t="s">
@@ -7912,33 +7919,33 @@
         <v>290</v>
       </c>
       <c r="E32" s="84" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="F32" s="84" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="G32" s="84" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="H32" s="84"/>
       <c r="I32" s="84" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="J32" s="84" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="K32" s="84" t="s">
         <v>276</v>
       </c>
       <c r="L32" s="84" t="s">
-        <v>1072</v>
+        <v>1043</v>
       </c>
       <c r="M32" s="84"/>
       <c r="N32" s="84" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="O32" s="84" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="P32" s="84" t="s">
         <v>287</v>
@@ -8013,33 +8020,33 @@
         <v>291</v>
       </c>
       <c r="E34" s="85" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="F34" s="85" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="G34" s="85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H34" s="85"/>
       <c r="I34" s="85" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="J34" s="85" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="K34" s="85" t="s">
         <v>277</v>
       </c>
       <c r="L34" s="85" t="s">
-        <v>1073</v>
+        <v>1044</v>
       </c>
       <c r="M34" s="85"/>
       <c r="N34" s="85" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="O34" s="85" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="P34" s="85" t="s">
         <v>288</v>
@@ -8080,39 +8087,39 @@
         <v>290</v>
       </c>
       <c r="F36" s="84" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="G36" s="84" t="s">
-        <v>1040</v>
+        <v>1013</v>
       </c>
       <c r="H36" s="84" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="I36" s="84"/>
       <c r="J36" s="84" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="K36" s="84" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="L36" s="84" t="s">
         <v>243</v>
       </c>
       <c r="M36" s="84" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="N36" s="84"/>
       <c r="O36" s="84" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="P36" s="84" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="Q36" s="84" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="R36" s="84" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="S36" s="93"/>
       <c r="V36" s="60"/>
@@ -8179,39 +8186,39 @@
         <v>291</v>
       </c>
       <c r="F38" s="85" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="G38" s="85" t="s">
-        <v>1041</v>
+        <v>1014</v>
       </c>
       <c r="H38" s="85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="I38" s="85"/>
       <c r="J38" s="85" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="K38" s="85" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="L38" s="85" t="s">
         <v>253</v>
       </c>
       <c r="M38" s="85" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="N38" s="85"/>
       <c r="O38" s="85" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="P38" s="85" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="Q38" s="85" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="R38" s="85" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="S38" s="96"/>
       <c r="V38" s="60"/>
@@ -8246,33 +8253,33 @@
         <v>290</v>
       </c>
       <c r="G40" s="84" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="H40" s="84" t="s">
         <v>284</v>
       </c>
       <c r="I40" s="84" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="J40" s="84"/>
       <c r="K40" s="84" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="L40" s="84" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="M40" s="84" t="s">
-        <v>1074</v>
+        <v>1045</v>
       </c>
       <c r="N40" s="84"/>
       <c r="O40" s="84" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="P40" s="84" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="Q40" s="84" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="R40" s="84"/>
       <c r="S40" s="93"/>
@@ -8341,33 +8348,33 @@
         <v>291</v>
       </c>
       <c r="G42" s="85" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="H42" s="85" t="s">
         <v>285</v>
       </c>
       <c r="I42" s="85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="J42" s="85"/>
       <c r="K42" s="85" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="L42" s="85" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="M42" s="85" t="s">
-        <v>1075</v>
+        <v>1046</v>
       </c>
       <c r="N42" s="85"/>
       <c r="O42" s="85" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="P42" s="85" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="Q42" s="85" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="R42" s="85"/>
       <c r="S42" s="96"/>
@@ -8396,20 +8403,20 @@
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="56"/>
       <c r="D44" s="84" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E44" s="84" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="F44" s="84" t="s">
         <v>303</v>
       </c>
       <c r="G44" s="84"/>
       <c r="H44" s="84" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="I44" s="84" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="J44" s="84" t="s">
         <v>243</v>
@@ -8425,13 +8432,13 @@
         <v>290</v>
       </c>
       <c r="O44" s="84" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="P44" s="84" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="Q44" s="84" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="R44" s="84"/>
       <c r="S44" s="93"/>
@@ -8479,7 +8486,7 @@
         <v>189</v>
       </c>
       <c r="P45" s="80" t="s">
-        <v>1080</v>
+        <v>1051</v>
       </c>
       <c r="Q45" s="80" t="s">
         <v>358</v>
@@ -8493,20 +8500,20 @@
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
       <c r="D46" s="85" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F46" s="85" t="s">
         <v>304</v>
       </c>
       <c r="G46" s="85"/>
       <c r="H46" s="85" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="I46" s="85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="J46" s="85" t="s">
         <v>253</v>
@@ -8522,13 +8529,13 @@
         <v>291</v>
       </c>
       <c r="O46" s="85" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="P46" s="85" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="Q46" s="85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="R46" s="85"/>
       <c r="S46" s="96"/>
@@ -8557,20 +8564,20 @@
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="56"/>
       <c r="D48" s="84" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="E48" s="84" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="F48" s="84" t="s">
         <v>303</v>
       </c>
       <c r="G48" s="84" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="H48" s="84"/>
       <c r="I48" s="84" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="J48" s="84" t="s">
         <v>250</v>
@@ -8582,17 +8589,17 @@
         <v>312</v>
       </c>
       <c r="M48" s="84" t="s">
-        <v>1084</v>
+        <v>1068</v>
       </c>
       <c r="N48" s="84" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="O48" s="84" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="P48" s="84"/>
       <c r="Q48" s="84" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="R48" s="84" t="s">
         <v>272</v>
@@ -8633,7 +8640,7 @@
         <v>411</v>
       </c>
       <c r="M49" s="98" t="s">
-        <v>1081</v>
+        <v>1052</v>
       </c>
       <c r="N49" s="80" t="s">
         <v>189</v>
@@ -8656,20 +8663,20 @@
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
       <c r="D50" s="85" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="F50" s="85" t="s">
         <v>304</v>
       </c>
       <c r="G50" s="85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H50" s="85"/>
       <c r="I50" s="85" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="J50" s="85" t="s">
         <v>327</v>
@@ -8681,17 +8688,17 @@
         <v>328</v>
       </c>
       <c r="M50" s="85" t="s">
-        <v>1085</v>
+        <v>1069</v>
       </c>
       <c r="N50" s="85" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="O50" s="85" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="P50" s="85"/>
       <c r="Q50" s="85" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="R50" s="85" t="s">
         <v>273</v>
@@ -8722,42 +8729,42 @@
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
       <c r="D52" s="84" t="s">
-        <v>1042</v>
+        <v>1015</v>
       </c>
       <c r="E52" s="84" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="F52" s="84" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G52" s="84"/>
       <c r="H52" s="84" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="I52" s="84" t="s">
-        <v>1086</v>
+        <v>1055</v>
       </c>
       <c r="J52" s="84" t="s">
         <v>256</v>
       </c>
       <c r="K52" s="84" t="s">
-        <v>1018</v>
+        <v>995</v>
       </c>
       <c r="L52" s="84"/>
       <c r="M52" s="84" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="N52" s="84" t="s">
-        <v>1028</v>
+        <v>1070</v>
       </c>
       <c r="O52" s="84" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="P52" s="84" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="Q52" s="84" t="s">
-        <v>1042</v>
+        <v>1015</v>
       </c>
       <c r="R52" s="84"/>
       <c r="S52" s="93"/>
@@ -8799,7 +8806,7 @@
         <v>419</v>
       </c>
       <c r="N53" s="80" t="s">
-        <v>1082</v>
+        <v>1053</v>
       </c>
       <c r="O53" s="80" t="s">
         <v>420</v>
@@ -8819,42 +8826,42 @@
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="85" t="s">
-        <v>1043</v>
+        <v>1016</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F54" s="85" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="G54" s="85"/>
       <c r="H54" s="85" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="I54" s="85" t="s">
-        <v>1087</v>
+        <v>1056</v>
       </c>
       <c r="J54" s="85" t="s">
         <v>257</v>
       </c>
       <c r="K54" s="85" t="s">
-        <v>1019</v>
+        <v>996</v>
       </c>
       <c r="L54" s="85"/>
       <c r="M54" s="85" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="N54" s="85" t="s">
-        <v>1029</v>
+        <v>1071</v>
       </c>
       <c r="O54" s="85" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="P54" s="85" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="Q54" s="85" t="s">
-        <v>1043</v>
+        <v>1016</v>
       </c>
       <c r="R54" s="85"/>
       <c r="S54" s="96"/>
@@ -8883,45 +8890,45 @@
     <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="56"/>
       <c r="D56" s="84" t="s">
-        <v>1044</v>
+        <v>1017</v>
       </c>
       <c r="E56" s="84" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F56" s="84" t="s">
         <v>270</v>
       </c>
       <c r="G56" s="84" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H56" s="84"/>
       <c r="I56" s="84" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="J56" s="84" t="s">
-        <v>1046</v>
+        <v>1019</v>
       </c>
       <c r="K56" s="84" t="s">
-        <v>1048</v>
+        <v>1021</v>
       </c>
       <c r="L56" s="84" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="M56" s="84" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="N56" s="84" t="s">
         <v>260</v>
       </c>
       <c r="O56" s="84" t="s">
-        <v>1050</v>
+        <v>1023</v>
       </c>
       <c r="P56" s="84"/>
       <c r="Q56" s="84" t="s">
         <v>260</v>
       </c>
       <c r="R56" s="84" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="S56" s="93"/>
       <c r="V56" s="60"/>
@@ -8965,7 +8972,7 @@
         <v>207</v>
       </c>
       <c r="O57" s="80" t="s">
-        <v>1083</v>
+        <v>1054</v>
       </c>
       <c r="P57" s="80" t="s">
         <v>198</v>
@@ -8982,45 +8989,45 @@
     <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="58"/>
       <c r="D58" s="85" t="s">
-        <v>1045</v>
+        <v>1018</v>
       </c>
       <c r="E58" s="85" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F58" s="85" t="s">
         <v>271</v>
       </c>
       <c r="G58" s="85" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="H58" s="85"/>
       <c r="I58" s="85" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="J58" s="85" t="s">
-        <v>1047</v>
+        <v>1020</v>
       </c>
       <c r="K58" s="85" t="s">
-        <v>1049</v>
+        <v>1022</v>
       </c>
       <c r="L58" s="85" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="M58" s="85" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="N58" s="85" t="s">
         <v>261</v>
       </c>
       <c r="O58" s="85" t="s">
-        <v>1051</v>
+        <v>1024</v>
       </c>
       <c r="P58" s="85"/>
       <c r="Q58" s="85" t="s">
         <v>261</v>
       </c>
       <c r="R58" s="85" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="S58" s="96"/>
       <c r="V58" s="60"/>
@@ -9048,43 +9055,43 @@
     <row r="60" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="56"/>
       <c r="D60" s="84" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="E60" s="84" t="s">
         <v>289</v>
       </c>
       <c r="F60" s="84" t="s">
-        <v>1026</v>
+        <v>1072</v>
       </c>
       <c r="G60" s="84" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H60" s="84" t="s">
         <v>268</v>
       </c>
       <c r="I60" s="84" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="J60" s="84"/>
       <c r="K60" s="84" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="L60" s="84" t="s">
         <v>305</v>
       </c>
       <c r="M60" s="84" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="N60" s="84"/>
       <c r="O60" s="84"/>
       <c r="P60" s="84" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="Q60" s="84" t="s">
-        <v>1052</v>
+        <v>1025</v>
       </c>
       <c r="R60" s="84" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="S60" s="93"/>
       <c r="V60" s="60"/>
@@ -9145,43 +9152,43 @@
     <row r="62" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="58"/>
       <c r="D62" s="85" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="E62" s="85" t="s">
         <v>332</v>
       </c>
       <c r="F62" s="85" t="s">
-        <v>1027</v>
+        <v>1073</v>
       </c>
       <c r="G62" s="85" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="H62" s="85" t="s">
         <v>269</v>
       </c>
       <c r="I62" s="85" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="J62" s="85"/>
       <c r="K62" s="85" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="L62" s="85" t="s">
         <v>306</v>
       </c>
       <c r="M62" s="85" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="N62" s="85"/>
       <c r="O62" s="85"/>
       <c r="P62" s="85" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="Q62" s="85" t="s">
-        <v>1053</v>
+        <v>1026</v>
       </c>
       <c r="R62" s="85" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="S62" s="96"/>
       <c r="V62" s="60"/>
@@ -9209,10 +9216,10 @@
     <row r="64" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="56"/>
       <c r="D64" s="84" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="E64" s="84" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="F64" s="84" t="s">
         <v>260</v>
@@ -9221,31 +9228,31 @@
         <v>250</v>
       </c>
       <c r="H64" s="84" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="I64" s="84"/>
       <c r="J64" s="84"/>
       <c r="K64" s="84" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="L64" s="84" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="M64" s="84" t="s">
-        <v>1048</v>
+        <v>1021</v>
       </c>
       <c r="N64" s="84" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="O64" s="84"/>
       <c r="P64" s="84" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="Q64" s="84" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="R64" s="84" t="s">
-        <v>1048</v>
+        <v>1021</v>
       </c>
       <c r="S64" s="93"/>
       <c r="V64" s="60"/>
@@ -9306,10 +9313,10 @@
     <row r="66" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="58"/>
       <c r="D66" s="85" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E66" s="85" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F66" s="85" t="s">
         <v>261</v>
@@ -9318,31 +9325,31 @@
         <v>327</v>
       </c>
       <c r="H66" s="85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="I66" s="85"/>
       <c r="J66" s="85"/>
       <c r="K66" s="85" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="L66" s="85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="M66" s="85" t="s">
-        <v>1049</v>
+        <v>1022</v>
       </c>
       <c r="N66" s="85" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="O66" s="85"/>
       <c r="P66" s="85" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="Q66" s="85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="R66" s="85" t="s">
-        <v>1049</v>
+        <v>1022</v>
       </c>
       <c r="S66" s="96"/>
       <c r="V66" s="60"/>
@@ -9374,36 +9381,36 @@
       </c>
       <c r="E68" s="84"/>
       <c r="F68" s="84" t="s">
-        <v>1042</v>
+        <v>1015</v>
       </c>
       <c r="G68" s="84" t="s">
         <v>258</v>
       </c>
       <c r="H68" s="84" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="I68" s="84" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="J68" s="84"/>
       <c r="K68" s="84" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="L68" s="84" t="s">
         <v>268</v>
       </c>
       <c r="M68" s="84" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="N68" s="84" t="s">
         <v>319</v>
       </c>
       <c r="O68" s="84"/>
       <c r="P68" s="84" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="Q68" s="84" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="R68" s="84" t="s">
         <v>260</v>
@@ -9471,36 +9478,36 @@
       </c>
       <c r="E70" s="85"/>
       <c r="F70" s="85" t="s">
-        <v>1043</v>
+        <v>1016</v>
       </c>
       <c r="G70" s="85" t="s">
         <v>259</v>
       </c>
       <c r="H70" s="85" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="I70" s="85" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="J70" s="85"/>
       <c r="K70" s="85" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="L70" s="85" t="s">
         <v>269</v>
       </c>
       <c r="M70" s="85" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="N70" s="85" t="s">
         <v>331</v>
       </c>
       <c r="O70" s="85"/>
       <c r="P70" s="85" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="Q70" s="85" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="R70" s="85" t="s">
         <v>261</v>
@@ -9535,10 +9542,10 @@
       </c>
       <c r="E72" s="84"/>
       <c r="F72" s="84" t="s">
-        <v>1054</v>
+        <v>1027</v>
       </c>
       <c r="G72" s="84" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="H72" s="84" t="s">
         <v>299</v>
@@ -9547,23 +9554,23 @@
         <v>250</v>
       </c>
       <c r="J72" s="84" t="s">
-        <v>1088</v>
+        <v>1057</v>
       </c>
       <c r="K72" s="84" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="L72" s="84" t="s">
-        <v>1056</v>
+        <v>1029</v>
       </c>
       <c r="M72" s="84"/>
       <c r="N72" s="84" t="s">
         <v>315</v>
       </c>
       <c r="O72" s="84" t="s">
-        <v>1088</v>
+        <v>1057</v>
       </c>
       <c r="P72" s="84" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="Q72" s="84" t="s">
         <v>322</v>
@@ -9634,10 +9641,10 @@
       </c>
       <c r="E74" s="85"/>
       <c r="F74" s="85" t="s">
-        <v>1055</v>
+        <v>1028</v>
       </c>
       <c r="G74" s="85" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="H74" s="85" t="s">
         <v>300</v>
@@ -9646,23 +9653,23 @@
         <v>327</v>
       </c>
       <c r="J74" s="85" t="s">
-        <v>1089</v>
+        <v>1058</v>
       </c>
       <c r="K74" s="85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="L74" s="85" t="s">
-        <v>1057</v>
+        <v>1030</v>
       </c>
       <c r="M74" s="85"/>
       <c r="N74" s="85" t="s">
         <v>316</v>
       </c>
       <c r="O74" s="85" t="s">
-        <v>1089</v>
+        <v>1058</v>
       </c>
       <c r="P74" s="85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="Q74" s="85" t="s">
         <v>333</v>
@@ -9870,19 +9877,19 @@
     <row r="84" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="56"/>
       <c r="D84" s="84" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="E84" s="84" t="s">
         <v>299</v>
       </c>
       <c r="F84" s="84" t="s">
-        <v>1048</v>
+        <v>1021</v>
       </c>
       <c r="G84" s="84" t="s">
-        <v>1088</v>
+        <v>1057</v>
       </c>
       <c r="H84" s="84" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="I84" s="84"/>
       <c r="J84" s="84" t="s">
@@ -9892,7 +9899,7 @@
         <v>260</v>
       </c>
       <c r="L84" s="84" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="M84" s="84" t="s">
         <v>309</v>
@@ -9902,13 +9909,13 @@
       </c>
       <c r="O84" s="84"/>
       <c r="P84" s="84" t="s">
-        <v>1032</v>
+        <v>1005</v>
       </c>
       <c r="Q84" s="84" t="s">
         <v>290</v>
       </c>
       <c r="R84" s="84" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="S84" s="93"/>
       <c r="V84" s="60"/>
@@ -9969,19 +9976,19 @@
     <row r="86" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="58"/>
       <c r="D86" s="85" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="E86" s="85" t="s">
         <v>300</v>
       </c>
       <c r="F86" s="85" t="s">
-        <v>1049</v>
+        <v>1022</v>
       </c>
       <c r="G86" s="85" t="s">
-        <v>1089</v>
+        <v>1058</v>
       </c>
       <c r="H86" s="85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="I86" s="85"/>
       <c r="J86" s="85" t="s">
@@ -9991,7 +9998,7 @@
         <v>261</v>
       </c>
       <c r="L86" s="85" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="M86" s="85" t="s">
         <v>310</v>
@@ -10001,13 +10008,13 @@
       </c>
       <c r="O86" s="85"/>
       <c r="P86" s="85" t="s">
-        <v>1033</v>
+        <v>1006</v>
       </c>
       <c r="Q86" s="85" t="s">
         <v>291</v>
       </c>
       <c r="R86" s="85" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="S86" s="96"/>
       <c r="V86" s="60"/>
@@ -10038,23 +10045,23 @@
         <v>268</v>
       </c>
       <c r="E88" s="84" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="F88" s="84"/>
       <c r="G88" s="84" t="s">
-        <v>1058</v>
+        <v>1031</v>
       </c>
       <c r="H88" s="84" t="s">
         <v>290</v>
       </c>
       <c r="I88" s="84" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="J88" s="84" t="s">
         <v>274</v>
       </c>
       <c r="K88" s="84" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="L88" s="84"/>
       <c r="M88" s="84"/>
@@ -10113,23 +10120,23 @@
         <v>269</v>
       </c>
       <c r="E90" s="85" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F90" s="85"/>
       <c r="G90" s="85" t="s">
-        <v>1059</v>
+        <v>1032</v>
       </c>
       <c r="H90" s="85" t="s">
         <v>291</v>
       </c>
       <c r="I90" s="85" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="J90" s="85" t="s">
         <v>275</v>
       </c>
       <c r="K90" s="85" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="L90" s="85"/>
       <c r="M90" s="85"/>
@@ -10170,29 +10177,29 @@
         <v>284</v>
       </c>
       <c r="F92" s="84" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G92" s="84" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="H92" s="84" t="s">
         <v>260</v>
       </c>
       <c r="I92" s="84"/>
       <c r="J92" s="84" t="s">
-        <v>770</v>
+        <v>1074</v>
       </c>
       <c r="K92" s="84" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="L92" s="84" t="s">
         <v>329</v>
       </c>
       <c r="M92" s="84" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="N92" s="84" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="O92" s="84"/>
       <c r="P92" s="84" t="s">
@@ -10202,7 +10209,7 @@
         <v>248</v>
       </c>
       <c r="R92" s="84" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="S92" s="93"/>
       <c r="V92" s="60"/>
@@ -10233,7 +10240,7 @@
       <c r="J93" s="98" t="s">
         <v>454</v>
       </c>
-      <c r="K93" s="98" t="s">
+      <c r="K93" s="80" t="s">
         <v>455</v>
       </c>
       <c r="L93" s="80" t="s">
@@ -10269,29 +10276,29 @@
         <v>285</v>
       </c>
       <c r="F94" s="85" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G94" s="85" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="H94" s="85" t="s">
         <v>261</v>
       </c>
       <c r="I94" s="85"/>
       <c r="J94" s="85" t="s">
-        <v>771</v>
+        <v>1075</v>
       </c>
       <c r="K94" s="85" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="L94" s="85" t="s">
         <v>330</v>
       </c>
       <c r="M94" s="85" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="N94" s="85" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="O94" s="85"/>
       <c r="P94" s="85" t="s">
@@ -10301,7 +10308,7 @@
         <v>249</v>
       </c>
       <c r="R94" s="85" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="S94" s="96"/>
       <c r="V94" s="60"/>
@@ -10329,10 +10336,10 @@
     <row r="96" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="56"/>
       <c r="D96" s="84" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="E96" s="84" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="F96" s="84"/>
       <c r="G96" s="84" t="s">
@@ -10345,7 +10352,7 @@
         <v>262</v>
       </c>
       <c r="J96" s="84" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="K96" s="84" t="s">
         <v>307</v>
@@ -10404,10 +10411,10 @@
     <row r="98" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="58"/>
       <c r="D98" s="85" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="E98" s="85" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="F98" s="85"/>
       <c r="G98" s="85" t="s">
@@ -10420,7 +10427,7 @@
         <v>263</v>
       </c>
       <c r="J98" s="85" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="K98" s="85" t="s">
         <v>308</v>
@@ -10464,10 +10471,10 @@
         <v>254</v>
       </c>
       <c r="F100" s="84" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="G100" s="84" t="s">
-        <v>1054</v>
+        <v>1027</v>
       </c>
       <c r="H100" s="84" t="s">
         <v>317</v>
@@ -10483,17 +10490,17 @@
         <v>278</v>
       </c>
       <c r="M100" s="84" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="N100" s="84" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="O100" s="84"/>
       <c r="P100" s="84" t="s">
-        <v>1060</v>
+        <v>1076</v>
       </c>
       <c r="Q100" s="84" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="R100" s="84" t="s">
         <v>246</v>
@@ -10536,7 +10543,7 @@
       <c r="M101" s="80" t="s">
         <v>468</v>
       </c>
-      <c r="N101" s="98" t="s">
+      <c r="N101" s="80" t="s">
         <v>469</v>
       </c>
       <c r="O101" s="80" t="s">
@@ -10563,10 +10570,10 @@
         <v>255</v>
       </c>
       <c r="F102" s="85" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="G102" s="85" t="s">
-        <v>1055</v>
+        <v>1028</v>
       </c>
       <c r="H102" s="85" t="s">
         <v>318</v>
@@ -10582,17 +10589,17 @@
         <v>279</v>
       </c>
       <c r="M102" s="85" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="N102" s="85" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="O102" s="85"/>
       <c r="P102" s="85" t="s">
-        <v>1061</v>
+        <v>1077</v>
       </c>
       <c r="Q102" s="85" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="R102" s="85" t="s">
         <v>247</v>
@@ -10622,25 +10629,27 @@
     </row>
     <row r="104" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="56"/>
-      <c r="D104" s="84"/>
+      <c r="D104" s="84" t="s">
+        <v>1066</v>
+      </c>
       <c r="E104" s="84" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="F104" s="84"/>
       <c r="G104" s="84" t="s">
-        <v>1060</v>
+        <v>1076</v>
       </c>
       <c r="H104" s="84" t="s">
         <v>244</v>
       </c>
       <c r="I104" s="84" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="J104" s="84" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="K104" s="84" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="L104" s="84"/>
       <c r="M104" s="84"/>
@@ -10657,7 +10666,7 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="80" t="s">
+      <c r="D105" s="98" t="s">
         <v>472</v>
       </c>
       <c r="E105" s="80" t="s">
@@ -10695,25 +10704,27 @@
     </row>
     <row r="106" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="58"/>
-      <c r="D106" s="85"/>
+      <c r="D106" s="85" t="s">
+        <v>1067</v>
+      </c>
       <c r="E106" s="85" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="F106" s="85"/>
       <c r="G106" s="85" t="s">
-        <v>1061</v>
+        <v>1077</v>
       </c>
       <c r="H106" s="85" t="s">
         <v>245</v>
       </c>
       <c r="I106" s="85" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="J106" s="85" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="K106" s="85" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="L106" s="85"/>
       <c r="M106" s="85"/>
@@ -10748,45 +10759,45 @@
     <row r="108" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="56"/>
       <c r="D108" s="84" t="s">
-        <v>1060</v>
+        <v>1076</v>
       </c>
       <c r="E108" s="84" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="F108" s="84" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="G108" s="84" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="H108" s="84" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="I108" s="84"/>
       <c r="J108" s="84" t="s">
-        <v>1060</v>
+        <v>1076</v>
       </c>
       <c r="K108" s="84" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="L108" s="84" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="M108" s="84" t="s">
-        <v>1062</v>
+        <v>1033</v>
       </c>
       <c r="N108" s="84" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="O108" s="84"/>
       <c r="P108" s="84" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="Q108" s="84" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="R108" s="84" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="S108" s="93"/>
       <c r="V108" s="60"/>
@@ -10808,8 +10819,8 @@
       <c r="G109" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="H109" s="98" t="s">
-        <v>478</v>
+      <c r="H109" s="80" t="s">
+        <v>1060</v>
       </c>
       <c r="I109" s="80" t="s">
         <v>186</v>
@@ -10821,7 +10832,7 @@
         <v>234</v>
       </c>
       <c r="L109" s="80" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M109" s="80" t="s">
         <v>187</v>
@@ -10836,10 +10847,10 @@
         <v>189</v>
       </c>
       <c r="Q109" s="80" t="s">
+        <v>479</v>
+      </c>
+      <c r="R109" s="80" t="s">
         <v>480</v>
-      </c>
-      <c r="R109" s="80" t="s">
-        <v>481</v>
       </c>
       <c r="S109" s="94"/>
       <c r="V109" s="60"/>
@@ -10847,45 +10858,45 @@
     <row r="110" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="58"/>
       <c r="D110" s="85" t="s">
-        <v>1061</v>
+        <v>1077</v>
       </c>
       <c r="E110" s="85" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F110" s="85" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="G110" s="85" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="H110" s="85" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="I110" s="85"/>
       <c r="J110" s="85" t="s">
-        <v>1061</v>
+        <v>1077</v>
       </c>
       <c r="K110" s="85" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="L110" s="85" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="M110" s="85" t="s">
-        <v>1063</v>
+        <v>1034</v>
       </c>
       <c r="N110" s="85" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="O110" s="85"/>
       <c r="P110" s="85" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="Q110" s="85" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="R110" s="85" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="S110" s="96"/>
       <c r="V110" s="60"/>
@@ -10913,26 +10924,26 @@
     <row r="112" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B112" s="56"/>
       <c r="D112" s="84" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="E112" s="84" t="s">
-        <v>1022</v>
+        <v>999</v>
       </c>
       <c r="F112" s="84"/>
       <c r="G112" s="84" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="H112" s="84" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="I112" s="84" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="J112" s="84" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="K112" s="84" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="L112" s="84"/>
       <c r="M112" s="84"/>
@@ -10950,10 +10961,10 @@
         <v>28</v>
       </c>
       <c r="D113" s="80" t="s">
+        <v>481</v>
+      </c>
+      <c r="E113" s="80" t="s">
         <v>482</v>
-      </c>
-      <c r="E113" s="80" t="s">
-        <v>483</v>
       </c>
       <c r="F113" s="80" t="s">
         <v>186</v>
@@ -10961,17 +10972,17 @@
       <c r="G113" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="H113" s="98" t="s">
-        <v>484</v>
+      <c r="H113" s="80" t="s">
+        <v>1059</v>
       </c>
       <c r="I113" s="80" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J113" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="K113" s="98" t="s">
-        <v>486</v>
+      <c r="K113" s="80" t="s">
+        <v>484</v>
       </c>
       <c r="L113" s="80" t="s">
         <v>198</v>
@@ -10988,26 +10999,26 @@
     <row r="114" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B114" s="58"/>
       <c r="D114" s="85" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="E114" s="85" t="s">
-        <v>1023</v>
+        <v>1000</v>
       </c>
       <c r="F114" s="85"/>
       <c r="G114" s="85" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="H114" s="85" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="I114" s="85" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="J114" s="85" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="K114" s="85" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="L114" s="85"/>
       <c r="M114" s="85"/>
@@ -11042,45 +11053,45 @@
     <row r="116" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="56"/>
       <c r="D116" s="84" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="E116" s="84" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F116" s="84" t="s">
-        <v>632</v>
+        <v>1078</v>
       </c>
       <c r="G116" s="84" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="H116" s="84" t="s">
         <v>323</v>
       </c>
       <c r="I116" s="84"/>
       <c r="J116" s="84" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="K116" s="84" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="L116" s="84" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="M116" s="84" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="N116" s="84" t="s">
-        <v>830</v>
+        <v>1080</v>
       </c>
       <c r="O116" s="84"/>
       <c r="P116" s="84" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="Q116" s="84" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="R116" s="84" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="S116" s="93"/>
       <c r="V116" s="60"/>
@@ -11097,13 +11108,13 @@
         <v>477</v>
       </c>
       <c r="F117" s="98" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G117" s="81" t="s">
         <v>240</v>
       </c>
       <c r="H117" s="80" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I117" s="80" t="s">
         <v>186</v>
@@ -11112,16 +11123,16 @@
         <v>189</v>
       </c>
       <c r="K117" s="80" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L117" s="80" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M117" s="80" t="s">
         <v>203</v>
       </c>
       <c r="N117" s="98" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="O117" s="80" t="s">
         <v>198</v>
@@ -11133,7 +11144,7 @@
         <v>189</v>
       </c>
       <c r="R117" s="80" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="S117" s="94"/>
       <c r="V117" s="60"/>
@@ -11141,45 +11152,45 @@
     <row r="118" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="58"/>
       <c r="D118" s="85" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="E118" s="85" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="F118" s="85" t="s">
-        <v>633</v>
+        <v>1079</v>
       </c>
       <c r="G118" s="85" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="H118" s="85" t="s">
         <v>324</v>
       </c>
       <c r="I118" s="85"/>
       <c r="J118" s="85" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="K118" s="85" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="L118" s="85" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="M118" s="85" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="N118" s="85" t="s">
-        <v>831</v>
+        <v>1081</v>
       </c>
       <c r="O118" s="85"/>
       <c r="P118" s="85" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="Q118" s="85" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="R118" s="85" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="S118" s="96"/>
       <c r="V118" s="60"/>
@@ -11207,26 +11218,26 @@
     <row r="120" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="56"/>
       <c r="D120" s="84" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E120" s="84" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="F120" s="84"/>
       <c r="G120" s="84" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="H120" s="84" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="I120" s="84" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="J120" s="84" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="K120" s="84" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="L120" s="84"/>
       <c r="M120" s="84"/>
@@ -11244,10 +11255,10 @@
         <v>30</v>
       </c>
       <c r="D121" s="80" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E121" s="80" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F121" s="80" t="s">
         <v>186</v>
@@ -11256,16 +11267,16 @@
         <v>459</v>
       </c>
       <c r="H121" s="80" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I121" s="80" t="s">
         <v>412</v>
       </c>
       <c r="J121" s="80" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K121" s="80" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L121" s="80" t="s">
         <v>198</v>
@@ -11282,26 +11293,26 @@
     <row r="122" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B122" s="58"/>
       <c r="D122" s="85" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="E122" s="85" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="F122" s="85"/>
       <c r="G122" s="85" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="H122" s="85" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="I122" s="85" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="J122" s="85" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="K122" s="85" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="L122" s="85"/>
       <c r="M122" s="85"/>
@@ -11336,45 +11347,45 @@
     <row r="124" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="56"/>
       <c r="D124" s="84" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E124" s="84" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="F124" s="84" t="s">
         <v>325</v>
       </c>
       <c r="G124" s="84" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="H124" s="84" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="I124" s="84"/>
       <c r="J124" s="84" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="K124" s="84" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="L124" s="84" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="M124" s="84" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="N124" s="84" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="O124" s="84"/>
       <c r="P124" s="84" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="Q124" s="84" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="R124" s="84" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="S124" s="93"/>
       <c r="V124" s="60"/>
@@ -11394,28 +11405,28 @@
         <v>227</v>
       </c>
       <c r="G125" s="81" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H125" s="80" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I125" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J125" s="80" t="s">
+        <v>498</v>
+      </c>
+      <c r="K125" s="80" t="s">
+        <v>499</v>
+      </c>
+      <c r="L125" s="80" t="s">
         <v>500</v>
       </c>
-      <c r="K125" s="80" t="s">
+      <c r="M125" s="80" t="s">
         <v>501</v>
       </c>
-      <c r="L125" s="80" t="s">
+      <c r="N125" s="80" t="s">
         <v>502</v>
-      </c>
-      <c r="M125" s="98" t="s">
-        <v>503</v>
-      </c>
-      <c r="N125" s="103" t="s">
-        <v>504</v>
       </c>
       <c r="O125" s="80" t="s">
         <v>198</v>
@@ -11427,7 +11438,7 @@
         <v>189</v>
       </c>
       <c r="R125" s="80" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="S125" s="94"/>
       <c r="V125" s="60"/>
@@ -11435,45 +11446,45 @@
     <row r="126" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="58"/>
       <c r="D126" s="85" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="E126" s="85" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="F126" s="85" t="s">
         <v>326</v>
       </c>
       <c r="G126" s="85" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="H126" s="85" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="I126" s="85"/>
       <c r="J126" s="85" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="K126" s="85" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="L126" s="85" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="M126" s="85" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="N126" s="85" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="O126" s="85"/>
       <c r="P126" s="85" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="Q126" s="85" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="R126" s="85" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="S126" s="96"/>
       <c r="V126" s="60"/>
@@ -11501,26 +11512,26 @@
     <row r="128" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B128" s="56"/>
       <c r="D128" s="84" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="E128" s="84" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="F128" s="84"/>
       <c r="G128" s="84" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="H128" s="84" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="I128" s="84" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="J128" s="84" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="K128" s="84" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="L128" s="84"/>
       <c r="M128" s="84"/>
@@ -11538,28 +11549,28 @@
         <v>32</v>
       </c>
       <c r="D129" s="80" t="s">
-        <v>506</v>
-      </c>
-      <c r="E129" s="100" t="s">
-        <v>507</v>
+        <v>504</v>
+      </c>
+      <c r="E129" s="80" t="s">
+        <v>1061</v>
       </c>
       <c r="F129" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G129" s="80" t="s">
+        <v>505</v>
+      </c>
+      <c r="H129" s="80" t="s">
+        <v>506</v>
+      </c>
+      <c r="I129" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="J129" s="80" t="s">
         <v>508</v>
       </c>
-      <c r="H129" s="80" t="s">
+      <c r="K129" s="80" t="s">
         <v>509</v>
-      </c>
-      <c r="I129" s="80" t="s">
-        <v>510</v>
-      </c>
-      <c r="J129" s="80" t="s">
-        <v>511</v>
-      </c>
-      <c r="K129" s="80" t="s">
-        <v>512</v>
       </c>
       <c r="L129" s="80" t="s">
         <v>198</v>
@@ -11576,26 +11587,26 @@
     <row r="130" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B130" s="58"/>
       <c r="D130" s="85" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="E130" s="85" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="F130" s="85"/>
       <c r="G130" s="85" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="H130" s="85" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="I130" s="85" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="J130" s="85" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="K130" s="85" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="L130" s="85"/>
       <c r="M130" s="85"/>
@@ -11630,45 +11641,45 @@
     <row r="132" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B132" s="56"/>
       <c r="D132" s="84" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E132" s="84" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="F132" s="84" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="G132" s="84" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="H132" s="84" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="I132" s="84"/>
       <c r="J132" s="84" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="K132" s="84" t="s">
         <v>303</v>
       </c>
       <c r="L132" s="84" t="s">
-        <v>1022</v>
+        <v>999</v>
       </c>
       <c r="M132" s="84" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="N132" s="84" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="O132" s="84"/>
       <c r="P132" s="84" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="Q132" s="84" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="R132" s="84" t="s">
-        <v>1026</v>
+        <v>1072</v>
       </c>
       <c r="S132" s="93"/>
       <c r="V132" s="60"/>
@@ -11685,31 +11696,31 @@
         <v>189</v>
       </c>
       <c r="F133" s="80" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G133" s="81" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H133" s="80" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="I133" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J133" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="K133" s="80" t="s">
+        <v>514</v>
+      </c>
+      <c r="L133" s="80" t="s">
+        <v>482</v>
+      </c>
+      <c r="M133" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="N133" s="80" t="s">
         <v>516</v>
-      </c>
-      <c r="K133" s="80" t="s">
-        <v>517</v>
-      </c>
-      <c r="L133" s="80" t="s">
-        <v>483</v>
-      </c>
-      <c r="M133" s="80" t="s">
-        <v>518</v>
-      </c>
-      <c r="N133" s="80" t="s">
-        <v>519</v>
       </c>
       <c r="O133" s="80" t="s">
         <v>198</v>
@@ -11729,45 +11740,45 @@
     <row r="134" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B134" s="58"/>
       <c r="D134" s="85" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="E134" s="85" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="F134" s="85" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="G134" s="85" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="H134" s="85" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="I134" s="85"/>
       <c r="J134" s="85" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="K134" s="85" t="s">
         <v>304</v>
       </c>
-      <c r="L134" s="104" t="s">
-        <v>1023</v>
+      <c r="L134" s="85" t="s">
+        <v>1000</v>
       </c>
       <c r="M134" s="85" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="N134" s="85" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="O134" s="85"/>
       <c r="P134" s="85" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="Q134" s="85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="R134" s="85" t="s">
-        <v>1027</v>
+        <v>1073</v>
       </c>
       <c r="S134" s="96"/>
       <c r="V134" s="60"/>
@@ -11795,26 +11806,26 @@
     <row r="136" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B136" s="56"/>
       <c r="D136" s="84" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="E136" s="84" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="F136" s="84"/>
       <c r="G136" s="84" t="s">
-        <v>884</v>
+        <v>1082</v>
       </c>
       <c r="H136" s="84" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="I136" s="84" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="J136" s="84" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="K136" s="84" t="s">
-        <v>1076</v>
+        <v>1047</v>
       </c>
       <c r="L136" s="84"/>
       <c r="M136" s="84"/>
@@ -11831,29 +11842,29 @@
         <f>B133+1</f>
         <v>34</v>
       </c>
-      <c r="D137" s="98" t="s">
-        <v>520</v>
+      <c r="D137" s="80" t="s">
+        <v>517</v>
       </c>
       <c r="E137" s="80" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F137" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G137" s="98" t="s">
+        <v>519</v>
+      </c>
+      <c r="H137" s="80" t="s">
+        <v>502</v>
+      </c>
+      <c r="I137" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="J137" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="K137" s="80" t="s">
         <v>522</v>
-      </c>
-      <c r="H137" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="I137" s="80" t="s">
-        <v>523</v>
-      </c>
-      <c r="J137" s="80" t="s">
-        <v>524</v>
-      </c>
-      <c r="K137" s="98" t="s">
-        <v>525</v>
       </c>
       <c r="L137" s="80" t="s">
         <v>198</v>
@@ -11870,26 +11881,26 @@
     <row r="138" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B138" s="58"/>
       <c r="D138" s="85" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="E138" s="85" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="F138" s="85"/>
       <c r="G138" s="85" t="s">
-        <v>885</v>
+        <v>1083</v>
       </c>
       <c r="H138" s="85" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="I138" s="85" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="J138" s="85" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="K138" s="85" t="s">
-        <v>1077</v>
+        <v>1048</v>
       </c>
       <c r="L138" s="85"/>
       <c r="M138" s="85"/>
@@ -11924,45 +11935,45 @@
     <row r="140" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B140" s="56"/>
       <c r="D140" s="84" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E140" s="84" t="s">
         <v>256</v>
       </c>
       <c r="F140" s="84" t="s">
-        <v>890</v>
+        <v>1084</v>
       </c>
       <c r="G140" s="84" t="s">
         <v>274</v>
       </c>
       <c r="H140" s="84" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I140" s="84"/>
       <c r="J140" s="84" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="K140" s="84" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="L140" s="84" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="M140" s="84" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="N140" s="84" t="s">
-        <v>896</v>
+        <v>1086</v>
       </c>
       <c r="O140" s="84"/>
       <c r="P140" s="84" t="s">
         <v>299</v>
       </c>
       <c r="Q140" s="84" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="R140" s="84" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
       <c r="S140" s="93"/>
       <c r="V140" s="60"/>
@@ -11979,31 +11990,31 @@
         <v>199</v>
       </c>
       <c r="F141" s="98" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G141" s="81" t="s">
         <v>236</v>
       </c>
       <c r="H141" s="80" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I141" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J141" s="80" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="K141" s="80" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="L141" s="80" t="s">
         <v>429</v>
       </c>
       <c r="M141" s="80" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="N141" s="98" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="O141" s="80" t="s">
         <v>198</v>
@@ -12012,10 +12023,10 @@
         <v>209</v>
       </c>
       <c r="Q141" s="80" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="R141" s="80" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="S141" s="94"/>
       <c r="V141" s="60"/>
@@ -12023,45 +12034,45 @@
     <row r="142" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B142" s="58"/>
       <c r="D142" s="85" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="E142" s="85" t="s">
         <v>257</v>
       </c>
       <c r="F142" s="85" t="s">
-        <v>891</v>
+        <v>1085</v>
       </c>
       <c r="G142" s="85" t="s">
         <v>275</v>
       </c>
       <c r="H142" s="85" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="I142" s="85"/>
       <c r="J142" s="85" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="K142" s="85" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="L142" s="85" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="M142" s="85" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="N142" s="85" t="s">
-        <v>897</v>
+        <v>1087</v>
       </c>
       <c r="O142" s="85"/>
       <c r="P142" s="85" t="s">
         <v>300</v>
       </c>
       <c r="Q142" s="85" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="R142" s="85" t="s">
-        <v>899</v>
+        <v>884</v>
       </c>
       <c r="S142" s="96"/>
       <c r="V142" s="60"/>
@@ -12089,26 +12100,26 @@
     <row r="144" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B144" s="56"/>
       <c r="D144" s="84" t="s">
-        <v>1042</v>
+        <v>1015</v>
       </c>
       <c r="E144" s="84" t="s">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="F144" s="84"/>
       <c r="G144" s="84" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="H144" s="84" t="s">
-        <v>1064</v>
+        <v>1035</v>
       </c>
       <c r="I144" s="84" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
       <c r="J144" s="84" t="s">
-        <v>1042</v>
+        <v>1015</v>
       </c>
       <c r="K144" s="84" t="s">
-        <v>1078</v>
+        <v>1049</v>
       </c>
       <c r="L144" s="84"/>
       <c r="M144" s="84"/>
@@ -12129,7 +12140,7 @@
         <v>414</v>
       </c>
       <c r="E145" s="80" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F145" s="80" t="s">
         <v>186</v>
@@ -12138,16 +12149,16 @@
         <v>442</v>
       </c>
       <c r="H145" s="98" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="I145" s="80" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J145" s="80" t="s">
         <v>414</v>
       </c>
-      <c r="K145" s="98" t="s">
-        <v>536</v>
+      <c r="K145" s="80" t="s">
+        <v>1062</v>
       </c>
       <c r="L145" s="80" t="s">
         <v>198</v>
@@ -12164,26 +12175,26 @@
     <row r="146" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B146" s="58"/>
       <c r="D146" s="85" t="s">
-        <v>1043</v>
+        <v>1016</v>
       </c>
       <c r="E146" s="85" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
       <c r="F146" s="85"/>
       <c r="G146" s="85" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="H146" s="85" t="s">
-        <v>1065</v>
+        <v>1036</v>
       </c>
       <c r="I146" s="85" t="s">
-        <v>899</v>
+        <v>884</v>
       </c>
       <c r="J146" s="85" t="s">
-        <v>1043</v>
+        <v>1016</v>
       </c>
       <c r="K146" s="85" t="s">
-        <v>1079</v>
+        <v>1050</v>
       </c>
       <c r="L146" s="85"/>
       <c r="M146" s="85"/>
@@ -12218,45 +12229,45 @@
     <row r="148" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B148" s="56"/>
       <c r="D148" s="84" t="s">
-        <v>902</v>
+        <v>887</v>
       </c>
       <c r="E148" s="84" t="s">
-        <v>904</v>
+        <v>889</v>
       </c>
       <c r="F148" s="84" t="s">
-        <v>906</v>
+        <v>891</v>
       </c>
       <c r="G148" s="84" t="s">
-        <v>908</v>
+        <v>893</v>
       </c>
       <c r="H148" s="84" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="I148" s="84"/>
       <c r="J148" s="84" t="s">
-        <v>1038</v>
+        <v>1011</v>
       </c>
       <c r="K148" s="84" t="s">
-        <v>910</v>
+        <v>895</v>
       </c>
       <c r="L148" s="84" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="M148" s="84" t="s">
         <v>250</v>
       </c>
       <c r="N148" s="84" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="O148" s="84"/>
       <c r="P148" s="84" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
       <c r="Q148" s="84" t="s">
         <v>272</v>
       </c>
       <c r="R148" s="84" t="s">
-        <v>990</v>
+        <v>967</v>
       </c>
       <c r="S148" s="93"/>
       <c r="V148" s="60"/>
@@ -12267,19 +12278,19 @@
         <v>37</v>
       </c>
       <c r="D149" s="80" t="s">
+        <v>533</v>
+      </c>
+      <c r="E149" s="80" t="s">
+        <v>534</v>
+      </c>
+      <c r="F149" s="80" t="s">
+        <v>535</v>
+      </c>
+      <c r="G149" s="80" t="s">
+        <v>536</v>
+      </c>
+      <c r="H149" s="80" t="s">
         <v>537</v>
-      </c>
-      <c r="E149" s="80" t="s">
-        <v>538</v>
-      </c>
-      <c r="F149" s="80" t="s">
-        <v>539</v>
-      </c>
-      <c r="G149" s="80" t="s">
-        <v>540</v>
-      </c>
-      <c r="H149" s="80" t="s">
-        <v>541</v>
       </c>
       <c r="I149" s="80" t="s">
         <v>186</v>
@@ -12288,7 +12299,7 @@
         <v>237</v>
       </c>
       <c r="K149" s="80" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="L149" s="80" t="s">
         <v>189</v>
@@ -12297,19 +12308,19 @@
         <v>191</v>
       </c>
       <c r="N149" s="80" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="O149" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P149" s="80" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="Q149" s="80" t="s">
         <v>413</v>
       </c>
       <c r="R149" s="80" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="S149" s="94"/>
       <c r="V149" s="60"/>
@@ -12317,45 +12328,45 @@
     <row r="150" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B150" s="58"/>
       <c r="D150" s="85" t="s">
-        <v>903</v>
+        <v>888</v>
       </c>
       <c r="E150" s="85" t="s">
-        <v>905</v>
+        <v>890</v>
       </c>
       <c r="F150" s="85" t="s">
-        <v>907</v>
+        <v>892</v>
       </c>
       <c r="G150" s="85" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="H150" s="85" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="I150" s="85"/>
       <c r="J150" s="85" t="s">
-        <v>1039</v>
+        <v>1012</v>
       </c>
       <c r="K150" s="85" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
       <c r="L150" s="85" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="M150" s="85" t="s">
         <v>327</v>
       </c>
       <c r="N150" s="85" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="O150" s="85"/>
       <c r="P150" s="85" t="s">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="Q150" s="85" t="s">
         <v>273</v>
       </c>
       <c r="R150" s="85" t="s">
-        <v>991</v>
+        <v>968</v>
       </c>
       <c r="S150" s="96"/>
       <c r="V150" s="60"/>
@@ -12383,26 +12394,26 @@
     <row r="152" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B152" s="56"/>
       <c r="D152" s="84" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="E152" s="84" t="s">
-        <v>914</v>
+        <v>899</v>
       </c>
       <c r="F152" s="84"/>
       <c r="G152" s="84" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="H152" s="84" t="s">
-        <v>1056</v>
+        <v>1029</v>
       </c>
       <c r="I152" s="84" t="s">
-        <v>906</v>
+        <v>891</v>
       </c>
       <c r="J152" s="84" t="s">
-        <v>1084</v>
+        <v>1068</v>
       </c>
       <c r="K152" s="84" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="L152" s="84"/>
       <c r="M152" s="84"/>
@@ -12423,25 +12434,25 @@
         <v>240</v>
       </c>
       <c r="E153" s="80" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F153" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G153" s="80" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="H153" s="80" t="s">
         <v>238</v>
       </c>
       <c r="I153" s="80" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="J153" s="80" t="s">
         <v>226</v>
       </c>
       <c r="K153" s="98" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="L153" s="80" t="s">
         <v>198</v>
@@ -12458,26 +12469,26 @@
     <row r="154" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B154" s="58"/>
       <c r="D154" s="85" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="E154" s="85" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="F154" s="85"/>
       <c r="G154" s="85" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="H154" s="85" t="s">
-        <v>1057</v>
+        <v>1030</v>
       </c>
       <c r="I154" s="85" t="s">
-        <v>907</v>
+        <v>892</v>
       </c>
       <c r="J154" s="85" t="s">
-        <v>1085</v>
+        <v>1069</v>
       </c>
       <c r="K154" s="85" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="L154" s="85"/>
       <c r="M154" s="85"/>
@@ -12512,29 +12523,29 @@
     <row r="156" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B156" s="56"/>
       <c r="D156" s="84" t="s">
-        <v>916</v>
+        <v>901</v>
       </c>
       <c r="E156" s="84" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="F156" s="84" t="s">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="G156" s="84" t="s">
         <v>256</v>
       </c>
       <c r="H156" s="84" t="s">
-        <v>890</v>
+        <v>1084</v>
       </c>
       <c r="I156" s="84"/>
       <c r="J156" s="84" t="s">
-        <v>920</v>
+        <v>905</v>
       </c>
       <c r="K156" s="84" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="L156" s="84" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
       <c r="M156" s="84" t="s">
         <v>254</v>
@@ -12544,13 +12555,13 @@
       </c>
       <c r="O156" s="84"/>
       <c r="P156" s="84" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="Q156" s="84" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="R156" s="84" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
       <c r="S156" s="93"/>
       <c r="V156" s="60"/>
@@ -12561,31 +12572,31 @@
         <v>39</v>
       </c>
       <c r="D157" s="80" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E157" s="80" t="s">
         <v>335</v>
       </c>
       <c r="F157" s="80" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G157" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="H157" s="80" t="s">
-        <v>551</v>
+      <c r="H157" s="98" t="s">
+        <v>547</v>
       </c>
       <c r="I157" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J157" s="80" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="K157" s="80" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="L157" s="80" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="M157" s="80" t="s">
         <v>465</v>
@@ -12597,13 +12608,13 @@
         <v>198</v>
       </c>
       <c r="P157" s="80" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="Q157" s="80" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="R157" s="80" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="S157" s="94"/>
       <c r="V157" s="60"/>
@@ -12611,29 +12622,29 @@
     <row r="158" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B158" s="58"/>
       <c r="D158" s="85" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
       <c r="E158" s="85" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F158" s="85" t="s">
-        <v>919</v>
+        <v>904</v>
       </c>
       <c r="G158" s="85" t="s">
         <v>257</v>
       </c>
       <c r="H158" s="85" t="s">
-        <v>891</v>
+        <v>1085</v>
       </c>
       <c r="I158" s="85"/>
       <c r="J158" s="85" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="K158" s="85" t="s">
-        <v>923</v>
+        <v>908</v>
       </c>
       <c r="L158" s="85" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="M158" s="85" t="s">
         <v>255</v>
@@ -12643,13 +12654,13 @@
       </c>
       <c r="O158" s="85"/>
       <c r="P158" s="85" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="Q158" s="85" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="R158" s="85" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="S158" s="96"/>
       <c r="V158" s="60"/>
@@ -12677,26 +12688,26 @@
     <row r="160" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B160" s="56"/>
       <c r="D160" s="84" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="E160" s="84" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="F160" s="84"/>
       <c r="G160" s="84" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="H160" s="84" t="s">
         <v>250</v>
       </c>
       <c r="I160" s="84" t="s">
-        <v>1084</v>
+        <v>1068</v>
       </c>
       <c r="J160" s="84" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="K160" s="84" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="L160" s="84"/>
       <c r="M160" s="84"/>
@@ -12717,13 +12728,13 @@
         <v>214</v>
       </c>
       <c r="E161" s="80" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F161" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G161" s="80" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H161" s="80" t="s">
         <v>191</v>
@@ -12752,26 +12763,26 @@
     <row r="162" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B162" s="58"/>
       <c r="D162" s="85" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="E162" s="85" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="F162" s="85"/>
       <c r="G162" s="85" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="H162" s="85" t="s">
         <v>327</v>
       </c>
       <c r="I162" s="85" t="s">
-        <v>1085</v>
+        <v>1069</v>
       </c>
       <c r="J162" s="85" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K162" s="85" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="L162" s="85"/>
       <c r="M162" s="85"/>
@@ -12806,45 +12817,45 @@
     <row r="164" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B164" s="56"/>
       <c r="D164" s="84" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="E164" s="84" t="s">
-        <v>936</v>
+        <v>1088</v>
       </c>
       <c r="F164" s="84" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="G164" s="84" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="H164" s="84" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="I164" s="84"/>
       <c r="J164" s="84" t="s">
-        <v>940</v>
+        <v>923</v>
       </c>
       <c r="K164" s="84" t="s">
-        <v>942</v>
+        <v>1090</v>
       </c>
       <c r="L164" s="84" t="s">
-        <v>944</v>
+        <v>925</v>
       </c>
       <c r="M164" s="84" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="N164" s="84" t="s">
-        <v>946</v>
+        <v>927</v>
       </c>
       <c r="O164" s="84"/>
       <c r="P164" s="84" t="s">
-        <v>948</v>
+        <v>929</v>
       </c>
       <c r="Q164" s="84" t="s">
         <v>276</v>
       </c>
       <c r="R164" s="84" t="s">
-        <v>950</v>
+        <v>931</v>
       </c>
       <c r="S164" s="93"/>
       <c r="V164" s="60"/>
@@ -12858,13 +12869,13 @@
         <v>381</v>
       </c>
       <c r="E165" s="98" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F165" s="98" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G165" s="80" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H165" s="80" t="s">
         <v>388</v>
@@ -12873,31 +12884,31 @@
         <v>186</v>
       </c>
       <c r="J165" s="80" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="K165" s="98" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="L165" s="80" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="M165" s="80" t="s">
         <v>442</v>
       </c>
       <c r="N165" s="98" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="O165" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P165" s="98" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="Q165" s="80" t="s">
         <v>241</v>
       </c>
       <c r="R165" s="80" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="S165" s="94"/>
       <c r="V165" s="60"/>
@@ -12905,45 +12916,45 @@
     <row r="166" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B166" s="58"/>
       <c r="D166" s="85" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="E166" s="85" t="s">
-        <v>937</v>
+        <v>1089</v>
       </c>
       <c r="F166" s="85" t="s">
-        <v>939</v>
+        <v>922</v>
       </c>
       <c r="G166" s="85" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="H166" s="85" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="I166" s="85"/>
       <c r="J166" s="85" t="s">
-        <v>941</v>
+        <v>924</v>
       </c>
       <c r="K166" s="85" t="s">
-        <v>943</v>
+        <v>1091</v>
       </c>
       <c r="L166" s="85" t="s">
-        <v>945</v>
+        <v>926</v>
       </c>
       <c r="M166" s="85" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="N166" s="85" t="s">
-        <v>947</v>
+        <v>928</v>
       </c>
       <c r="O166" s="85"/>
       <c r="P166" s="85" t="s">
-        <v>949</v>
+        <v>930</v>
       </c>
       <c r="Q166" s="85" t="s">
         <v>277</v>
       </c>
       <c r="R166" s="85" t="s">
-        <v>951</v>
+        <v>932</v>
       </c>
       <c r="S166" s="96"/>
       <c r="V166" s="60"/>
@@ -12973,22 +12984,24 @@
       <c r="D168" s="84" t="s">
         <v>258</v>
       </c>
-      <c r="E168" s="84"/>
+      <c r="E168" s="84" t="s">
+        <v>1064</v>
+      </c>
       <c r="F168" s="84"/>
       <c r="G168" s="84" t="s">
-        <v>952</v>
+        <v>933</v>
       </c>
       <c r="H168" s="84" t="s">
-        <v>954</v>
+        <v>935</v>
       </c>
       <c r="I168" s="84" t="s">
-        <v>956</v>
+        <v>937</v>
       </c>
       <c r="J168" s="84" t="s">
         <v>251</v>
       </c>
       <c r="K168" s="84" t="s">
-        <v>958</v>
+        <v>939</v>
       </c>
       <c r="L168" s="84"/>
       <c r="M168" s="84"/>
@@ -13007,8 +13020,8 @@
       <c r="D169" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="E169" s="80" t="s">
-        <v>568</v>
+      <c r="E169" s="98" t="s">
+        <v>1063</v>
       </c>
       <c r="F169" s="80" t="s">
         <v>186</v>
@@ -13016,17 +13029,17 @@
       <c r="G169" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="H169" s="98" t="s">
-        <v>569</v>
+      <c r="H169" s="80" t="s">
+        <v>564</v>
       </c>
       <c r="I169" s="80" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="J169" s="80" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="K169" s="80" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="L169" s="80" t="s">
         <v>198</v>
@@ -13044,22 +13057,24 @@
       <c r="D170" s="85" t="s">
         <v>259</v>
       </c>
-      <c r="E170" s="85"/>
+      <c r="E170" s="85" t="s">
+        <v>1065</v>
+      </c>
       <c r="F170" s="85"/>
       <c r="G170" s="85" t="s">
-        <v>953</v>
+        <v>934</v>
       </c>
       <c r="H170" s="85" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="I170" s="85" t="s">
-        <v>957</v>
+        <v>938</v>
       </c>
       <c r="J170" s="85" t="s">
         <v>252</v>
       </c>
       <c r="K170" s="85" t="s">
-        <v>959</v>
+        <v>940</v>
       </c>
       <c r="L170" s="85"/>
       <c r="M170" s="85"/>
@@ -13095,42 +13110,42 @@
         <v>258</v>
       </c>
       <c r="E172" s="84" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="F172" s="84" t="s">
-        <v>960</v>
+        <v>941</v>
       </c>
       <c r="G172" s="84" t="s">
-        <v>962</v>
+        <v>943</v>
       </c>
       <c r="H172" s="84" t="s">
         <v>248</v>
       </c>
       <c r="I172" s="84"/>
       <c r="J172" s="84" t="s">
-        <v>964</v>
+        <v>945</v>
       </c>
       <c r="K172" s="84" t="s">
         <v>315</v>
       </c>
       <c r="L172" s="84" t="s">
-        <v>1024</v>
+        <v>1001</v>
       </c>
       <c r="M172" s="84" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="N172" s="84" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="O172" s="84"/>
       <c r="P172" s="84" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="Q172" s="84" t="s">
         <v>323</v>
       </c>
       <c r="R172" s="84" t="s">
-        <v>966</v>
+        <v>947</v>
       </c>
     </row>
     <row r="173" spans="2:22" ht="58.5">
@@ -13146,31 +13161,31 @@
         <v>369</v>
       </c>
       <c r="F173" s="80" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G173" s="81" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="H173" s="80" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="I173" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J173" s="80" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="K173" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="L173" s="98" t="s">
-        <v>577</v>
+      <c r="L173" s="80" t="s">
+        <v>572</v>
       </c>
       <c r="M173" s="80" t="s">
         <v>185</v>
       </c>
       <c r="N173" s="80" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="O173" s="80" t="s">
         <v>198</v>
@@ -13182,7 +13197,7 @@
         <v>219</v>
       </c>
       <c r="R173" s="80" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="174" spans="2:22">
@@ -13192,42 +13207,42 @@
         <v>259</v>
       </c>
       <c r="E174" s="85" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F174" s="85" t="s">
-        <v>961</v>
+        <v>942</v>
       </c>
       <c r="G174" s="85" t="s">
-        <v>963</v>
+        <v>944</v>
       </c>
       <c r="H174" s="85" t="s">
         <v>249</v>
       </c>
       <c r="I174" s="85"/>
       <c r="J174" s="85" t="s">
-        <v>965</v>
+        <v>946</v>
       </c>
       <c r="K174" s="85" t="s">
         <v>316</v>
       </c>
       <c r="L174" s="85" t="s">
-        <v>1025</v>
+        <v>1002</v>
       </c>
       <c r="M174" s="85" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="N174" s="85" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="O174" s="85"/>
       <c r="P174" s="85" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="Q174" s="85" t="s">
         <v>324</v>
       </c>
       <c r="R174" s="85" t="s">
-        <v>967</v>
+        <v>948</v>
       </c>
     </row>
     <row r="175" spans="2:22">
@@ -13253,7 +13268,7 @@
       <c r="B176" s="56"/>
       <c r="C176" s="1"/>
       <c r="D176" s="84" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="E176" s="84" t="s">
         <v>303</v>
@@ -13263,16 +13278,16 @@
         <v>287</v>
       </c>
       <c r="H176" s="84" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="I176" s="84" t="s">
-        <v>968</v>
+        <v>949</v>
       </c>
       <c r="J176" s="84" t="s">
-        <v>970</v>
+        <v>951</v>
       </c>
       <c r="K176" s="84" t="s">
-        <v>972</v>
+        <v>737</v>
       </c>
       <c r="L176" s="84"/>
       <c r="M176" s="84"/>
@@ -13289,10 +13304,10 @@
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="80" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="E177" s="80" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F177" s="80" t="s">
         <v>186</v>
@@ -13300,17 +13315,17 @@
       <c r="G177" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="H177" s="98" t="s">
-        <v>582</v>
+      <c r="H177" s="80" t="s">
+        <v>577</v>
       </c>
       <c r="I177" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="J177" s="98" t="s">
-        <v>583</v>
+      <c r="J177" s="80" t="s">
+        <v>578</v>
       </c>
       <c r="K177" s="98" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L177" s="80" t="s">
         <v>198</v>
@@ -13326,7 +13341,7 @@
       <c r="B178" s="58"/>
       <c r="C178" s="1"/>
       <c r="D178" s="85" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E178" s="85" t="s">
         <v>304</v>
@@ -13336,16 +13351,16 @@
         <v>288</v>
       </c>
       <c r="H178" s="85" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="I178" s="85" t="s">
-        <v>969</v>
+        <v>950</v>
       </c>
       <c r="J178" s="85" t="s">
-        <v>971</v>
+        <v>952</v>
       </c>
       <c r="K178" s="85" t="s">
-        <v>973</v>
+        <v>738</v>
       </c>
       <c r="L178" s="85"/>
       <c r="M178" s="85"/>
@@ -13378,45 +13393,45 @@
       <c r="B180" s="56"/>
       <c r="C180" s="1"/>
       <c r="D180" s="84" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
       <c r="E180" s="84" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="F180" s="84" t="s">
-        <v>974</v>
+        <v>953</v>
       </c>
       <c r="G180" s="84" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="H180" s="84" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="I180" s="84"/>
       <c r="J180" s="84" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="K180" s="84" t="s">
-        <v>1066</v>
+        <v>1037</v>
       </c>
       <c r="L180" s="84" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="M180" s="84" t="s">
-        <v>976</v>
+        <v>955</v>
       </c>
       <c r="N180" s="84" t="s">
-        <v>978</v>
+        <v>957</v>
       </c>
       <c r="O180" s="84"/>
       <c r="P180" s="84" t="s">
-        <v>980</v>
+        <v>959</v>
       </c>
       <c r="Q180" s="84" t="s">
-        <v>1048</v>
+        <v>1021</v>
       </c>
       <c r="R180" s="84" t="s">
-        <v>982</v>
+        <v>961</v>
       </c>
     </row>
     <row r="181" spans="2:18" ht="58.5">
@@ -13426,19 +13441,19 @@
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="80" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E181" s="80" t="s">
         <v>431</v>
       </c>
       <c r="F181" s="80" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="G181" s="81" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="H181" s="80" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I181" s="80" t="s">
         <v>186</v>
@@ -13447,73 +13462,73 @@
         <v>189</v>
       </c>
       <c r="K181" s="80" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="L181" s="80" t="s">
         <v>429</v>
       </c>
       <c r="M181" s="80" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="N181" s="80" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="O181" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P181" s="80" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="Q181" s="80" t="s">
         <v>204</v>
       </c>
       <c r="R181" s="80" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="182" spans="2:18">
       <c r="B182" s="58"/>
       <c r="C182" s="1"/>
       <c r="D182" s="85" t="s">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="E182" s="85" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="F182" s="85" t="s">
-        <v>975</v>
+        <v>954</v>
       </c>
       <c r="G182" s="85" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="H182" s="85" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="I182" s="85"/>
       <c r="J182" s="85" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="K182" s="85" t="s">
-        <v>1067</v>
+        <v>1038</v>
       </c>
       <c r="L182" s="85" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="M182" s="85" t="s">
-        <v>977</v>
+        <v>956</v>
       </c>
       <c r="N182" s="85" t="s">
-        <v>979</v>
+        <v>958</v>
       </c>
       <c r="O182" s="85"/>
       <c r="P182" s="85" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="Q182" s="85" t="s">
-        <v>1049</v>
+        <v>1022</v>
       </c>
       <c r="R182" s="85" t="s">
-        <v>983</v>
+        <v>962</v>
       </c>
     </row>
     <row r="183" spans="2:18">
@@ -13539,26 +13554,26 @@
       <c r="B184" s="56"/>
       <c r="C184" s="1"/>
       <c r="D184" s="84" t="s">
-        <v>984</v>
+        <v>963</v>
       </c>
       <c r="E184" s="84" t="s">
-        <v>986</v>
+        <v>965</v>
       </c>
       <c r="F184" s="84"/>
       <c r="G184" s="84" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="H184" s="84" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="I184" s="84" t="s">
-        <v>1084</v>
+        <v>1068</v>
       </c>
       <c r="J184" s="84" t="s">
-        <v>988</v>
+        <v>1092</v>
       </c>
       <c r="K184" s="84" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="L184" s="84"/>
       <c r="M184" s="84"/>
@@ -13575,10 +13590,10 @@
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="80" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E185" s="80" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F185" s="80" t="s">
         <v>186</v>
@@ -13593,10 +13608,10 @@
         <v>226</v>
       </c>
       <c r="J185" s="98" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="K185" s="80" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="L185" s="80" t="s">
         <v>198</v>
@@ -13612,26 +13627,26 @@
       <c r="B186" s="58"/>
       <c r="C186" s="1"/>
       <c r="D186" s="85" t="s">
-        <v>985</v>
+        <v>964</v>
       </c>
       <c r="E186" s="85" t="s">
-        <v>987</v>
+        <v>966</v>
       </c>
       <c r="F186" s="85"/>
       <c r="G186" s="85" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="H186" s="85" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="I186" s="85" t="s">
-        <v>1085</v>
+        <v>1069</v>
       </c>
       <c r="J186" s="85" t="s">
-        <v>989</v>
+        <v>1093</v>
       </c>
       <c r="K186" s="85" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="L186" s="85"/>
       <c r="M186" s="85"/>
@@ -13664,45 +13679,45 @@
       <c r="B188" s="56"/>
       <c r="C188" s="1"/>
       <c r="D188" s="84" t="s">
-        <v>990</v>
+        <v>967</v>
       </c>
       <c r="E188" s="84" t="s">
         <v>323</v>
       </c>
       <c r="F188" s="84" t="s">
-        <v>992</v>
+        <v>969</v>
       </c>
       <c r="G188" s="84" t="s">
-        <v>992</v>
+        <v>969</v>
       </c>
       <c r="H188" s="84" t="s">
-        <v>1060</v>
+        <v>1076</v>
       </c>
       <c r="I188" s="84"/>
       <c r="J188" s="84" t="s">
-        <v>1086</v>
+        <v>1055</v>
       </c>
       <c r="K188" s="84" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="L188" s="84" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="M188" s="84" t="s">
-        <v>994</v>
+        <v>971</v>
       </c>
       <c r="N188" s="84" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="O188" s="84"/>
       <c r="P188" s="84" t="s">
-        <v>996</v>
+        <v>973</v>
       </c>
       <c r="Q188" s="84" t="s">
-        <v>996</v>
+        <v>973</v>
       </c>
       <c r="R188" s="84" t="s">
-        <v>1066</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="189" spans="2:18" ht="58.5">
@@ -13712,16 +13727,16 @@
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="80" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="E189" s="80" t="s">
         <v>219</v>
       </c>
       <c r="F189" s="80" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G189" s="80" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="H189" s="98" t="s">
         <v>470</v>
@@ -13733,7 +13748,7 @@
         <v>418</v>
       </c>
       <c r="K189" s="80" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="L189" s="98" t="s">
         <v>363</v>
@@ -13748,58 +13763,58 @@
         <v>198</v>
       </c>
       <c r="P189" s="80" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="Q189" s="80" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="R189" s="80" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="190" spans="2:18">
       <c r="B190" s="58"/>
       <c r="C190" s="1"/>
       <c r="D190" s="85" t="s">
-        <v>991</v>
+        <v>968</v>
       </c>
       <c r="E190" s="85" t="s">
         <v>324</v>
       </c>
       <c r="F190" s="85" t="s">
-        <v>993</v>
+        <v>970</v>
       </c>
       <c r="G190" s="85" t="s">
-        <v>993</v>
+        <v>970</v>
       </c>
       <c r="H190" s="85" t="s">
-        <v>1061</v>
+        <v>1077</v>
       </c>
       <c r="I190" s="85"/>
       <c r="J190" s="85" t="s">
-        <v>1087</v>
+        <v>1056</v>
       </c>
       <c r="K190" s="85" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="L190" s="85" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="M190" s="85" t="s">
-        <v>995</v>
+        <v>972</v>
       </c>
       <c r="N190" s="85" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="O190" s="85"/>
       <c r="P190" s="85" t="s">
-        <v>997</v>
+        <v>974</v>
       </c>
       <c r="Q190" s="85" t="s">
-        <v>997</v>
+        <v>974</v>
       </c>
       <c r="R190" s="85" t="s">
-        <v>1067</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="191" spans="2:18">
@@ -13825,26 +13840,26 @@
       <c r="B192" s="56"/>
       <c r="C192" s="1"/>
       <c r="D192" s="84" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E192" s="84" t="s">
-        <v>998</v>
+        <v>975</v>
       </c>
       <c r="F192" s="84"/>
       <c r="G192" s="84" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="H192" s="84" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="I192" s="84" t="s">
-        <v>1000</v>
+        <v>977</v>
       </c>
       <c r="J192" s="84" t="s">
-        <v>1048</v>
+        <v>1021</v>
       </c>
       <c r="K192" s="84" t="s">
-        <v>1002</v>
+        <v>979</v>
       </c>
       <c r="L192" s="84"/>
       <c r="M192" s="84"/>
@@ -13861,10 +13876,10 @@
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="80" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="E193" s="98" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F193" s="80" t="s">
         <v>186</v>
@@ -13876,7 +13891,7 @@
         <v>442</v>
       </c>
       <c r="I193" s="80" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="J193" s="80" t="s">
         <v>204</v>
@@ -13898,26 +13913,26 @@
       <c r="B194" s="58"/>
       <c r="C194" s="1"/>
       <c r="D194" s="85" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E194" s="85" t="s">
-        <v>999</v>
+        <v>976</v>
       </c>
       <c r="F194" s="85"/>
       <c r="G194" s="85" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="H194" s="85" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="I194" s="85" t="s">
-        <v>1001</v>
+        <v>978</v>
       </c>
       <c r="J194" s="85" t="s">
-        <v>1049</v>
+        <v>1022</v>
       </c>
       <c r="K194" s="85" t="s">
-        <v>1003</v>
+        <v>980</v>
       </c>
       <c r="L194" s="85"/>
       <c r="M194" s="85"/>
@@ -13950,7 +13965,7 @@
       <c r="B196" s="56"/>
       <c r="C196" s="1"/>
       <c r="D196" s="84" t="s">
-        <v>1004</v>
+        <v>981</v>
       </c>
       <c r="E196" s="84" t="s">
         <v>284</v>
@@ -13959,36 +13974,36 @@
         <v>274</v>
       </c>
       <c r="G196" s="84" t="s">
-        <v>1042</v>
+        <v>1015</v>
       </c>
       <c r="H196" s="84" t="s">
-        <v>1068</v>
+        <v>1039</v>
       </c>
       <c r="I196" s="84"/>
       <c r="J196" s="84" t="s">
-        <v>1006</v>
+        <v>983</v>
       </c>
       <c r="K196" s="84" t="s">
         <v>286</v>
       </c>
       <c r="L196" s="84" t="s">
-        <v>1060</v>
+        <v>1076</v>
       </c>
       <c r="M196" s="84" t="s">
-        <v>1008</v>
+        <v>985</v>
       </c>
       <c r="N196" s="84" t="s">
-        <v>1010</v>
+        <v>987</v>
       </c>
       <c r="O196" s="84"/>
       <c r="P196" s="84" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="Q196" s="84" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="R196" s="84" t="s">
-        <v>1006</v>
+        <v>983</v>
       </c>
     </row>
     <row r="197" spans="2:18" ht="58.5">
@@ -13998,7 +14013,7 @@
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="80" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E197" s="80" t="s">
         <v>188</v>
@@ -14007,7 +14022,7 @@
         <v>236</v>
       </c>
       <c r="G197" s="81" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="H197" s="80" t="s">
         <v>192</v>
@@ -14016,38 +14031,38 @@
         <v>186</v>
       </c>
       <c r="J197" s="80" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="K197" s="80" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="L197" s="80" t="s">
         <v>470</v>
       </c>
       <c r="M197" s="80" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="N197" s="80" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="O197" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="P197" s="98" t="s">
+      <c r="P197" s="80" t="s">
         <v>378</v>
       </c>
       <c r="Q197" s="80" t="s">
         <v>380</v>
       </c>
       <c r="R197" s="80" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="198" spans="2:18">
       <c r="B198" s="58"/>
       <c r="C198" s="1"/>
       <c r="D198" s="85" t="s">
-        <v>1005</v>
+        <v>982</v>
       </c>
       <c r="E198" s="85" t="s">
         <v>285</v>
@@ -14056,36 +14071,36 @@
         <v>275</v>
       </c>
       <c r="G198" s="85" t="s">
-        <v>1043</v>
+        <v>1016</v>
       </c>
       <c r="H198" s="85" t="s">
-        <v>1069</v>
+        <v>1040</v>
       </c>
       <c r="I198" s="85"/>
       <c r="J198" s="85" t="s">
-        <v>1007</v>
+        <v>984</v>
       </c>
       <c r="K198" s="85" t="s">
         <v>311</v>
       </c>
       <c r="L198" s="85" t="s">
-        <v>1061</v>
+        <v>1077</v>
       </c>
       <c r="M198" s="85" t="s">
-        <v>1009</v>
+        <v>986</v>
       </c>
       <c r="N198" s="85" t="s">
-        <v>1011</v>
+        <v>988</v>
       </c>
       <c r="O198" s="85"/>
       <c r="P198" s="85" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="Q198" s="85" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="R198" s="85" t="s">
-        <v>1007</v>
+        <v>984</v>
       </c>
     </row>
     <row r="199" spans="2:18">
@@ -14111,26 +14126,26 @@
       <c r="B200" s="56"/>
       <c r="C200" s="1"/>
       <c r="D200" s="84" t="s">
-        <v>1012</v>
+        <v>989</v>
       </c>
       <c r="E200" s="84" t="s">
-        <v>1014</v>
+        <v>991</v>
       </c>
       <c r="F200" s="84"/>
       <c r="G200" s="84" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="H200" s="84" t="s">
-        <v>1038</v>
+        <v>1011</v>
       </c>
       <c r="I200" s="84" t="s">
-        <v>1016</v>
+        <v>993</v>
       </c>
       <c r="J200" s="84" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="K200" s="84" t="s">
-        <v>1010</v>
+        <v>987</v>
       </c>
       <c r="L200" s="84"/>
       <c r="M200" s="84"/>
@@ -14147,28 +14162,28 @@
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="80" t="s">
-        <v>610</v>
-      </c>
-      <c r="E201" s="98" t="s">
-        <v>611</v>
+        <v>605</v>
+      </c>
+      <c r="E201" s="80" t="s">
+        <v>606</v>
       </c>
       <c r="F201" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G201" s="81" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H201" s="80" t="s">
         <v>237</v>
       </c>
       <c r="I201" s="80" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="J201" s="80" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="K201" s="80" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="L201" s="80" t="s">
         <v>198</v>
@@ -14184,26 +14199,26 @@
       <c r="B202" s="58"/>
       <c r="C202" s="1"/>
       <c r="D202" s="85" t="s">
-        <v>1013</v>
+        <v>990</v>
       </c>
       <c r="E202" s="85" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
       <c r="F202" s="85"/>
       <c r="G202" s="85" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H202" s="85" t="s">
-        <v>1039</v>
+        <v>1012</v>
       </c>
       <c r="I202" s="85" t="s">
-        <v>1017</v>
+        <v>994</v>
       </c>
       <c r="J202" s="85" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="K202" s="85" t="s">
-        <v>1011</v>
+        <v>988</v>
       </c>
       <c r="L202" s="85"/>
       <c r="M202" s="85"/>
@@ -15262,7 +15277,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="107" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -15280,7 +15295,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="109" t="s">
+      <c r="I5" s="107" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -15305,7 +15320,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="110"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -15325,7 +15340,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="110"/>
+      <c r="I6" s="108"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -15347,7 +15362,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="110"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -15363,7 +15378,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="110"/>
+      <c r="I7" s="108"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -15385,7 +15400,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="110"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -15401,7 +15416,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="110"/>
+      <c r="I8" s="108"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -15423,7 +15438,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="110"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -15439,7 +15454,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="110"/>
+      <c r="I9" s="108"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -15461,7 +15476,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="111"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -15477,7 +15492,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="111"/>
+      <c r="I10" s="109"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -15500,7 +15515,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="107" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -15518,7 +15533,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="109" t="s">
+      <c r="I11" s="107" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -15542,7 +15557,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="110"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -15562,7 +15577,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="110"/>
+      <c r="I12" s="108"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -15582,7 +15597,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="110"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -15596,7 +15611,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="110"/>
+      <c r="I13" s="108"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -15616,7 +15631,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="110"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -15630,7 +15645,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="110"/>
+      <c r="I14" s="108"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -15650,7 +15665,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="110"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -15664,7 +15679,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="110"/>
+      <c r="I15" s="108"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -15684,7 +15699,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="111"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -15698,7 +15713,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="111"/>
+      <c r="I16" s="109"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>

--- a/output5/【河洛話注音】正氣歌【廣韻讀音】.xlsx
+++ b/output5/【河洛話注音】正氣歌【廣韻讀音】.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9626DFA1-80EE-477F-A6BB-576287CB82FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45157FBC-7767-4551-96A7-75877744B0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -27,6 +27,7 @@
     <definedName name="TITLE">env!$C$4</definedName>
     <definedName name="每列總字數">env!$C$10</definedName>
     <definedName name="每頁總列數">env!$C$9</definedName>
+    <definedName name="漢字庫">env!$C$12</definedName>
     <definedName name="語音類型">env!$C$11</definedName>
     <definedName name="顯示注音輸入">env!$C$8</definedName>
   </definedNames>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1085">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1318,10 +1319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>it4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄧㆵ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1374,10 +1371,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄨˊ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1562,10 +1555,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ian1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>siu2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1578,22 +1567,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ci2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄑㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cut4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㄨㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄐㄧ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2478,14 +2451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄑㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sim1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2558,18 +2523,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄧㄨ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>am3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㆰ˪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2702,18 +2659,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iam5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄧㆰˊ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>im1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄧㆬ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2726,14 +2675,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cuan3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㄨㄢ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zu7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2766,14 +2707,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㆲ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hu2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2846,14 +2779,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄑㄧㄥ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hui2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2870,18 +2795,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>oo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㆦ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ue3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄨㆤ˪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2918,10 +2835,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄨ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2942,10 +2855,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iong7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄧㆲ˫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2958,18 +2867,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄧㆻ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>an1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄢ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2990,10 +2891,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄨㄚㆵ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3006,14 +2903,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cit4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄑㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tik8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3083,10 +2972,6 @@
   </si>
   <si>
     <t>ㄇㄧㄥˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3229,10 +3114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ui5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄨㄧˊ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3285,10 +3166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄧㆲˊ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3333,14 +3210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>co1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㄜ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ping1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3629,18 +3498,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄧㄥ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3717,14 +3574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㄨㄣ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pi3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3837,14 +3686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㄨ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lok8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3909,18 +3750,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>un5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄨㄣˊ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄧㄨˊ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4037,134 +3870,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ha2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>me2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄇㆤˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hing2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄥˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tai2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄞˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ji2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sian2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nai2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄞˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆲˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tu2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4173,26 +3878,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>go2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uan2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄨㄧ˫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4281,119 +3966,402 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zo2</t>
-  </si>
-  <si>
-    <t>ㄗㄜˋ</t>
+    <t>hiu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㄞ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄞ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄚㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuan3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄨㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lun7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄨㄣ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ning5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢字庫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣韻</t>
+  </si>
+  <si>
+    <t>Øu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zo6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øoo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄚ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øiu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øam3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øu6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øiam5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuan3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㆲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hu6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>me6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄇㆤ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zut4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øi6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hing6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄥ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øiong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tai6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øiu6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øuat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sian6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nai6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øia6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄚ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>si2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧˋ</t>
-  </si>
-  <si>
-    <t>hiu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㄞ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zai7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄞ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄧ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄚㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lim2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㆬˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kuan3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄨㄢ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lun7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄨㄣ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uan7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄢ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ning5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øiong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lim6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㆬ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øui5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øuan7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zo6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øiu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Øuan6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄢ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6571,10 +6539,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B1:C11"/>
+  <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -6614,7 +6582,7 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -6622,7 +6590,7 @@
         <v>166</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -6630,7 +6598,7 @@
         <v>180</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -6667,20 +6635,31 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="99" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>293</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="99" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{DE2F131F-8109-4114-9E19-8669EDE792F8}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{6056E438-7F02-4F64-9ACE-4A66972C21FC}">
       <formula1>"白話音, 文讀音"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{AD48FA95-6ACC-4C21-945B-3E2F8D247466}">
+      <formula1>"河洛話, 廣韻"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6750,48 +6729,48 @@
       <c r="R3" s="83"/>
       <c r="T3" s="92"/>
       <c r="V3" s="104" t="s">
-        <v>783</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="56"/>
       <c r="D4" s="84" t="s">
-        <v>272</v>
+        <v>1006</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F4" s="84" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H4" s="84"/>
       <c r="I4" s="84" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="J4" s="84" t="s">
-        <v>258</v>
+        <v>1009</v>
       </c>
       <c r="K4" s="84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L4" s="84" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M4" s="84"/>
       <c r="N4" s="84" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O4" s="84" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="P4" s="84" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="Q4" s="84" t="s">
-        <v>617</v>
+        <v>288</v>
       </c>
       <c r="R4" s="84"/>
       <c r="S4" s="93"/>
@@ -6802,22 +6781,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F5" s="80" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G5" s="80" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H5" s="80" t="s">
         <v>186</v>
       </c>
       <c r="I5" s="80" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="J5" s="80" t="s">
         <v>202</v>
@@ -6826,22 +6805,22 @@
         <v>208</v>
       </c>
       <c r="L5" s="80" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M5" s="80" t="s">
         <v>198</v>
       </c>
       <c r="N5" s="80" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="O5" s="80" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="P5" s="80" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="80" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="R5" s="80" t="s">
         <v>186</v>
@@ -6853,42 +6832,42 @@
       <c r="B6" s="58"/>
       <c r="C6" s="87"/>
       <c r="D6" s="85" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E6" s="85" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H6" s="85"/>
       <c r="I6" s="85" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="J6" s="85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K6" s="85" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L6" s="85" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M6" s="85"/>
       <c r="N6" s="85" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O6" s="85" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="P6" s="85" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q6" s="85" t="s">
-        <v>618</v>
+        <v>289</v>
       </c>
       <c r="R6" s="85"/>
       <c r="S6" s="95"/>
@@ -6918,42 +6897,42 @@
     <row r="8" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
       <c r="D8" s="84" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="E8" s="84" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F8" s="84" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H8" s="84"/>
       <c r="I8" s="84" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="J8" s="84" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="K8" s="84" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="L8" s="84" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M8" s="84"/>
       <c r="N8" s="84" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="O8" s="84" t="s">
-        <v>995</v>
+        <v>953</v>
       </c>
       <c r="P8" s="84" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="Q8" s="84" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R8" s="84"/>
       <c r="S8" s="93"/>
@@ -6965,13 +6944,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G9" s="80" t="s">
         <v>239</v>
@@ -6980,13 +6959,13 @@
         <v>198</v>
       </c>
       <c r="I9" s="80" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="J9" s="80" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="K9" s="80" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="L9" s="80" t="s">
         <v>205</v>
@@ -6995,16 +6974,16 @@
         <v>186</v>
       </c>
       <c r="N9" s="80" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="O9" s="103" t="s">
-        <v>780</v>
+        <v>751</v>
       </c>
       <c r="P9" s="80" t="s">
-        <v>779</v>
+        <v>750</v>
       </c>
       <c r="Q9" s="80" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="R9" s="80" t="s">
         <v>186</v>
@@ -7016,42 +6995,42 @@
     <row r="10" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
       <c r="D10" s="85" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="E10" s="85" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="G10" s="85" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H10" s="85"/>
       <c r="I10" s="85" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="J10" s="85" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="K10" s="85" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="L10" s="85" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M10" s="85"/>
       <c r="N10" s="85" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="O10" s="85" t="s">
-        <v>996</v>
+        <v>954</v>
       </c>
       <c r="P10" s="85" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="Q10" s="85" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="R10" s="85"/>
       <c r="S10" s="96"/>
@@ -7080,45 +7059,45 @@
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
       <c r="D12" s="84" t="s">
-        <v>715</v>
+        <v>1010</v>
       </c>
       <c r="E12" s="84" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="F12" s="84" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="G12" s="84" t="s">
-        <v>637</v>
+        <v>1013</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>639</v>
+        <v>1014</v>
       </c>
       <c r="I12" s="84"/>
       <c r="J12" s="84" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="K12" s="84" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="L12" s="84" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="M12" s="84" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N12" s="84"/>
       <c r="O12" s="84" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="P12" s="84" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="Q12" s="84" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="R12" s="84" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S12" s="93"/>
       <c r="V12" s="105"/>
@@ -7129,31 +7108,31 @@
         <v>3</v>
       </c>
       <c r="D13" s="103" t="s">
-        <v>781</v>
+        <v>752</v>
       </c>
       <c r="E13" s="80" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G13" s="80" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="H13" s="80" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I13" s="80" t="s">
         <v>198</v>
       </c>
       <c r="J13" s="80" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="K13" s="80" t="s">
         <v>219</v>
       </c>
       <c r="L13" s="80" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="M13" s="80" t="s">
         <v>236</v>
@@ -7162,13 +7141,13 @@
         <v>186</v>
       </c>
       <c r="O13" s="80" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="P13" s="80" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="Q13" s="80" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="R13" s="80" t="s">
         <v>207</v>
@@ -7179,45 +7158,45 @@
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="85" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G14" s="85" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="H14" s="85" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="I14" s="85"/>
       <c r="J14" s="85" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="K14" s="85" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="L14" s="85" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="M14" s="85" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N14" s="85"/>
       <c r="O14" s="85" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="P14" s="85" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="Q14" s="85" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="R14" s="85" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S14" s="96"/>
       <c r="V14" s="105"/>
@@ -7249,42 +7228,42 @@
       <c r="B16" s="56"/>
       <c r="D16" s="84"/>
       <c r="E16" s="84" t="s">
-        <v>1007</v>
+        <v>1015</v>
       </c>
       <c r="F16" s="84" t="s">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="G16" s="84" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="H16" s="84" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="I16" s="84"/>
       <c r="J16" s="84" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="K16" s="84" t="s">
-        <v>653</v>
+        <v>1018</v>
       </c>
       <c r="L16" s="84" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M16" s="84" t="s">
-        <v>785</v>
+        <v>756</v>
       </c>
       <c r="N16" s="84"/>
       <c r="O16" s="84" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P16" s="84" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="84" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="R16" s="84" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S16" s="93"/>
       <c r="V16" s="105"/>
@@ -7298,31 +7277,31 @@
         <v>221</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G17" s="80" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H17" s="80" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="I17" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J17" s="103" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="K17" s="80" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="L17" s="80" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M17" s="100" t="s">
-        <v>782</v>
+        <v>753</v>
       </c>
       <c r="N17" s="80" t="s">
         <v>186</v>
@@ -7331,7 +7310,7 @@
         <v>224</v>
       </c>
       <c r="P17" s="80" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="Q17" s="80" t="s">
         <v>189</v>
@@ -7346,42 +7325,42 @@
       <c r="B18" s="58"/>
       <c r="D18" s="85"/>
       <c r="E18" s="85" t="s">
-        <v>1008</v>
+        <v>706</v>
       </c>
       <c r="F18" s="85" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="G18" s="85" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="H18" s="85" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="I18" s="85"/>
       <c r="J18" s="85" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="K18" s="85" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="L18" s="85" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M18" s="85" t="s">
-        <v>786</v>
+        <v>757</v>
       </c>
       <c r="N18" s="85"/>
       <c r="O18" s="85" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P18" s="85" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q18" s="85" t="s">
-        <v>1042</v>
+        <v>963</v>
       </c>
       <c r="R18" s="85" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="S18" s="96"/>
       <c r="V18" s="105"/>
@@ -7409,43 +7388,43 @@
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
       <c r="D20" s="84" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="E20" s="84"/>
       <c r="F20" s="84" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="G20" s="84" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="H20" s="84" t="s">
-        <v>997</v>
+        <v>955</v>
       </c>
       <c r="I20" s="84" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="J20" s="84"/>
       <c r="K20" s="84" t="s">
-        <v>759</v>
+        <v>731</v>
       </c>
       <c r="L20" s="84" t="s">
-        <v>715</v>
+        <v>1010</v>
       </c>
       <c r="M20" s="84" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="N20" s="84" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="O20" s="84"/>
       <c r="P20" s="84" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="84" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R20" s="84" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="S20" s="93"/>
       <c r="V20" s="105"/>
@@ -7456,37 +7435,37 @@
         <v>5</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E21" s="80" t="s">
         <v>193</v>
       </c>
       <c r="F21" s="80" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G21" s="103" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H21" s="80" t="s">
-        <v>784</v>
+        <v>755</v>
       </c>
       <c r="I21" s="80" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="J21" s="80" t="s">
         <v>186</v>
       </c>
       <c r="K21" s="80" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="L21" s="98" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="M21" s="80" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="N21" s="80" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="O21" s="80" t="s">
         <v>186</v>
@@ -7495,7 +7474,7 @@
         <v>224</v>
       </c>
       <c r="Q21" s="80" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="R21" s="98" t="s">
         <v>189</v>
@@ -7506,43 +7485,43 @@
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
       <c r="D22" s="85" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="E22" s="85"/>
       <c r="F22" s="85" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="G22" s="85" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="H22" s="85" t="s">
-        <v>998</v>
+        <v>956</v>
       </c>
       <c r="I22" s="85" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="J22" s="85"/>
       <c r="K22" s="85" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="L22" s="85" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="M22" s="85" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="N22" s="85" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="O22" s="85"/>
       <c r="P22" s="85" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q22" s="85" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="R22" s="85" t="s">
-        <v>1042</v>
+        <v>963</v>
       </c>
       <c r="S22" s="96"/>
       <c r="V22" s="106"/>
@@ -7570,43 +7549,43 @@
     <row r="24" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="56"/>
       <c r="D24" s="84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E24" s="84" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="F24" s="84"/>
       <c r="G24" s="84" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="H24" s="84" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="I24" s="84" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="J24" s="84" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="K24" s="84"/>
       <c r="L24" s="84" t="s">
-        <v>755</v>
+        <v>727</v>
       </c>
       <c r="M24" s="84" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="N24" s="84" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="O24" s="84" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="P24" s="84"/>
       <c r="Q24" s="84" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R24" s="84" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S24" s="93"/>
       <c r="V24" s="60"/>
@@ -7620,37 +7599,37 @@
         <v>208</v>
       </c>
       <c r="E25" s="80" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F25" s="80" t="s">
         <v>193</v>
       </c>
       <c r="G25" s="80" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H25" s="80" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="I25" s="80" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="J25" s="80" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K25" s="80" t="s">
         <v>186</v>
       </c>
       <c r="L25" s="98" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M25" s="98" t="s">
         <v>237</v>
       </c>
       <c r="N25" s="80" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="O25" s="80" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="P25" s="80" t="s">
         <v>186</v>
@@ -7659,7 +7638,7 @@
         <v>224</v>
       </c>
       <c r="R25" s="80" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="S25" s="94"/>
       <c r="V25" s="60"/>
@@ -7667,43 +7646,43 @@
     <row r="26" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="58"/>
       <c r="D26" s="85" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="F26" s="85"/>
       <c r="G26" s="85" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="H26" s="85" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="I26" s="85" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="J26" s="85" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="K26" s="85"/>
       <c r="L26" s="85" t="s">
-        <v>756</v>
+        <v>728</v>
       </c>
       <c r="M26" s="85" t="s">
-        <v>1012</v>
+        <v>1021</v>
       </c>
       <c r="N26" s="85" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="O26" s="85" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="P26" s="85"/>
       <c r="Q26" s="85" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R26" s="85" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S26" s="96"/>
       <c r="U26" s="1" t="str">
@@ -7739,43 +7718,43 @@
     <row r="28" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="56"/>
       <c r="D28" s="84" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="E28" s="84" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F28" s="84" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="G28" s="84"/>
       <c r="H28" s="84" t="s">
-        <v>673</v>
+        <v>1022</v>
       </c>
       <c r="I28" s="84" t="s">
-        <v>675</v>
+        <v>1023</v>
       </c>
       <c r="J28" s="84" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="K28" s="84" t="s">
-        <v>679</v>
+        <v>1024</v>
       </c>
       <c r="L28" s="84"/>
       <c r="M28" s="84" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="N28" s="84" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="O28" s="84" t="s">
-        <v>673</v>
+        <v>1022</v>
       </c>
       <c r="P28" s="84" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="Q28" s="84"/>
       <c r="R28" s="84" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S28" s="93"/>
       <c r="U28" s="67" t="str">
@@ -7796,37 +7775,37 @@
         <v>236</v>
       </c>
       <c r="F29" s="80" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G29" s="80" t="s">
         <v>193</v>
       </c>
       <c r="H29" s="80" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="I29" s="80" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="J29" s="80" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="K29" s="80" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="L29" s="80" t="s">
         <v>186</v>
       </c>
       <c r="M29" s="80" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="N29" s="80" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="O29" s="80" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="P29" s="80" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="Q29" s="80" t="s">
         <v>186</v>
@@ -7844,43 +7823,43 @@
     <row r="30" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="58"/>
       <c r="D30" s="85" t="s">
-        <v>1042</v>
+        <v>963</v>
       </c>
       <c r="E30" s="85" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F30" s="85" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="G30" s="85"/>
       <c r="H30" s="85" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="I30" s="85" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="J30" s="85" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="K30" s="85" t="s">
-        <v>680</v>
+        <v>1025</v>
       </c>
       <c r="L30" s="85"/>
       <c r="M30" s="85" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="N30" s="85" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="O30" s="85" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="P30" s="85" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="Q30" s="85"/>
       <c r="R30" s="85" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S30" s="96"/>
       <c r="U30" s="67" t="str">
@@ -7916,42 +7895,42 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="84" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E32" s="84" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="F32" s="84" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="G32" s="84" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="H32" s="84"/>
       <c r="I32" s="84" t="s">
-        <v>689</v>
+        <v>1026</v>
       </c>
       <c r="J32" s="84" t="s">
-        <v>691</v>
+        <v>1028</v>
       </c>
       <c r="K32" s="84" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L32" s="84" t="s">
-        <v>1043</v>
+        <v>964</v>
       </c>
       <c r="M32" s="84"/>
       <c r="N32" s="84" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="O32" s="84" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="P32" s="84" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q32" s="84" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R32" s="84"/>
       <c r="S32" s="93"/>
@@ -7967,43 +7946,43 @@
         <v>8</v>
       </c>
       <c r="D33" s="80" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E33" s="80" t="s">
         <v>189</v>
       </c>
       <c r="F33" s="80" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G33" s="80" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H33" s="80" t="s">
         <v>193</v>
       </c>
       <c r="I33" s="80" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="J33" s="80" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="K33" s="80" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="L33" s="98" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M33" s="80" t="s">
         <v>186</v>
       </c>
       <c r="N33" s="80" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="O33" s="80" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="P33" s="80" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="Q33" s="80" t="s">
         <v>188</v>
@@ -8017,42 +7996,42 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="85" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E34" s="85" t="s">
-        <v>1042</v>
+        <v>963</v>
       </c>
       <c r="F34" s="85" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="G34" s="85" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="H34" s="85"/>
       <c r="I34" s="85" t="s">
-        <v>690</v>
+        <v>1027</v>
       </c>
       <c r="J34" s="85" t="s">
-        <v>692</v>
+        <v>1029</v>
       </c>
       <c r="K34" s="85" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L34" s="85" t="s">
-        <v>1044</v>
+        <v>965</v>
       </c>
       <c r="M34" s="85"/>
       <c r="N34" s="85" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="O34" s="85" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="P34" s="85" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q34" s="85" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="R34" s="85"/>
       <c r="S34" s="96"/>
@@ -8081,45 +8060,45 @@
     <row r="36" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="56"/>
       <c r="D36" s="84" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E36" s="84" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F36" s="84" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="G36" s="84" t="s">
-        <v>1013</v>
+        <v>1030</v>
       </c>
       <c r="H36" s="84" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="I36" s="84"/>
       <c r="J36" s="84" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="K36" s="84" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="L36" s="84" t="s">
         <v>243</v>
       </c>
       <c r="M36" s="84" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="N36" s="84"/>
       <c r="O36" s="84" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="P36" s="84" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="Q36" s="84" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="R36" s="84" t="s">
-        <v>877</v>
+        <v>844</v>
       </c>
       <c r="S36" s="93"/>
       <c r="V36" s="60"/>
@@ -8133,46 +8112,46 @@
         <v>224</v>
       </c>
       <c r="E37" s="80" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F37" s="80" t="s">
         <v>189</v>
       </c>
       <c r="G37" s="100" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="H37" s="80" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I37" s="80" t="s">
         <v>193</v>
       </c>
       <c r="J37" s="80" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="K37" s="80" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="L37" s="80" t="s">
         <v>197</v>
       </c>
       <c r="M37" s="80" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="N37" s="80" t="s">
         <v>186</v>
       </c>
       <c r="O37" s="80" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="P37" s="80" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="Q37" s="80" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="R37" s="80" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="S37" s="94"/>
       <c r="V37" s="60"/>
@@ -8180,45 +8159,45 @@
     <row r="38" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="58"/>
       <c r="D38" s="85" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E38" s="85" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F38" s="85" t="s">
-        <v>1042</v>
+        <v>963</v>
       </c>
       <c r="G38" s="85" t="s">
-        <v>1014</v>
+        <v>1031</v>
       </c>
       <c r="H38" s="85" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="I38" s="85"/>
       <c r="J38" s="85" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="K38" s="85" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="L38" s="85" t="s">
         <v>253</v>
       </c>
       <c r="M38" s="85" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="N38" s="85"/>
       <c r="O38" s="85" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="P38" s="85" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="Q38" s="85" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="R38" s="85" t="s">
-        <v>878</v>
+        <v>845</v>
       </c>
       <c r="S38" s="96"/>
       <c r="V38" s="60"/>
@@ -8247,39 +8226,39 @@
       <c r="B40" s="56"/>
       <c r="D40" s="84"/>
       <c r="E40" s="84" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F40" s="84" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G40" s="84" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="H40" s="84" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I40" s="84" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="J40" s="84"/>
       <c r="K40" s="84" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="L40" s="84" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
       <c r="M40" s="84" t="s">
-        <v>1045</v>
+        <v>966</v>
       </c>
       <c r="N40" s="84"/>
       <c r="O40" s="84" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="P40" s="84" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="Q40" s="84" t="s">
-        <v>713</v>
+        <v>694</v>
       </c>
       <c r="R40" s="84"/>
       <c r="S40" s="93"/>
@@ -8297,7 +8276,7 @@
         <v>224</v>
       </c>
       <c r="F41" s="80" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G41" s="80" t="s">
         <v>189</v>
@@ -8306,31 +8285,31 @@
         <v>188</v>
       </c>
       <c r="I41" s="80" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="J41" s="80" t="s">
         <v>193</v>
       </c>
       <c r="K41" s="80" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="L41" s="80" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="M41" s="80" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="N41" s="80" t="s">
         <v>211</v>
       </c>
       <c r="O41" s="80" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="P41" s="80" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="Q41" s="80" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="R41" s="80" t="s">
         <v>211</v>
@@ -8342,39 +8321,39 @@
       <c r="B42" s="58"/>
       <c r="D42" s="85"/>
       <c r="E42" s="85" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F42" s="85" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G42" s="85" t="s">
-        <v>1042</v>
+        <v>963</v>
       </c>
       <c r="H42" s="85" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I42" s="85" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="J42" s="85"/>
       <c r="K42" s="85" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="L42" s="85" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="M42" s="85" t="s">
-        <v>1046</v>
+        <v>967</v>
       </c>
       <c r="N42" s="85"/>
       <c r="O42" s="85" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="P42" s="85" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="Q42" s="85" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="R42" s="85"/>
       <c r="S42" s="96"/>
@@ -8403,42 +8382,42 @@
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="56"/>
       <c r="D44" s="84" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="E44" s="84" t="s">
-        <v>691</v>
+        <v>1028</v>
       </c>
       <c r="F44" s="84" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G44" s="84"/>
       <c r="H44" s="84" t="s">
-        <v>715</v>
+        <v>1010</v>
       </c>
       <c r="I44" s="84" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="J44" s="84" t="s">
         <v>243</v>
       </c>
       <c r="K44" s="84" t="s">
-        <v>325</v>
+        <v>1032</v>
       </c>
       <c r="L44" s="84"/>
       <c r="M44" s="84" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N44" s="84" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O44" s="84" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="P44" s="84" t="s">
-        <v>717</v>
+        <v>1034</v>
       </c>
       <c r="Q44" s="84" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="R44" s="84"/>
       <c r="S44" s="93"/>
@@ -8450,22 +8429,22 @@
         <v>11</v>
       </c>
       <c r="D45" s="80" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E45" s="80" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F45" s="80" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G45" s="80" t="s">
         <v>186</v>
       </c>
       <c r="H45" s="80" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="I45" s="80" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="J45" s="80" t="s">
         <v>197</v>
@@ -8480,16 +8459,16 @@
         <v>224</v>
       </c>
       <c r="N45" s="80" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="O45" s="80" t="s">
         <v>189</v>
       </c>
       <c r="P45" s="80" t="s">
-        <v>1051</v>
+        <v>972</v>
       </c>
       <c r="Q45" s="80" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="R45" s="80" t="s">
         <v>198</v>
@@ -8500,42 +8479,42 @@
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
       <c r="D46" s="85" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>692</v>
+        <v>1029</v>
       </c>
       <c r="F46" s="85" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G46" s="85"/>
       <c r="H46" s="85" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="I46" s="85" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="J46" s="85" t="s">
         <v>253</v>
       </c>
       <c r="K46" s="85" t="s">
-        <v>326</v>
+        <v>1033</v>
       </c>
       <c r="L46" s="85"/>
       <c r="M46" s="85" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N46" s="85" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O46" s="85" t="s">
-        <v>1042</v>
+        <v>963</v>
       </c>
       <c r="P46" s="85" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="Q46" s="85" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="R46" s="85"/>
       <c r="S46" s="96"/>
@@ -8564,45 +8543,45 @@
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="56"/>
       <c r="D48" s="84" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="E48" s="84" t="s">
-        <v>869</v>
+        <v>1035</v>
       </c>
       <c r="F48" s="84" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G48" s="84" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="H48" s="84"/>
       <c r="I48" s="84" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="J48" s="84" t="s">
         <v>250</v>
       </c>
       <c r="K48" s="84" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L48" s="84" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M48" s="84" t="s">
-        <v>1068</v>
+        <v>985</v>
       </c>
       <c r="N48" s="84" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="O48" s="84" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="P48" s="84"/>
       <c r="Q48" s="84" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="R48" s="84" t="s">
-        <v>272</v>
+        <v>1006</v>
       </c>
       <c r="S48" s="93"/>
       <c r="V48" s="60"/>
@@ -8613,7 +8592,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="80" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E49" s="80" t="s">
         <v>231</v>
@@ -8622,13 +8601,13 @@
         <v>194</v>
       </c>
       <c r="G49" s="80" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H49" s="80" t="s">
         <v>186</v>
       </c>
       <c r="I49" s="80" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="J49" s="80" t="s">
         <v>191</v>
@@ -8637,25 +8616,25 @@
         <v>242</v>
       </c>
       <c r="L49" s="80" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="M49" s="98" t="s">
-        <v>1052</v>
+        <v>973</v>
       </c>
       <c r="N49" s="80" t="s">
         <v>189</v>
       </c>
       <c r="O49" s="80" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="P49" s="80" t="s">
         <v>198</v>
       </c>
       <c r="Q49" s="80" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="R49" s="80" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="S49" s="94"/>
       <c r="V49" s="60"/>
@@ -8663,45 +8642,45 @@
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
       <c r="D50" s="85" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>870</v>
+        <v>695</v>
       </c>
       <c r="F50" s="85" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G50" s="85" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="H50" s="85"/>
       <c r="I50" s="85" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="J50" s="85" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K50" s="85" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L50" s="85" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M50" s="85" t="s">
-        <v>1069</v>
+        <v>986</v>
       </c>
       <c r="N50" s="85" t="s">
-        <v>1042</v>
+        <v>963</v>
       </c>
       <c r="O50" s="85" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="P50" s="85"/>
       <c r="Q50" s="85" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="R50" s="85" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="S50" s="96"/>
       <c r="V50" s="60"/>
@@ -8729,42 +8708,42 @@
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
       <c r="D52" s="84" t="s">
-        <v>1015</v>
+        <v>1036</v>
       </c>
       <c r="E52" s="84" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="F52" s="84" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="G52" s="84"/>
       <c r="H52" s="84" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="I52" s="84" t="s">
-        <v>1055</v>
+        <v>976</v>
       </c>
       <c r="J52" s="84" t="s">
         <v>256</v>
       </c>
       <c r="K52" s="84" t="s">
-        <v>995</v>
+        <v>953</v>
       </c>
       <c r="L52" s="84"/>
       <c r="M52" s="84" t="s">
-        <v>727</v>
+        <v>1038</v>
       </c>
       <c r="N52" s="84" t="s">
-        <v>1070</v>
+        <v>250</v>
       </c>
       <c r="O52" s="84" t="s">
-        <v>729</v>
+        <v>707</v>
       </c>
       <c r="P52" s="84" t="s">
-        <v>731</v>
+        <v>709</v>
       </c>
       <c r="Q52" s="84" t="s">
-        <v>1015</v>
+        <v>1036</v>
       </c>
       <c r="R52" s="84"/>
       <c r="S52" s="93"/>
@@ -8776,22 +8755,22 @@
         <v>13</v>
       </c>
       <c r="D53" s="80" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E53" s="80" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F53" s="80" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G53" s="80" t="s">
         <v>186</v>
       </c>
       <c r="H53" s="80" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="I53" s="98" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="J53" s="80" t="s">
         <v>199</v>
@@ -8803,19 +8782,19 @@
         <v>186</v>
       </c>
       <c r="M53" s="80" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="N53" s="80" t="s">
-        <v>1053</v>
+        <v>974</v>
       </c>
       <c r="O53" s="80" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="P53" s="80" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="Q53" s="80" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="R53" s="80" t="s">
         <v>186</v>
@@ -8826,42 +8805,42 @@
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="85" t="s">
-        <v>1016</v>
+        <v>1037</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="F54" s="85" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
       <c r="G54" s="85"/>
       <c r="H54" s="85" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I54" s="85" t="s">
-        <v>1056</v>
+        <v>977</v>
       </c>
       <c r="J54" s="85" t="s">
         <v>257</v>
       </c>
       <c r="K54" s="85" t="s">
-        <v>996</v>
+        <v>954</v>
       </c>
       <c r="L54" s="85"/>
       <c r="M54" s="85" t="s">
-        <v>728</v>
+        <v>706</v>
       </c>
       <c r="N54" s="85" t="s">
-        <v>1071</v>
+        <v>320</v>
       </c>
       <c r="O54" s="85" t="s">
-        <v>730</v>
+        <v>708</v>
       </c>
       <c r="P54" s="85" t="s">
-        <v>732</v>
+        <v>710</v>
       </c>
       <c r="Q54" s="85" t="s">
-        <v>1016</v>
+        <v>1037</v>
       </c>
       <c r="R54" s="85"/>
       <c r="S54" s="96"/>
@@ -8890,45 +8869,45 @@
     <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="56"/>
       <c r="D56" s="84" t="s">
-        <v>1017</v>
+        <v>1039</v>
       </c>
       <c r="E56" s="84" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F56" s="84" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G56" s="84" t="s">
-        <v>733</v>
+        <v>1041</v>
       </c>
       <c r="H56" s="84"/>
       <c r="I56" s="84" t="s">
-        <v>869</v>
+        <v>1035</v>
       </c>
       <c r="J56" s="84" t="s">
-        <v>1019</v>
+        <v>1042</v>
       </c>
       <c r="K56" s="84" t="s">
-        <v>1021</v>
+        <v>1044</v>
       </c>
       <c r="L56" s="84" t="s">
-        <v>733</v>
+        <v>1041</v>
       </c>
       <c r="M56" s="84" t="s">
-        <v>735</v>
+        <v>712</v>
       </c>
       <c r="N56" s="84" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O56" s="84" t="s">
-        <v>1023</v>
+        <v>1045</v>
       </c>
       <c r="P56" s="84"/>
       <c r="Q56" s="84" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R56" s="84" t="s">
-        <v>737</v>
+        <v>1047</v>
       </c>
       <c r="S56" s="93"/>
       <c r="V56" s="60"/>
@@ -8939,16 +8918,16 @@
         <v>14</v>
       </c>
       <c r="D57" s="80" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E57" s="80" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F57" s="80" t="s">
         <v>196</v>
       </c>
       <c r="G57" s="81" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H57" s="80" t="s">
         <v>186</v>
@@ -8957,22 +8936,22 @@
         <v>231</v>
       </c>
       <c r="J57" s="80" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K57" s="80" t="s">
         <v>204</v>
       </c>
       <c r="L57" s="80" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="M57" s="80" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="N57" s="80" t="s">
         <v>207</v>
       </c>
       <c r="O57" s="80" t="s">
-        <v>1054</v>
+        <v>975</v>
       </c>
       <c r="P57" s="80" t="s">
         <v>198</v>
@@ -8981,7 +8960,7 @@
         <v>207</v>
       </c>
       <c r="R57" s="80" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="S57" s="94"/>
       <c r="V57" s="60"/>
@@ -8989,45 +8968,45 @@
     <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="58"/>
       <c r="D58" s="85" t="s">
-        <v>1018</v>
+        <v>1040</v>
       </c>
       <c r="E58" s="85" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="F58" s="85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G58" s="85" t="s">
-        <v>734</v>
+        <v>711</v>
       </c>
       <c r="H58" s="85"/>
       <c r="I58" s="85" t="s">
-        <v>870</v>
+        <v>695</v>
       </c>
       <c r="J58" s="85" t="s">
-        <v>1020</v>
+        <v>1043</v>
       </c>
       <c r="K58" s="85" t="s">
-        <v>1022</v>
+        <v>628</v>
       </c>
       <c r="L58" s="85" t="s">
-        <v>734</v>
+        <v>711</v>
       </c>
       <c r="M58" s="85" t="s">
-        <v>736</v>
+        <v>713</v>
       </c>
       <c r="N58" s="85" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O58" s="85" t="s">
-        <v>1024</v>
+        <v>1046</v>
       </c>
       <c r="P58" s="85"/>
       <c r="Q58" s="85" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R58" s="85" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
       <c r="S58" s="96"/>
       <c r="V58" s="60"/>
@@ -9055,43 +9034,43 @@
     <row r="60" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="56"/>
       <c r="D60" s="84" t="s">
-        <v>739</v>
+        <v>1048</v>
       </c>
       <c r="E60" s="84" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F60" s="84" t="s">
-        <v>1072</v>
+        <v>301</v>
       </c>
       <c r="G60" s="84" t="s">
-        <v>733</v>
+        <v>1041</v>
       </c>
       <c r="H60" s="84" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I60" s="84" t="s">
-        <v>741</v>
+        <v>716</v>
       </c>
       <c r="J60" s="84"/>
       <c r="K60" s="84" t="s">
-        <v>743</v>
+        <v>718</v>
       </c>
       <c r="L60" s="84" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M60" s="84" t="s">
-        <v>745</v>
+        <v>1049</v>
       </c>
       <c r="N60" s="84"/>
       <c r="O60" s="84"/>
       <c r="P60" s="84" t="s">
-        <v>747</v>
+        <v>721</v>
       </c>
       <c r="Q60" s="84" t="s">
-        <v>1025</v>
+        <v>1050</v>
       </c>
       <c r="R60" s="84" t="s">
-        <v>733</v>
+        <v>1041</v>
       </c>
       <c r="S60" s="93"/>
       <c r="V60" s="60"/>
@@ -9102,34 +9081,34 @@
         <v>15</v>
       </c>
       <c r="D61" s="80" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E61" s="80" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="F61" s="80" t="s">
         <v>218</v>
       </c>
       <c r="G61" s="101" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="H61" s="80" t="s">
         <v>232</v>
       </c>
       <c r="I61" s="80" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="J61" s="80" t="s">
         <v>233</v>
       </c>
       <c r="K61" s="80" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L61" s="80" t="s">
         <v>225</v>
       </c>
       <c r="M61" s="80" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="N61" s="80" t="s">
         <v>221</v>
@@ -9138,13 +9117,13 @@
         <v>222</v>
       </c>
       <c r="P61" s="80" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="Q61" s="80" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="R61" s="98" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="S61" s="94"/>
       <c r="V61" s="60"/>
@@ -9152,43 +9131,43 @@
     <row r="62" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="58"/>
       <c r="D62" s="85" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
       <c r="E62" s="85" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F62" s="85" t="s">
-        <v>1073</v>
+        <v>302</v>
       </c>
       <c r="G62" s="85" t="s">
-        <v>734</v>
+        <v>711</v>
       </c>
       <c r="H62" s="85" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I62" s="85" t="s">
-        <v>742</v>
+        <v>717</v>
       </c>
       <c r="J62" s="85"/>
       <c r="K62" s="85" t="s">
-        <v>744</v>
+        <v>719</v>
       </c>
       <c r="L62" s="85" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M62" s="85" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="N62" s="85"/>
       <c r="O62" s="85"/>
       <c r="P62" s="85" t="s">
-        <v>748</v>
+        <v>722</v>
       </c>
       <c r="Q62" s="85" t="s">
-        <v>1026</v>
+        <v>321</v>
       </c>
       <c r="R62" s="85" t="s">
-        <v>734</v>
+        <v>711</v>
       </c>
       <c r="S62" s="96"/>
       <c r="V62" s="60"/>
@@ -9216,43 +9195,43 @@
     <row r="64" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="56"/>
       <c r="D64" s="84" t="s">
-        <v>747</v>
+        <v>721</v>
       </c>
       <c r="E64" s="84" t="s">
-        <v>687</v>
+        <v>1051</v>
       </c>
       <c r="F64" s="84" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G64" s="84" t="s">
         <v>250</v>
       </c>
       <c r="H64" s="84" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="I64" s="84"/>
       <c r="J64" s="84"/>
       <c r="K64" s="84" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="L64" s="84" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="M64" s="84" t="s">
-        <v>1021</v>
+        <v>1044</v>
       </c>
       <c r="N64" s="84" t="s">
-        <v>749</v>
+        <v>1053</v>
       </c>
       <c r="O64" s="84"/>
       <c r="P64" s="84" t="s">
-        <v>747</v>
+        <v>721</v>
       </c>
       <c r="Q64" s="84" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="R64" s="84" t="s">
-        <v>1021</v>
+        <v>1044</v>
       </c>
       <c r="S64" s="93"/>
       <c r="V64" s="60"/>
@@ -9263,10 +9242,10 @@
         <v>16</v>
       </c>
       <c r="D65" s="80" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E65" s="80" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F65" s="80" t="s">
         <v>207</v>
@@ -9275,7 +9254,7 @@
         <v>191</v>
       </c>
       <c r="H65" s="80" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I65" s="80" t="s">
         <v>198</v>
@@ -9284,25 +9263,25 @@
         <v>230</v>
       </c>
       <c r="K65" s="100" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="L65" s="80" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="M65" s="80" t="s">
         <v>204</v>
       </c>
       <c r="N65" s="80" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="O65" s="80" t="s">
         <v>186</v>
       </c>
       <c r="P65" s="80" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="Q65" s="80" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="R65" s="80" t="s">
         <v>204</v>
@@ -9313,43 +9292,43 @@
     <row r="66" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="58"/>
       <c r="D66" s="85" t="s">
-        <v>748</v>
+        <v>722</v>
       </c>
       <c r="E66" s="85" t="s">
-        <v>688</v>
+        <v>1052</v>
       </c>
       <c r="F66" s="85" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G66" s="85" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H66" s="85" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="I66" s="85"/>
       <c r="J66" s="85"/>
       <c r="K66" s="85" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="L66" s="85" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="M66" s="85" t="s">
-        <v>1022</v>
+        <v>628</v>
       </c>
       <c r="N66" s="85" t="s">
-        <v>750</v>
+        <v>1054</v>
       </c>
       <c r="O66" s="85"/>
       <c r="P66" s="85" t="s">
-        <v>748</v>
+        <v>722</v>
       </c>
       <c r="Q66" s="85" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="R66" s="85" t="s">
-        <v>1022</v>
+        <v>628</v>
       </c>
       <c r="S66" s="96"/>
       <c r="V66" s="60"/>
@@ -9377,43 +9356,43 @@
     <row r="68" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="56"/>
       <c r="D68" s="84" t="s">
-        <v>258</v>
+        <v>1009</v>
       </c>
       <c r="E68" s="84"/>
       <c r="F68" s="84" t="s">
-        <v>1015</v>
+        <v>1036</v>
       </c>
       <c r="G68" s="84" t="s">
-        <v>258</v>
+        <v>1009</v>
       </c>
       <c r="H68" s="84" t="s">
-        <v>751</v>
+        <v>723</v>
       </c>
       <c r="I68" s="84" t="s">
-        <v>749</v>
+        <v>1053</v>
       </c>
       <c r="J68" s="84"/>
       <c r="K68" s="84" t="s">
-        <v>747</v>
+        <v>721</v>
       </c>
       <c r="L68" s="84" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M68" s="84" t="s">
-        <v>753</v>
+        <v>725</v>
       </c>
       <c r="N68" s="84" t="s">
-        <v>319</v>
+        <v>1055</v>
       </c>
       <c r="O68" s="84"/>
       <c r="P68" s="84" t="s">
-        <v>755</v>
+        <v>727</v>
       </c>
       <c r="Q68" s="84" t="s">
-        <v>687</v>
+        <v>1051</v>
       </c>
       <c r="R68" s="84" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S68" s="93"/>
       <c r="V68" s="60"/>
@@ -9430,28 +9409,28 @@
         <v>186</v>
       </c>
       <c r="F69" s="80" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G69" s="81" t="s">
         <v>202</v>
       </c>
       <c r="H69" s="80" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="I69" s="80" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="J69" s="80" t="s">
         <v>186</v>
       </c>
       <c r="K69" s="80" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="L69" s="80" t="s">
         <v>232</v>
       </c>
       <c r="M69" s="80" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="N69" s="80" t="s">
         <v>228</v>
@@ -9460,10 +9439,10 @@
         <v>235</v>
       </c>
       <c r="P69" s="80" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="Q69" s="80" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="R69" s="80" t="s">
         <v>207</v>
@@ -9474,43 +9453,43 @@
     <row r="70" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="58"/>
       <c r="D70" s="85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E70" s="85"/>
       <c r="F70" s="85" t="s">
-        <v>1016</v>
+        <v>1037</v>
       </c>
       <c r="G70" s="85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H70" s="85" t="s">
-        <v>752</v>
+        <v>724</v>
       </c>
       <c r="I70" s="85" t="s">
-        <v>750</v>
+        <v>1054</v>
       </c>
       <c r="J70" s="85"/>
       <c r="K70" s="85" t="s">
-        <v>748</v>
+        <v>722</v>
       </c>
       <c r="L70" s="85" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M70" s="85" t="s">
-        <v>754</v>
+        <v>726</v>
       </c>
       <c r="N70" s="85" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="O70" s="85"/>
       <c r="P70" s="85" t="s">
-        <v>756</v>
+        <v>728</v>
       </c>
       <c r="Q70" s="85" t="s">
-        <v>688</v>
+        <v>1052</v>
       </c>
       <c r="R70" s="85" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S70" s="96"/>
       <c r="V70" s="60"/>
@@ -9538,45 +9517,45 @@
     <row r="72" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="56"/>
       <c r="D72" s="84" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E72" s="84"/>
       <c r="F72" s="84" t="s">
-        <v>1027</v>
+        <v>1056</v>
       </c>
       <c r="G72" s="84" t="s">
-        <v>757</v>
+        <v>729</v>
       </c>
       <c r="H72" s="84" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I72" s="84" t="s">
         <v>250</v>
       </c>
       <c r="J72" s="84" t="s">
-        <v>1057</v>
+        <v>978</v>
       </c>
       <c r="K72" s="84" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="L72" s="84" t="s">
-        <v>1029</v>
+        <v>1058</v>
       </c>
       <c r="M72" s="84"/>
       <c r="N72" s="84" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O72" s="84" t="s">
-        <v>1057</v>
+        <v>978</v>
       </c>
       <c r="P72" s="84" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="Q72" s="84" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="R72" s="84" t="s">
-        <v>258</v>
+        <v>1009</v>
       </c>
       <c r="S72" s="93"/>
       <c r="V72" s="60"/>
@@ -9596,7 +9575,7 @@
         <v>217</v>
       </c>
       <c r="G73" s="80" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="H73" s="80" t="s">
         <v>209</v>
@@ -9605,10 +9584,10 @@
         <v>191</v>
       </c>
       <c r="J73" s="98" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="K73" s="80" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="L73" s="80" t="s">
         <v>238</v>
@@ -9620,13 +9599,13 @@
         <v>213</v>
       </c>
       <c r="O73" s="98" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="P73" s="80" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="Q73" s="80" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="R73" s="80" t="s">
         <v>202</v>
@@ -9637,45 +9616,45 @@
     <row r="74" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="58"/>
       <c r="D74" s="85" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E74" s="85"/>
       <c r="F74" s="85" t="s">
-        <v>1028</v>
+        <v>1057</v>
       </c>
       <c r="G74" s="85" t="s">
-        <v>758</v>
+        <v>730</v>
       </c>
       <c r="H74" s="85" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I74" s="85" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="J74" s="85" t="s">
-        <v>1058</v>
+        <v>979</v>
       </c>
       <c r="K74" s="85" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="L74" s="85" t="s">
-        <v>1030</v>
+        <v>1059</v>
       </c>
       <c r="M74" s="85"/>
       <c r="N74" s="85" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O74" s="85" t="s">
-        <v>1058</v>
+        <v>979</v>
       </c>
       <c r="P74" s="85" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="Q74" s="85" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="R74" s="85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S74" s="96"/>
       <c r="V74" s="60"/>
@@ -9703,7 +9682,7 @@
     <row r="76" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="56"/>
       <c r="D76" s="84" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E76" s="84"/>
       <c r="F76" s="84"/>
@@ -9728,7 +9707,7 @@
         <v>19</v>
       </c>
       <c r="D77" s="80" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E77" s="80" t="s">
         <v>198</v>
@@ -9752,7 +9731,7 @@
     <row r="78" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="58"/>
       <c r="D78" s="85" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E78" s="85"/>
       <c r="F78" s="85"/>
@@ -9877,45 +9856,45 @@
     <row r="84" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="56"/>
       <c r="D84" s="84" t="s">
-        <v>757</v>
+        <v>729</v>
       </c>
       <c r="E84" s="84" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F84" s="84" t="s">
-        <v>1021</v>
+        <v>1044</v>
       </c>
       <c r="G84" s="84" t="s">
-        <v>1057</v>
+        <v>978</v>
       </c>
       <c r="H84" s="84" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="I84" s="84"/>
       <c r="J84" s="84" t="s">
         <v>243</v>
       </c>
       <c r="K84" s="84" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L84" s="84" t="s">
-        <v>761</v>
+        <v>733</v>
       </c>
       <c r="M84" s="84" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N84" s="84" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O84" s="84"/>
       <c r="P84" s="84" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="Q84" s="84" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R84" s="84" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="S84" s="93"/>
       <c r="V84" s="60"/>
@@ -9926,7 +9905,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="80" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E85" s="80" t="s">
         <v>209</v>
@@ -9935,10 +9914,10 @@
         <v>204</v>
       </c>
       <c r="G85" s="101" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="H85" s="80" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I85" s="80" t="s">
         <v>186</v>
@@ -9950,22 +9929,22 @@
         <v>207</v>
       </c>
       <c r="L85" s="80" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="M85" s="80" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="N85" s="80" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="O85" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P85" s="80" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="Q85" s="80" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="R85" s="80" t="s">
         <v>189</v>
@@ -9976,45 +9955,45 @@
     <row r="86" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="58"/>
       <c r="D86" s="85" t="s">
-        <v>758</v>
+        <v>730</v>
       </c>
       <c r="E86" s="85" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F86" s="85" t="s">
-        <v>1022</v>
+        <v>628</v>
       </c>
       <c r="G86" s="85" t="s">
-        <v>1058</v>
+        <v>979</v>
       </c>
       <c r="H86" s="85" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="I86" s="85"/>
       <c r="J86" s="85" t="s">
         <v>253</v>
       </c>
       <c r="K86" s="85" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L86" s="85" t="s">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="M86" s="85" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N86" s="85" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O86" s="85"/>
       <c r="P86" s="85" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="Q86" s="85" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="R86" s="85" t="s">
-        <v>1042</v>
+        <v>963</v>
       </c>
       <c r="S86" s="96"/>
       <c r="V86" s="60"/>
@@ -10042,26 +10021,26 @@
     <row r="88" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="56"/>
       <c r="D88" s="84" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E88" s="84" t="s">
-        <v>763</v>
+        <v>735</v>
       </c>
       <c r="F88" s="84"/>
       <c r="G88" s="84" t="s">
-        <v>1031</v>
+        <v>1060</v>
       </c>
       <c r="H88" s="84" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I88" s="84" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="J88" s="84" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K88" s="84" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="L88" s="84"/>
       <c r="M88" s="84"/>
@@ -10079,19 +10058,19 @@
         <v>22</v>
       </c>
       <c r="D89" s="80" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E89" s="80" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F89" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G89" s="80" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="H89" s="80" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="I89" s="80" t="s">
         <v>189</v>
@@ -10100,7 +10079,7 @@
         <v>236</v>
       </c>
       <c r="K89" s="80" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="L89" s="80" t="s">
         <v>198</v>
@@ -10117,26 +10096,26 @@
     <row r="90" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="58"/>
       <c r="D90" s="85" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E90" s="85" t="s">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="F90" s="85"/>
       <c r="G90" s="85" t="s">
-        <v>1032</v>
+        <v>1061</v>
       </c>
       <c r="H90" s="85" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I90" s="85" t="s">
-        <v>1042</v>
+        <v>963</v>
       </c>
       <c r="J90" s="85" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K90" s="85" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="L90" s="85"/>
       <c r="M90" s="85"/>
@@ -10171,35 +10150,35 @@
     <row r="92" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="56"/>
       <c r="D92" s="84" t="s">
-        <v>272</v>
+        <v>1006</v>
       </c>
       <c r="E92" s="84" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F92" s="84" t="s">
-        <v>745</v>
+        <v>1049</v>
       </c>
       <c r="G92" s="84" t="s">
-        <v>687</v>
+        <v>1051</v>
       </c>
       <c r="H92" s="84" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I92" s="84"/>
       <c r="J92" s="84" t="s">
-        <v>1074</v>
+        <v>987</v>
       </c>
       <c r="K92" s="84" t="s">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="L92" s="84" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="M92" s="84" t="s">
-        <v>689</v>
+        <v>1026</v>
       </c>
       <c r="N92" s="84" t="s">
-        <v>767</v>
+        <v>739</v>
       </c>
       <c r="O92" s="84"/>
       <c r="P92" s="84" t="s">
@@ -10209,7 +10188,7 @@
         <v>248</v>
       </c>
       <c r="R92" s="84" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="S92" s="93"/>
       <c r="V92" s="60"/>
@@ -10220,16 +10199,16 @@
         <v>23</v>
       </c>
       <c r="D93" s="80" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E93" s="80" t="s">
         <v>188</v>
       </c>
       <c r="F93" s="80" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="G93" s="80" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H93" s="80" t="s">
         <v>207</v>
@@ -10238,31 +10217,31 @@
         <v>186</v>
       </c>
       <c r="J93" s="98" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K93" s="80" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="L93" s="80" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="M93" s="80" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="N93" s="80" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="O93" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P93" s="80" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="Q93" s="80" t="s">
         <v>190</v>
       </c>
       <c r="R93" s="80" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="S93" s="94"/>
       <c r="V93" s="60"/>
@@ -10270,35 +10249,35 @@
     <row r="94" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="58"/>
       <c r="D94" s="85" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E94" s="85" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F94" s="85" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="G94" s="85" t="s">
-        <v>688</v>
+        <v>1052</v>
       </c>
       <c r="H94" s="85" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I94" s="85"/>
       <c r="J94" s="85" t="s">
-        <v>1075</v>
+        <v>988</v>
       </c>
       <c r="K94" s="85" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
       <c r="L94" s="85" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="M94" s="85" t="s">
-        <v>690</v>
+        <v>1027</v>
       </c>
       <c r="N94" s="85" t="s">
-        <v>768</v>
+        <v>740</v>
       </c>
       <c r="O94" s="85"/>
       <c r="P94" s="85" t="s">
@@ -10308,7 +10287,7 @@
         <v>249</v>
       </c>
       <c r="R94" s="85" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="S94" s="96"/>
       <c r="V94" s="60"/>
@@ -10336,26 +10315,26 @@
     <row r="96" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="56"/>
       <c r="D96" s="84" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
       <c r="E96" s="84" t="s">
-        <v>769</v>
+        <v>1062</v>
       </c>
       <c r="F96" s="84"/>
       <c r="G96" s="84" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H96" s="84" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I96" s="84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J96" s="84" t="s">
-        <v>771</v>
+        <v>742</v>
       </c>
       <c r="K96" s="84" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L96" s="84"/>
       <c r="M96" s="84"/>
@@ -10373,28 +10352,28 @@
         <v>24</v>
       </c>
       <c r="D97" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E97" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F97" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G97" s="81" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="H97" s="80" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="I97" s="80" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="J97" s="80" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="K97" s="80" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="L97" s="80" t="s">
         <v>198</v>
@@ -10411,26 +10390,26 @@
     <row r="98" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="58"/>
       <c r="D98" s="85" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="E98" s="85" t="s">
-        <v>770</v>
+        <v>741</v>
       </c>
       <c r="F98" s="85"/>
       <c r="G98" s="85" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H98" s="85" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I98" s="85" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J98" s="85" t="s">
-        <v>772</v>
+        <v>743</v>
       </c>
       <c r="K98" s="85" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L98" s="85"/>
       <c r="M98" s="85"/>
@@ -10465,42 +10444,42 @@
     <row r="100" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="56"/>
       <c r="D100" s="84" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E100" s="84" t="s">
         <v>254</v>
       </c>
       <c r="F100" s="84" t="s">
-        <v>773</v>
+        <v>744</v>
       </c>
       <c r="G100" s="84" t="s">
-        <v>1027</v>
+        <v>1056</v>
       </c>
       <c r="H100" s="84" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I100" s="84"/>
       <c r="J100" s="84" t="s">
-        <v>258</v>
+        <v>1009</v>
       </c>
       <c r="K100" s="84" t="s">
-        <v>258</v>
+        <v>1009</v>
       </c>
       <c r="L100" s="84" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M100" s="84" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="N100" s="84" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
       <c r="O100" s="84"/>
       <c r="P100" s="84" t="s">
-        <v>1076</v>
+        <v>989</v>
       </c>
       <c r="Q100" s="84" t="s">
-        <v>775</v>
+        <v>746</v>
       </c>
       <c r="R100" s="84" t="s">
         <v>246</v>
@@ -10517,16 +10496,16 @@
         <v>224</v>
       </c>
       <c r="E101" s="80" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F101" s="80" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G101" s="80" t="s">
         <v>217</v>
       </c>
       <c r="H101" s="80" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="I101" s="80" t="s">
         <v>186</v>
@@ -10541,19 +10520,19 @@
         <v>215</v>
       </c>
       <c r="M101" s="80" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="N101" s="80" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="O101" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P101" s="80" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="Q101" s="80" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="R101" s="80" t="s">
         <v>184</v>
@@ -10564,42 +10543,42 @@
     <row r="102" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="58"/>
       <c r="D102" s="85" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E102" s="85" t="s">
         <v>255</v>
       </c>
       <c r="F102" s="85" t="s">
-        <v>774</v>
+        <v>745</v>
       </c>
       <c r="G102" s="85" t="s">
-        <v>1028</v>
+        <v>1057</v>
       </c>
       <c r="H102" s="85" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I102" s="85"/>
       <c r="J102" s="85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K102" s="85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L102" s="85" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M102" s="85" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="N102" s="85" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="O102" s="85"/>
       <c r="P102" s="85" t="s">
-        <v>1077</v>
+        <v>990</v>
       </c>
       <c r="Q102" s="85" t="s">
-        <v>776</v>
+        <v>747</v>
       </c>
       <c r="R102" s="85" t="s">
         <v>247</v>
@@ -10630,26 +10609,26 @@
     <row r="104" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="56"/>
       <c r="D104" s="84" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="E104" s="84" t="s">
-        <v>777</v>
+        <v>748</v>
       </c>
       <c r="F104" s="84"/>
       <c r="G104" s="84" t="s">
-        <v>1076</v>
+        <v>989</v>
       </c>
       <c r="H104" s="84" t="s">
         <v>244</v>
       </c>
       <c r="I104" s="84" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="J104" s="84" t="s">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="K104" s="84" t="s">
-        <v>787</v>
+        <v>758</v>
       </c>
       <c r="L104" s="84"/>
       <c r="M104" s="84"/>
@@ -10667,28 +10646,28 @@
         <v>26</v>
       </c>
       <c r="D105" s="98" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E105" s="80" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F105" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G105" s="101" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H105" s="80" t="s">
         <v>183</v>
       </c>
       <c r="I105" s="80" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="J105" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="K105" s="80" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="L105" s="80" t="s">
         <v>198</v>
@@ -10705,26 +10684,26 @@
     <row r="106" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="58"/>
       <c r="D106" s="85" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="E106" s="85" t="s">
-        <v>778</v>
+        <v>749</v>
       </c>
       <c r="F106" s="85"/>
       <c r="G106" s="85" t="s">
-        <v>1077</v>
+        <v>990</v>
       </c>
       <c r="H106" s="85" t="s">
         <v>245</v>
       </c>
       <c r="I106" s="85" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="J106" s="85" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
       <c r="K106" s="85" t="s">
-        <v>788</v>
+        <v>759</v>
       </c>
       <c r="L106" s="85"/>
       <c r="M106" s="85"/>
@@ -10759,45 +10738,45 @@
     <row r="108" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="56"/>
       <c r="D108" s="84" t="s">
-        <v>1076</v>
+        <v>989</v>
       </c>
       <c r="E108" s="84" t="s">
-        <v>789</v>
+        <v>760</v>
       </c>
       <c r="F108" s="84" t="s">
-        <v>791</v>
+        <v>762</v>
       </c>
       <c r="G108" s="84" t="s">
-        <v>793</v>
+        <v>764</v>
       </c>
       <c r="H108" s="84" t="s">
-        <v>795</v>
+        <v>766</v>
       </c>
       <c r="I108" s="84"/>
       <c r="J108" s="84" t="s">
-        <v>1076</v>
+        <v>989</v>
       </c>
       <c r="K108" s="84" t="s">
-        <v>797</v>
+        <v>768</v>
       </c>
       <c r="L108" s="84" t="s">
-        <v>799</v>
+        <v>770</v>
       </c>
       <c r="M108" s="84" t="s">
-        <v>1033</v>
+        <v>1065</v>
       </c>
       <c r="N108" s="84" t="s">
-        <v>773</v>
+        <v>744</v>
       </c>
       <c r="O108" s="84"/>
       <c r="P108" s="84" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="Q108" s="84" t="s">
-        <v>803</v>
+        <v>773</v>
       </c>
       <c r="R108" s="84" t="s">
-        <v>805</v>
+        <v>775</v>
       </c>
       <c r="S108" s="93"/>
       <c r="V108" s="60"/>
@@ -10808,37 +10787,37 @@
         <v>27</v>
       </c>
       <c r="D109" s="80" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E109" s="80" t="s">
         <v>223</v>
       </c>
       <c r="F109" s="80" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G109" s="80" t="s">
         <v>210</v>
       </c>
       <c r="H109" s="80" t="s">
-        <v>1060</v>
+        <v>981</v>
       </c>
       <c r="I109" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J109" s="80" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="K109" s="80" t="s">
         <v>234</v>
       </c>
       <c r="L109" s="80" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="M109" s="80" t="s">
         <v>187</v>
       </c>
       <c r="N109" s="80" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="O109" s="80" t="s">
         <v>198</v>
@@ -10847,10 +10826,10 @@
         <v>189</v>
       </c>
       <c r="Q109" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="R109" s="80" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="S109" s="94"/>
       <c r="V109" s="60"/>
@@ -10858,45 +10837,45 @@
     <row r="110" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="58"/>
       <c r="D110" s="85" t="s">
-        <v>1077</v>
+        <v>990</v>
       </c>
       <c r="E110" s="85" t="s">
-        <v>790</v>
+        <v>761</v>
       </c>
       <c r="F110" s="85" t="s">
-        <v>792</v>
+        <v>763</v>
       </c>
       <c r="G110" s="85" t="s">
-        <v>794</v>
+        <v>765</v>
       </c>
       <c r="H110" s="85" t="s">
-        <v>796</v>
+        <v>767</v>
       </c>
       <c r="I110" s="85"/>
       <c r="J110" s="85" t="s">
-        <v>1077</v>
+        <v>990</v>
       </c>
       <c r="K110" s="85" t="s">
-        <v>798</v>
+        <v>769</v>
       </c>
       <c r="L110" s="85" t="s">
-        <v>800</v>
+        <v>771</v>
       </c>
       <c r="M110" s="85" t="s">
-        <v>1034</v>
+        <v>1066</v>
       </c>
       <c r="N110" s="85" t="s">
-        <v>774</v>
+        <v>745</v>
       </c>
       <c r="O110" s="85"/>
       <c r="P110" s="85" t="s">
-        <v>1042</v>
+        <v>963</v>
       </c>
       <c r="Q110" s="85" t="s">
-        <v>804</v>
+        <v>774</v>
       </c>
       <c r="R110" s="85" t="s">
-        <v>806</v>
+        <v>776</v>
       </c>
       <c r="S110" s="96"/>
       <c r="V110" s="60"/>
@@ -10924,26 +10903,26 @@
     <row r="112" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B112" s="56"/>
       <c r="D112" s="84" t="s">
-        <v>807</v>
+        <v>777</v>
       </c>
       <c r="E112" s="84" t="s">
-        <v>999</v>
+        <v>957</v>
       </c>
       <c r="F112" s="84"/>
       <c r="G112" s="84" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="H112" s="84" t="s">
-        <v>809</v>
+        <v>779</v>
       </c>
       <c r="I112" s="84" t="s">
-        <v>811</v>
+        <v>781</v>
       </c>
       <c r="J112" s="84" t="s">
-        <v>791</v>
+        <v>762</v>
       </c>
       <c r="K112" s="84" t="s">
-        <v>813</v>
+        <v>783</v>
       </c>
       <c r="L112" s="84"/>
       <c r="M112" s="84"/>
@@ -10961,10 +10940,10 @@
         <v>28</v>
       </c>
       <c r="D113" s="80" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="E113" s="80" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="F113" s="80" t="s">
         <v>186</v>
@@ -10973,16 +10952,16 @@
         <v>189</v>
       </c>
       <c r="H113" s="80" t="s">
-        <v>1059</v>
+        <v>980</v>
       </c>
       <c r="I113" s="80" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="J113" s="80" t="s">
         <v>185</v>
       </c>
       <c r="K113" s="80" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="L113" s="80" t="s">
         <v>198</v>
@@ -10999,26 +10978,26 @@
     <row r="114" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B114" s="58"/>
       <c r="D114" s="85" t="s">
-        <v>808</v>
+        <v>778</v>
       </c>
       <c r="E114" s="85" t="s">
-        <v>1000</v>
+        <v>958</v>
       </c>
       <c r="F114" s="85"/>
       <c r="G114" s="85" t="s">
-        <v>1042</v>
+        <v>963</v>
       </c>
       <c r="H114" s="85" t="s">
-        <v>810</v>
+        <v>780</v>
       </c>
       <c r="I114" s="85" t="s">
-        <v>812</v>
+        <v>782</v>
       </c>
       <c r="J114" s="85" t="s">
-        <v>792</v>
+        <v>763</v>
       </c>
       <c r="K114" s="85" t="s">
-        <v>814</v>
+        <v>784</v>
       </c>
       <c r="L114" s="85"/>
       <c r="M114" s="85"/>
@@ -11053,45 +11032,45 @@
     <row r="116" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="56"/>
       <c r="D116" s="84" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="E116" s="84" t="s">
-        <v>791</v>
+        <v>762</v>
       </c>
       <c r="F116" s="84" t="s">
-        <v>1078</v>
+        <v>991</v>
       </c>
       <c r="G116" s="84" t="s">
-        <v>815</v>
+        <v>1067</v>
       </c>
       <c r="H116" s="84" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="I116" s="84"/>
       <c r="J116" s="84" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="K116" s="84" t="s">
-        <v>817</v>
+        <v>786</v>
       </c>
       <c r="L116" s="84" t="s">
-        <v>819</v>
+        <v>788</v>
       </c>
       <c r="M116" s="84" t="s">
-        <v>821</v>
+        <v>790</v>
       </c>
       <c r="N116" s="84" t="s">
-        <v>1080</v>
+        <v>993</v>
       </c>
       <c r="O116" s="84"/>
       <c r="P116" s="84" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="Q116" s="84" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="R116" s="84" t="s">
-        <v>823</v>
+        <v>792</v>
       </c>
       <c r="S116" s="93"/>
       <c r="V116" s="60"/>
@@ -11105,16 +11084,16 @@
         <v>189</v>
       </c>
       <c r="E117" s="80" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F117" s="98" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G117" s="81" t="s">
         <v>240</v>
       </c>
       <c r="H117" s="80" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="I117" s="80" t="s">
         <v>186</v>
@@ -11123,28 +11102,28 @@
         <v>189</v>
       </c>
       <c r="K117" s="80" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="L117" s="80" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="M117" s="80" t="s">
         <v>203</v>
       </c>
       <c r="N117" s="98" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="O117" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P117" s="80" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="Q117" s="80" t="s">
         <v>189</v>
       </c>
       <c r="R117" s="80" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="S117" s="94"/>
       <c r="V117" s="60"/>
@@ -11152,45 +11131,45 @@
     <row r="118" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="58"/>
       <c r="D118" s="85" t="s">
-        <v>1042</v>
+        <v>963</v>
       </c>
       <c r="E118" s="85" t="s">
-        <v>792</v>
+        <v>763</v>
       </c>
       <c r="F118" s="85" t="s">
-        <v>1079</v>
+        <v>992</v>
       </c>
       <c r="G118" s="85" t="s">
-        <v>816</v>
+        <v>785</v>
       </c>
       <c r="H118" s="85" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="I118" s="85"/>
       <c r="J118" s="85" t="s">
-        <v>1042</v>
+        <v>963</v>
       </c>
       <c r="K118" s="85" t="s">
-        <v>818</v>
+        <v>787</v>
       </c>
       <c r="L118" s="85" t="s">
-        <v>820</v>
+        <v>789</v>
       </c>
       <c r="M118" s="85" t="s">
-        <v>822</v>
+        <v>791</v>
       </c>
       <c r="N118" s="85" t="s">
-        <v>1081</v>
+        <v>994</v>
       </c>
       <c r="O118" s="85"/>
       <c r="P118" s="85" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="Q118" s="85" t="s">
-        <v>1042</v>
+        <v>963</v>
       </c>
       <c r="R118" s="85" t="s">
-        <v>824</v>
+        <v>793</v>
       </c>
       <c r="S118" s="96"/>
       <c r="V118" s="60"/>
@@ -11218,26 +11197,26 @@
     <row r="120" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="56"/>
       <c r="D120" s="84" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="E120" s="84" t="s">
-        <v>825</v>
+        <v>794</v>
       </c>
       <c r="F120" s="84"/>
       <c r="G120" s="84" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
       <c r="H120" s="84" t="s">
-        <v>827</v>
+        <v>1068</v>
       </c>
       <c r="I120" s="84" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="J120" s="84" t="s">
-        <v>829</v>
+        <v>796</v>
       </c>
       <c r="K120" s="84" t="s">
-        <v>831</v>
+        <v>798</v>
       </c>
       <c r="L120" s="84"/>
       <c r="M120" s="84"/>
@@ -11255,28 +11234,28 @@
         <v>30</v>
       </c>
       <c r="D121" s="80" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E121" s="80" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="F121" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G121" s="81" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="H121" s="80" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="I121" s="80" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="J121" s="80" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="K121" s="80" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="L121" s="80" t="s">
         <v>198</v>
@@ -11293,26 +11272,26 @@
     <row r="122" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B122" s="58"/>
       <c r="D122" s="85" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="E122" s="85" t="s">
-        <v>826</v>
+        <v>795</v>
       </c>
       <c r="F122" s="85"/>
       <c r="G122" s="85" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="H122" s="85" t="s">
-        <v>828</v>
+        <v>1008</v>
       </c>
       <c r="I122" s="85" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="J122" s="85" t="s">
-        <v>830</v>
+        <v>797</v>
       </c>
       <c r="K122" s="85" t="s">
-        <v>832</v>
+        <v>799</v>
       </c>
       <c r="L122" s="85"/>
       <c r="M122" s="85"/>
@@ -11347,45 +11326,45 @@
     <row r="124" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="56"/>
       <c r="D124" s="84" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="E124" s="84" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="F124" s="84" t="s">
-        <v>325</v>
+        <v>1032</v>
       </c>
       <c r="G124" s="84" t="s">
-        <v>713</v>
+        <v>694</v>
       </c>
       <c r="H124" s="84" t="s">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="I124" s="84"/>
       <c r="J124" s="84" t="s">
-        <v>835</v>
+        <v>802</v>
       </c>
       <c r="K124" s="84" t="s">
-        <v>837</v>
+        <v>804</v>
       </c>
       <c r="L124" s="84" t="s">
-        <v>839</v>
+        <v>806</v>
       </c>
       <c r="M124" s="84" t="s">
-        <v>841</v>
+        <v>808</v>
       </c>
       <c r="N124" s="84" t="s">
-        <v>843</v>
+        <v>810</v>
       </c>
       <c r="O124" s="84"/>
       <c r="P124" s="84" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="Q124" s="84" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="R124" s="84" t="s">
-        <v>845</v>
+        <v>812</v>
       </c>
       <c r="S124" s="93"/>
       <c r="V124" s="60"/>
@@ -11396,7 +11375,7 @@
         <v>31</v>
       </c>
       <c r="D125" s="80" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E125" s="80" t="s">
         <v>189</v>
@@ -11405,40 +11384,40 @@
         <v>227</v>
       </c>
       <c r="G125" s="81" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="H125" s="80" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="I125" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J125" s="80" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="K125" s="80" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="L125" s="80" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="M125" s="80" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="N125" s="80" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="O125" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P125" s="80" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="Q125" s="80" t="s">
         <v>189</v>
       </c>
       <c r="R125" s="80" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="S125" s="94"/>
       <c r="V125" s="60"/>
@@ -11446,45 +11425,45 @@
     <row r="126" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="58"/>
       <c r="D126" s="85" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="E126" s="85" t="s">
-        <v>1042</v>
+        <v>963</v>
       </c>
       <c r="F126" s="85" t="s">
-        <v>326</v>
+        <v>1033</v>
       </c>
       <c r="G126" s="85" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="H126" s="85" t="s">
-        <v>834</v>
+        <v>801</v>
       </c>
       <c r="I126" s="85"/>
       <c r="J126" s="85" t="s">
-        <v>836</v>
+        <v>803</v>
       </c>
       <c r="K126" s="85" t="s">
-        <v>838</v>
+        <v>805</v>
       </c>
       <c r="L126" s="85" t="s">
-        <v>840</v>
+        <v>807</v>
       </c>
       <c r="M126" s="85" t="s">
-        <v>842</v>
+        <v>809</v>
       </c>
       <c r="N126" s="85" t="s">
-        <v>844</v>
+        <v>811</v>
       </c>
       <c r="O126" s="85"/>
       <c r="P126" s="85" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="Q126" s="85" t="s">
-        <v>1042</v>
+        <v>963</v>
       </c>
       <c r="R126" s="85" t="s">
-        <v>846</v>
+        <v>813</v>
       </c>
       <c r="S126" s="96"/>
       <c r="V126" s="60"/>
@@ -11512,26 +11491,26 @@
     <row r="128" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B128" s="56"/>
       <c r="D128" s="84" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="E128" s="84" t="s">
-        <v>849</v>
+        <v>816</v>
       </c>
       <c r="F128" s="84"/>
       <c r="G128" s="84" t="s">
-        <v>851</v>
+        <v>818</v>
       </c>
       <c r="H128" s="84" t="s">
-        <v>853</v>
+        <v>820</v>
       </c>
       <c r="I128" s="84" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="J128" s="84" t="s">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="K128" s="84" t="s">
-        <v>857</v>
+        <v>824</v>
       </c>
       <c r="L128" s="84"/>
       <c r="M128" s="84"/>
@@ -11549,28 +11528,28 @@
         <v>32</v>
       </c>
       <c r="D129" s="80" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E129" s="80" t="s">
-        <v>1061</v>
+        <v>982</v>
       </c>
       <c r="F129" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G129" s="80" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="H129" s="80" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="I129" s="80" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="J129" s="80" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K129" s="80" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="L129" s="80" t="s">
         <v>198</v>
@@ -11587,26 +11566,26 @@
     <row r="130" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B130" s="58"/>
       <c r="D130" s="85" t="s">
-        <v>848</v>
+        <v>815</v>
       </c>
       <c r="E130" s="85" t="s">
-        <v>850</v>
+        <v>817</v>
       </c>
       <c r="F130" s="85"/>
       <c r="G130" s="85" t="s">
-        <v>852</v>
+        <v>819</v>
       </c>
       <c r="H130" s="85" t="s">
-        <v>854</v>
+        <v>821</v>
       </c>
       <c r="I130" s="85" t="s">
-        <v>856</v>
+        <v>823</v>
       </c>
       <c r="J130" s="85" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
       <c r="K130" s="85" t="s">
-        <v>858</v>
+        <v>825</v>
       </c>
       <c r="L130" s="85"/>
       <c r="M130" s="85"/>
@@ -11641,45 +11620,45 @@
     <row r="132" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B132" s="56"/>
       <c r="D132" s="84" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="E132" s="84" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="F132" s="84" t="s">
-        <v>859</v>
+        <v>826</v>
       </c>
       <c r="G132" s="84" t="s">
-        <v>861</v>
+        <v>828</v>
       </c>
       <c r="H132" s="84" t="s">
-        <v>863</v>
+        <v>830</v>
       </c>
       <c r="I132" s="84"/>
       <c r="J132" s="84" t="s">
-        <v>865</v>
+        <v>832</v>
       </c>
       <c r="K132" s="84" t="s">
-        <v>303</v>
+        <v>1069</v>
       </c>
       <c r="L132" s="84" t="s">
-        <v>999</v>
+        <v>957</v>
       </c>
       <c r="M132" s="84" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="N132" s="84" t="s">
-        <v>843</v>
+        <v>810</v>
       </c>
       <c r="O132" s="84"/>
       <c r="P132" s="84" t="s">
-        <v>869</v>
+        <v>1035</v>
       </c>
       <c r="Q132" s="84" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="R132" s="84" t="s">
-        <v>1072</v>
+        <v>301</v>
       </c>
       <c r="S132" s="93"/>
       <c r="V132" s="60"/>
@@ -11690,37 +11669,37 @@
         <v>33</v>
       </c>
       <c r="D133" s="80" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E133" s="80" t="s">
         <v>189</v>
       </c>
       <c r="F133" s="80" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G133" s="81" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="H133" s="80" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="I133" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J133" s="80" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="K133" s="80" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L133" s="80" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="M133" s="80" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="N133" s="80" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="O133" s="80" t="s">
         <v>198</v>
@@ -11729,7 +11708,7 @@
         <v>231</v>
       </c>
       <c r="Q133" s="80" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="R133" s="80" t="s">
         <v>218</v>
@@ -11740,45 +11719,45 @@
     <row r="134" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B134" s="58"/>
       <c r="D134" s="85" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="E134" s="85" t="s">
-        <v>1042</v>
+        <v>963</v>
       </c>
       <c r="F134" s="85" t="s">
-        <v>860</v>
+        <v>827</v>
       </c>
       <c r="G134" s="85" t="s">
-        <v>862</v>
+        <v>829</v>
       </c>
       <c r="H134" s="85" t="s">
-        <v>864</v>
+        <v>831</v>
       </c>
       <c r="I134" s="85"/>
       <c r="J134" s="85" t="s">
-        <v>866</v>
+        <v>833</v>
       </c>
       <c r="K134" s="85" t="s">
-        <v>304</v>
+        <v>948</v>
       </c>
       <c r="L134" s="85" t="s">
-        <v>1000</v>
+        <v>958</v>
       </c>
       <c r="M134" s="85" t="s">
-        <v>868</v>
+        <v>835</v>
       </c>
       <c r="N134" s="85" t="s">
-        <v>844</v>
+        <v>811</v>
       </c>
       <c r="O134" s="85"/>
       <c r="P134" s="85" t="s">
-        <v>870</v>
+        <v>695</v>
       </c>
       <c r="Q134" s="85" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="R134" s="85" t="s">
-        <v>1073</v>
+        <v>302</v>
       </c>
       <c r="S134" s="96"/>
       <c r="V134" s="60"/>
@@ -11806,26 +11785,26 @@
     <row r="136" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B136" s="56"/>
       <c r="D136" s="84" t="s">
-        <v>871</v>
+        <v>838</v>
       </c>
       <c r="E136" s="84" t="s">
-        <v>873</v>
+        <v>840</v>
       </c>
       <c r="F136" s="84"/>
       <c r="G136" s="84" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
       <c r="H136" s="84" t="s">
-        <v>843</v>
+        <v>810</v>
       </c>
       <c r="I136" s="84" t="s">
-        <v>875</v>
+        <v>842</v>
       </c>
       <c r="J136" s="84" t="s">
-        <v>877</v>
+        <v>844</v>
       </c>
       <c r="K136" s="84" t="s">
-        <v>1047</v>
+        <v>968</v>
       </c>
       <c r="L136" s="84"/>
       <c r="M136" s="84"/>
@@ -11843,28 +11822,28 @@
         <v>34</v>
       </c>
       <c r="D137" s="80" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E137" s="80" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="F137" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G137" s="98" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="H137" s="80" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="I137" s="80" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="J137" s="80" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="K137" s="80" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="L137" s="80" t="s">
         <v>198</v>
@@ -11881,26 +11860,26 @@
     <row r="138" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B138" s="58"/>
       <c r="D138" s="85" t="s">
-        <v>872</v>
+        <v>839</v>
       </c>
       <c r="E138" s="85" t="s">
-        <v>874</v>
+        <v>841</v>
       </c>
       <c r="F138" s="85"/>
       <c r="G138" s="85" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="H138" s="85" t="s">
-        <v>844</v>
+        <v>811</v>
       </c>
       <c r="I138" s="85" t="s">
-        <v>876</v>
+        <v>843</v>
       </c>
       <c r="J138" s="85" t="s">
-        <v>878</v>
+        <v>845</v>
       </c>
       <c r="K138" s="85" t="s">
-        <v>1048</v>
+        <v>969</v>
       </c>
       <c r="L138" s="85"/>
       <c r="M138" s="85"/>
@@ -11935,45 +11914,45 @@
     <row r="140" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B140" s="56"/>
       <c r="D140" s="84" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="E140" s="84" t="s">
         <v>256</v>
       </c>
       <c r="F140" s="84" t="s">
-        <v>1084</v>
+        <v>995</v>
       </c>
       <c r="G140" s="84" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H140" s="84" t="s">
-        <v>879</v>
+        <v>846</v>
       </c>
       <c r="I140" s="84"/>
       <c r="J140" s="84" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="K140" s="84" t="s">
-        <v>869</v>
+        <v>836</v>
       </c>
       <c r="L140" s="84" t="s">
-        <v>739</v>
+        <v>1048</v>
       </c>
       <c r="M140" s="84" t="s">
-        <v>881</v>
+        <v>848</v>
       </c>
       <c r="N140" s="84" t="s">
-        <v>1086</v>
+        <v>997</v>
       </c>
       <c r="O140" s="84"/>
       <c r="P140" s="84" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q140" s="84" t="s">
-        <v>801</v>
+        <v>1072</v>
       </c>
       <c r="R140" s="84" t="s">
-        <v>883</v>
+        <v>850</v>
       </c>
       <c r="S140" s="93"/>
       <c r="V140" s="60"/>
@@ -11984,37 +11963,37 @@
         <v>35</v>
       </c>
       <c r="D141" s="80" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E141" s="80" t="s">
         <v>199</v>
       </c>
       <c r="F141" s="98" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="G141" s="81" t="s">
         <v>236</v>
       </c>
       <c r="H141" s="80" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="I141" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J141" s="80" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="K141" s="80" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="L141" s="80" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="M141" s="80" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="N141" s="98" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="O141" s="80" t="s">
         <v>198</v>
@@ -12023,10 +12002,10 @@
         <v>209</v>
       </c>
       <c r="Q141" s="80" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="R141" s="80" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="S141" s="94"/>
       <c r="V141" s="60"/>
@@ -12034,45 +12013,45 @@
     <row r="142" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B142" s="58"/>
       <c r="D142" s="85" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="E142" s="85" t="s">
         <v>257</v>
       </c>
       <c r="F142" s="85" t="s">
-        <v>1085</v>
+        <v>996</v>
       </c>
       <c r="G142" s="85" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H142" s="85" t="s">
-        <v>880</v>
+        <v>847</v>
       </c>
       <c r="I142" s="85"/>
       <c r="J142" s="85" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="K142" s="85" t="s">
-        <v>870</v>
+        <v>837</v>
       </c>
       <c r="L142" s="85" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
       <c r="M142" s="85" t="s">
-        <v>882</v>
+        <v>849</v>
       </c>
       <c r="N142" s="85" t="s">
-        <v>1087</v>
+        <v>998</v>
       </c>
       <c r="O142" s="85"/>
       <c r="P142" s="85" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q142" s="85" t="s">
-        <v>802</v>
+        <v>772</v>
       </c>
       <c r="R142" s="85" t="s">
-        <v>884</v>
+        <v>851</v>
       </c>
       <c r="S142" s="96"/>
       <c r="V142" s="60"/>
@@ -12100,26 +12079,26 @@
     <row r="144" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B144" s="56"/>
       <c r="D144" s="84" t="s">
-        <v>1015</v>
+        <v>1036</v>
       </c>
       <c r="E144" s="84" t="s">
-        <v>885</v>
+        <v>852</v>
       </c>
       <c r="F144" s="84"/>
       <c r="G144" s="84" t="s">
-        <v>757</v>
+        <v>729</v>
       </c>
       <c r="H144" s="84" t="s">
-        <v>1035</v>
+        <v>961</v>
       </c>
       <c r="I144" s="84" t="s">
-        <v>883</v>
+        <v>850</v>
       </c>
       <c r="J144" s="84" t="s">
-        <v>1015</v>
+        <v>1036</v>
       </c>
       <c r="K144" s="84" t="s">
-        <v>1049</v>
+        <v>970</v>
       </c>
       <c r="L144" s="84"/>
       <c r="M144" s="84"/>
@@ -12137,28 +12116,28 @@
         <v>36</v>
       </c>
       <c r="D145" s="80" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E145" s="80" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F145" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G145" s="81" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="H145" s="98" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="I145" s="80" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="J145" s="80" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="K145" s="80" t="s">
-        <v>1062</v>
+        <v>983</v>
       </c>
       <c r="L145" s="80" t="s">
         <v>198</v>
@@ -12175,26 +12154,26 @@
     <row r="146" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B146" s="58"/>
       <c r="D146" s="85" t="s">
-        <v>1016</v>
+        <v>1037</v>
       </c>
       <c r="E146" s="85" t="s">
-        <v>886</v>
+        <v>853</v>
       </c>
       <c r="F146" s="85"/>
       <c r="G146" s="85" t="s">
-        <v>758</v>
+        <v>730</v>
       </c>
       <c r="H146" s="85" t="s">
-        <v>1036</v>
+        <v>962</v>
       </c>
       <c r="I146" s="85" t="s">
-        <v>884</v>
+        <v>851</v>
       </c>
       <c r="J146" s="85" t="s">
-        <v>1016</v>
+        <v>1037</v>
       </c>
       <c r="K146" s="85" t="s">
-        <v>1050</v>
+        <v>971</v>
       </c>
       <c r="L146" s="85"/>
       <c r="M146" s="85"/>
@@ -12229,45 +12208,45 @@
     <row r="148" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B148" s="56"/>
       <c r="D148" s="84" t="s">
-        <v>887</v>
+        <v>854</v>
       </c>
       <c r="E148" s="84" t="s">
-        <v>889</v>
+        <v>856</v>
       </c>
       <c r="F148" s="84" t="s">
-        <v>891</v>
+        <v>858</v>
       </c>
       <c r="G148" s="84" t="s">
-        <v>893</v>
+        <v>860</v>
       </c>
       <c r="H148" s="84" t="s">
-        <v>743</v>
+        <v>718</v>
       </c>
       <c r="I148" s="84"/>
       <c r="J148" s="84" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="K148" s="84" t="s">
-        <v>895</v>
+        <v>862</v>
       </c>
       <c r="L148" s="84" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="M148" s="84" t="s">
         <v>250</v>
       </c>
       <c r="N148" s="84" t="s">
-        <v>807</v>
+        <v>777</v>
       </c>
       <c r="O148" s="84"/>
       <c r="P148" s="84" t="s">
-        <v>897</v>
+        <v>864</v>
       </c>
       <c r="Q148" s="84" t="s">
-        <v>272</v>
+        <v>1006</v>
       </c>
       <c r="R148" s="84" t="s">
-        <v>967</v>
+        <v>927</v>
       </c>
       <c r="S148" s="93"/>
       <c r="V148" s="60"/>
@@ -12278,19 +12257,19 @@
         <v>37</v>
       </c>
       <c r="D149" s="80" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="E149" s="80" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="F149" s="80" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="G149" s="80" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="H149" s="80" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="I149" s="80" t="s">
         <v>186</v>
@@ -12299,7 +12278,7 @@
         <v>237</v>
       </c>
       <c r="K149" s="80" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="L149" s="80" t="s">
         <v>189</v>
@@ -12308,19 +12287,19 @@
         <v>191</v>
       </c>
       <c r="N149" s="80" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="O149" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P149" s="80" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="Q149" s="80" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="R149" s="80" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="S149" s="94"/>
       <c r="V149" s="60"/>
@@ -12328,45 +12307,45 @@
     <row r="150" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B150" s="58"/>
       <c r="D150" s="85" t="s">
-        <v>888</v>
+        <v>855</v>
       </c>
       <c r="E150" s="85" t="s">
-        <v>890</v>
+        <v>857</v>
       </c>
       <c r="F150" s="85" t="s">
-        <v>892</v>
+        <v>859</v>
       </c>
       <c r="G150" s="85" t="s">
-        <v>894</v>
+        <v>861</v>
       </c>
       <c r="H150" s="85" t="s">
-        <v>744</v>
+        <v>719</v>
       </c>
       <c r="I150" s="85"/>
       <c r="J150" s="85" t="s">
-        <v>1012</v>
+        <v>1021</v>
       </c>
       <c r="K150" s="85" t="s">
-        <v>896</v>
+        <v>863</v>
       </c>
       <c r="L150" s="85" t="s">
-        <v>1042</v>
+        <v>963</v>
       </c>
       <c r="M150" s="85" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="N150" s="85" t="s">
-        <v>808</v>
+        <v>778</v>
       </c>
       <c r="O150" s="85"/>
       <c r="P150" s="85" t="s">
-        <v>898</v>
+        <v>865</v>
       </c>
       <c r="Q150" s="85" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="R150" s="85" t="s">
-        <v>968</v>
+        <v>928</v>
       </c>
       <c r="S150" s="96"/>
       <c r="V150" s="60"/>
@@ -12394,26 +12373,26 @@
     <row r="152" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B152" s="56"/>
       <c r="D152" s="84" t="s">
-        <v>815</v>
+        <v>1067</v>
       </c>
       <c r="E152" s="84" t="s">
-        <v>899</v>
+        <v>866</v>
       </c>
       <c r="F152" s="84"/>
       <c r="G152" s="84" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="H152" s="84" t="s">
-        <v>1029</v>
+        <v>1058</v>
       </c>
       <c r="I152" s="84" t="s">
-        <v>891</v>
+        <v>858</v>
       </c>
       <c r="J152" s="84" t="s">
-        <v>1068</v>
+        <v>985</v>
       </c>
       <c r="K152" s="84" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="L152" s="84"/>
       <c r="M152" s="84"/>
@@ -12434,25 +12413,25 @@
         <v>240</v>
       </c>
       <c r="E153" s="80" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="F153" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G153" s="80" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="H153" s="80" t="s">
         <v>238</v>
       </c>
       <c r="I153" s="80" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="J153" s="80" t="s">
         <v>226</v>
       </c>
       <c r="K153" s="98" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="L153" s="80" t="s">
         <v>198</v>
@@ -12469,26 +12448,26 @@
     <row r="154" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B154" s="58"/>
       <c r="D154" s="85" t="s">
-        <v>816</v>
+        <v>785</v>
       </c>
       <c r="E154" s="85" t="s">
-        <v>900</v>
+        <v>867</v>
       </c>
       <c r="F154" s="85"/>
       <c r="G154" s="85" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="H154" s="85" t="s">
-        <v>1030</v>
+        <v>1059</v>
       </c>
       <c r="I154" s="85" t="s">
-        <v>892</v>
+        <v>859</v>
       </c>
       <c r="J154" s="85" t="s">
-        <v>1069</v>
+        <v>986</v>
       </c>
       <c r="K154" s="85" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="L154" s="85"/>
       <c r="M154" s="85"/>
@@ -12523,45 +12502,45 @@
     <row r="156" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B156" s="56"/>
       <c r="D156" s="84" t="s">
-        <v>901</v>
+        <v>1073</v>
       </c>
       <c r="E156" s="84" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F156" s="84" t="s">
-        <v>903</v>
+        <v>1075</v>
       </c>
       <c r="G156" s="84" t="s">
         <v>256</v>
       </c>
       <c r="H156" s="84" t="s">
-        <v>1084</v>
+        <v>995</v>
       </c>
       <c r="I156" s="84"/>
       <c r="J156" s="84" t="s">
-        <v>905</v>
+        <v>869</v>
       </c>
       <c r="K156" s="84" t="s">
-        <v>907</v>
+        <v>871</v>
       </c>
       <c r="L156" s="84" t="s">
-        <v>909</v>
+        <v>873</v>
       </c>
       <c r="M156" s="84" t="s">
         <v>254</v>
       </c>
       <c r="N156" s="84" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O156" s="84"/>
       <c r="P156" s="84" t="s">
-        <v>911</v>
+        <v>875</v>
       </c>
       <c r="Q156" s="84" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="R156" s="84" t="s">
-        <v>913</v>
+        <v>877</v>
       </c>
       <c r="S156" s="93"/>
       <c r="V156" s="60"/>
@@ -12572,49 +12551,49 @@
         <v>39</v>
       </c>
       <c r="D157" s="80" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="E157" s="80" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F157" s="80" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G157" s="80" t="s">
         <v>199</v>
       </c>
       <c r="H157" s="98" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="I157" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J157" s="80" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="K157" s="80" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="L157" s="80" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="M157" s="80" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="N157" s="80" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="O157" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P157" s="80" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="Q157" s="80" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="R157" s="80" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="S157" s="94"/>
       <c r="V157" s="60"/>
@@ -12622,45 +12601,45 @@
     <row r="158" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B158" s="58"/>
       <c r="D158" s="85" t="s">
-        <v>902</v>
+        <v>1074</v>
       </c>
       <c r="E158" s="85" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="F158" s="85" t="s">
-        <v>904</v>
+        <v>868</v>
       </c>
       <c r="G158" s="85" t="s">
         <v>257</v>
       </c>
       <c r="H158" s="85" t="s">
-        <v>1085</v>
+        <v>996</v>
       </c>
       <c r="I158" s="85"/>
       <c r="J158" s="85" t="s">
-        <v>906</v>
+        <v>870</v>
       </c>
       <c r="K158" s="85" t="s">
-        <v>908</v>
+        <v>872</v>
       </c>
       <c r="L158" s="85" t="s">
-        <v>910</v>
+        <v>874</v>
       </c>
       <c r="M158" s="85" t="s">
         <v>255</v>
       </c>
       <c r="N158" s="85" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O158" s="85"/>
       <c r="P158" s="85" t="s">
-        <v>912</v>
+        <v>876</v>
       </c>
       <c r="Q158" s="85" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="R158" s="85" t="s">
-        <v>914</v>
+        <v>878</v>
       </c>
       <c r="S158" s="96"/>
       <c r="V158" s="60"/>
@@ -12688,26 +12667,26 @@
     <row r="160" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B160" s="56"/>
       <c r="D160" s="84" t="s">
-        <v>915</v>
+        <v>879</v>
       </c>
       <c r="E160" s="84" t="s">
-        <v>769</v>
+        <v>1062</v>
       </c>
       <c r="F160" s="84"/>
       <c r="G160" s="84" t="s">
-        <v>917</v>
+        <v>881</v>
       </c>
       <c r="H160" s="84" t="s">
         <v>250</v>
       </c>
       <c r="I160" s="84" t="s">
-        <v>1068</v>
+        <v>985</v>
       </c>
       <c r="J160" s="84" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="K160" s="84" t="s">
-        <v>919</v>
+        <v>883</v>
       </c>
       <c r="L160" s="84"/>
       <c r="M160" s="84"/>
@@ -12728,13 +12707,13 @@
         <v>214</v>
       </c>
       <c r="E161" s="80" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="F161" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G161" s="80" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="H161" s="80" t="s">
         <v>191</v>
@@ -12743,7 +12722,7 @@
         <v>226</v>
       </c>
       <c r="J161" s="80" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K161" s="80" t="s">
         <v>201</v>
@@ -12763,26 +12742,26 @@
     <row r="162" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B162" s="58"/>
       <c r="D162" s="85" t="s">
-        <v>916</v>
+        <v>880</v>
       </c>
       <c r="E162" s="85" t="s">
-        <v>770</v>
+        <v>741</v>
       </c>
       <c r="F162" s="85"/>
       <c r="G162" s="85" t="s">
-        <v>918</v>
+        <v>882</v>
       </c>
       <c r="H162" s="85" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I162" s="85" t="s">
-        <v>1069</v>
+        <v>986</v>
       </c>
       <c r="J162" s="85" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="K162" s="85" t="s">
-        <v>920</v>
+        <v>884</v>
       </c>
       <c r="L162" s="85"/>
       <c r="M162" s="85"/>
@@ -12817,45 +12796,45 @@
     <row r="164" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B164" s="56"/>
       <c r="D164" s="84" t="s">
-        <v>675</v>
+        <v>1023</v>
       </c>
       <c r="E164" s="84" t="s">
-        <v>1088</v>
+        <v>999</v>
       </c>
       <c r="F164" s="84" t="s">
-        <v>921</v>
+        <v>885</v>
       </c>
       <c r="G164" s="84" t="s">
-        <v>835</v>
+        <v>802</v>
       </c>
       <c r="H164" s="84" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="I164" s="84"/>
       <c r="J164" s="84" t="s">
-        <v>923</v>
+        <v>970</v>
       </c>
       <c r="K164" s="84" t="s">
-        <v>1090</v>
+        <v>1076</v>
       </c>
       <c r="L164" s="84" t="s">
-        <v>925</v>
+        <v>887</v>
       </c>
       <c r="M164" s="84" t="s">
-        <v>757</v>
+        <v>729</v>
       </c>
       <c r="N164" s="84" t="s">
-        <v>927</v>
+        <v>889</v>
       </c>
       <c r="O164" s="84"/>
       <c r="P164" s="84" t="s">
-        <v>929</v>
+        <v>891</v>
       </c>
       <c r="Q164" s="84" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="R164" s="84" t="s">
-        <v>931</v>
+        <v>893</v>
       </c>
       <c r="S164" s="93"/>
       <c r="V164" s="60"/>
@@ -12866,49 +12845,49 @@
         <v>41</v>
       </c>
       <c r="D165" s="80" t="s">
+        <v>374</v>
+      </c>
+      <c r="E165" s="98" t="s">
+        <v>549</v>
+      </c>
+      <c r="F165" s="98" t="s">
+        <v>550</v>
+      </c>
+      <c r="G165" s="80" t="s">
+        <v>491</v>
+      </c>
+      <c r="H165" s="80" t="s">
         <v>381</v>
-      </c>
-      <c r="E165" s="98" t="s">
-        <v>556</v>
-      </c>
-      <c r="F165" s="98" t="s">
-        <v>557</v>
-      </c>
-      <c r="G165" s="80" t="s">
-        <v>498</v>
-      </c>
-      <c r="H165" s="80" t="s">
-        <v>388</v>
       </c>
       <c r="I165" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J165" s="80" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="K165" s="98" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="L165" s="80" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="M165" s="80" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="N165" s="98" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="O165" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P165" s="98" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="Q165" s="80" t="s">
         <v>241</v>
       </c>
       <c r="R165" s="80" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="S165" s="94"/>
       <c r="V165" s="60"/>
@@ -12916,45 +12895,45 @@
     <row r="166" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B166" s="58"/>
       <c r="D166" s="85" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="E166" s="85" t="s">
-        <v>1089</v>
+        <v>1000</v>
       </c>
       <c r="F166" s="85" t="s">
-        <v>922</v>
+        <v>886</v>
       </c>
       <c r="G166" s="85" t="s">
-        <v>836</v>
+        <v>803</v>
       </c>
       <c r="H166" s="85" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="I166" s="85"/>
       <c r="J166" s="85" t="s">
-        <v>924</v>
+        <v>971</v>
       </c>
       <c r="K166" s="85" t="s">
-        <v>1091</v>
+        <v>1001</v>
       </c>
       <c r="L166" s="85" t="s">
-        <v>926</v>
+        <v>888</v>
       </c>
       <c r="M166" s="85" t="s">
-        <v>758</v>
+        <v>730</v>
       </c>
       <c r="N166" s="85" t="s">
-        <v>928</v>
+        <v>890</v>
       </c>
       <c r="O166" s="85"/>
       <c r="P166" s="85" t="s">
-        <v>930</v>
+        <v>892</v>
       </c>
       <c r="Q166" s="85" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="R166" s="85" t="s">
-        <v>932</v>
+        <v>894</v>
       </c>
       <c r="S166" s="96"/>
       <c r="V166" s="60"/>
@@ -12982,26 +12961,26 @@
       <c r="B168" s="56"/>
       <c r="C168" s="1"/>
       <c r="D168" s="84" t="s">
-        <v>258</v>
+        <v>1009</v>
       </c>
       <c r="E168" s="84" t="s">
-        <v>1064</v>
+        <v>1077</v>
       </c>
       <c r="F168" s="84"/>
       <c r="G168" s="84" t="s">
-        <v>933</v>
+        <v>895</v>
       </c>
       <c r="H168" s="84" t="s">
-        <v>935</v>
+        <v>897</v>
       </c>
       <c r="I168" s="84" t="s">
-        <v>937</v>
+        <v>899</v>
       </c>
       <c r="J168" s="84" t="s">
         <v>251</v>
       </c>
       <c r="K168" s="84" t="s">
-        <v>939</v>
+        <v>901</v>
       </c>
       <c r="L168" s="84"/>
       <c r="M168" s="84"/>
@@ -13021,7 +13000,7 @@
         <v>202</v>
       </c>
       <c r="E169" s="98" t="s">
-        <v>1063</v>
+        <v>984</v>
       </c>
       <c r="F169" s="80" t="s">
         <v>186</v>
@@ -13030,16 +13009,16 @@
         <v>212</v>
       </c>
       <c r="H169" s="80" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="I169" s="80" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="J169" s="80" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="K169" s="80" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="L169" s="80" t="s">
         <v>198</v>
@@ -13055,26 +13034,26 @@
       <c r="B170" s="58"/>
       <c r="C170" s="1"/>
       <c r="D170" s="85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E170" s="85" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="F170" s="85"/>
       <c r="G170" s="85" t="s">
-        <v>934</v>
+        <v>896</v>
       </c>
       <c r="H170" s="85" t="s">
-        <v>936</v>
+        <v>898</v>
       </c>
       <c r="I170" s="85" t="s">
-        <v>938</v>
+        <v>900</v>
       </c>
       <c r="J170" s="85" t="s">
         <v>252</v>
       </c>
       <c r="K170" s="85" t="s">
-        <v>940</v>
+        <v>902</v>
       </c>
       <c r="L170" s="85"/>
       <c r="M170" s="85"/>
@@ -13107,45 +13086,45 @@
       <c r="B172" s="56"/>
       <c r="C172" s="1"/>
       <c r="D172" s="84" t="s">
-        <v>258</v>
+        <v>1009</v>
       </c>
       <c r="E172" s="84" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="F172" s="84" t="s">
-        <v>941</v>
+        <v>903</v>
       </c>
       <c r="G172" s="84" t="s">
-        <v>943</v>
+        <v>905</v>
       </c>
       <c r="H172" s="84" t="s">
         <v>248</v>
       </c>
       <c r="I172" s="84"/>
       <c r="J172" s="84" t="s">
-        <v>945</v>
+        <v>907</v>
       </c>
       <c r="K172" s="84" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L172" s="84" t="s">
-        <v>1001</v>
+        <v>959</v>
       </c>
       <c r="M172" s="84" t="s">
-        <v>791</v>
+        <v>762</v>
       </c>
       <c r="N172" s="84" t="s">
-        <v>861</v>
+        <v>828</v>
       </c>
       <c r="O172" s="84"/>
       <c r="P172" s="84" t="s">
-        <v>915</v>
+        <v>879</v>
       </c>
       <c r="Q172" s="84" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="R172" s="84" t="s">
-        <v>947</v>
+        <v>909</v>
       </c>
     </row>
     <row r="173" spans="2:22" ht="58.5">
@@ -13158,34 +13137,34 @@
         <v>202</v>
       </c>
       <c r="E173" s="80" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F173" s="80" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G173" s="81" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="H173" s="80" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="I173" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J173" s="80" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="K173" s="80" t="s">
         <v>213</v>
       </c>
       <c r="L173" s="80" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="M173" s="80" t="s">
         <v>185</v>
       </c>
       <c r="N173" s="80" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O173" s="80" t="s">
         <v>198</v>
@@ -13197,52 +13176,52 @@
         <v>219</v>
       </c>
       <c r="R173" s="80" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="174" spans="2:22">
       <c r="B174" s="58"/>
       <c r="C174" s="1"/>
       <c r="D174" s="85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E174" s="85" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="F174" s="85" t="s">
-        <v>942</v>
+        <v>904</v>
       </c>
       <c r="G174" s="85" t="s">
-        <v>944</v>
+        <v>906</v>
       </c>
       <c r="H174" s="85" t="s">
         <v>249</v>
       </c>
       <c r="I174" s="85"/>
       <c r="J174" s="85" t="s">
-        <v>946</v>
+        <v>908</v>
       </c>
       <c r="K174" s="85" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L174" s="85" t="s">
-        <v>1002</v>
+        <v>960</v>
       </c>
       <c r="M174" s="85" t="s">
-        <v>792</v>
+        <v>763</v>
       </c>
       <c r="N174" s="85" t="s">
-        <v>862</v>
+        <v>829</v>
       </c>
       <c r="O174" s="85"/>
       <c r="P174" s="85" t="s">
-        <v>916</v>
+        <v>880</v>
       </c>
       <c r="Q174" s="85" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="R174" s="85" t="s">
-        <v>948</v>
+        <v>910</v>
       </c>
     </row>
     <row r="175" spans="2:22">
@@ -13268,26 +13247,26 @@
       <c r="B176" s="56"/>
       <c r="C176" s="1"/>
       <c r="D176" s="84" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E176" s="84" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F176" s="84"/>
       <c r="G176" s="84" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H176" s="84" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="I176" s="84" t="s">
-        <v>949</v>
+        <v>911</v>
       </c>
       <c r="J176" s="84" t="s">
-        <v>951</v>
+        <v>913</v>
       </c>
       <c r="K176" s="84" t="s">
-        <v>737</v>
+        <v>1047</v>
       </c>
       <c r="L176" s="84"/>
       <c r="M176" s="84"/>
@@ -13304,10 +13283,10 @@
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="80" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="E177" s="80" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="F177" s="80" t="s">
         <v>186</v>
@@ -13316,16 +13295,16 @@
         <v>195</v>
       </c>
       <c r="H177" s="80" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="I177" s="80" t="s">
         <v>216</v>
       </c>
       <c r="J177" s="80" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="K177" s="98" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="L177" s="80" t="s">
         <v>198</v>
@@ -13341,26 +13320,26 @@
       <c r="B178" s="58"/>
       <c r="C178" s="1"/>
       <c r="D178" s="85" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="E178" s="85" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F178" s="85"/>
       <c r="G178" s="85" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H178" s="85" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="I178" s="85" t="s">
-        <v>950</v>
+        <v>912</v>
       </c>
       <c r="J178" s="85" t="s">
-        <v>952</v>
+        <v>914</v>
       </c>
       <c r="K178" s="85" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
       <c r="L178" s="85"/>
       <c r="M178" s="85"/>
@@ -13393,45 +13372,45 @@
       <c r="B180" s="56"/>
       <c r="C180" s="1"/>
       <c r="D180" s="84" t="s">
-        <v>897</v>
+        <v>864</v>
       </c>
       <c r="E180" s="84" t="s">
-        <v>741</v>
+        <v>716</v>
       </c>
       <c r="F180" s="84" t="s">
-        <v>953</v>
+        <v>632</v>
       </c>
       <c r="G180" s="84" t="s">
-        <v>915</v>
+        <v>879</v>
       </c>
       <c r="H180" s="84" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="I180" s="84"/>
       <c r="J180" s="84" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="K180" s="84" t="s">
-        <v>1037</v>
+        <v>1079</v>
       </c>
       <c r="L180" s="84" t="s">
-        <v>739</v>
+        <v>1048</v>
       </c>
       <c r="M180" s="84" t="s">
-        <v>955</v>
+        <v>915</v>
       </c>
       <c r="N180" s="84" t="s">
-        <v>957</v>
+        <v>917</v>
       </c>
       <c r="O180" s="84"/>
       <c r="P180" s="84" t="s">
-        <v>959</v>
+        <v>919</v>
       </c>
       <c r="Q180" s="84" t="s">
-        <v>1021</v>
+        <v>1044</v>
       </c>
       <c r="R180" s="84" t="s">
-        <v>961</v>
+        <v>921</v>
       </c>
     </row>
     <row r="181" spans="2:18" ht="58.5">
@@ -13441,19 +13420,19 @@
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="80" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E181" s="80" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F181" s="80" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G181" s="81" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="H181" s="80" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="I181" s="80" t="s">
         <v>186</v>
@@ -13462,73 +13441,73 @@
         <v>189</v>
       </c>
       <c r="K181" s="80" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="L181" s="80" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="M181" s="80" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="N181" s="80" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="O181" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P181" s="80" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="Q181" s="80" t="s">
         <v>204</v>
       </c>
       <c r="R181" s="80" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="182" spans="2:18">
       <c r="B182" s="58"/>
       <c r="C182" s="1"/>
       <c r="D182" s="85" t="s">
-        <v>898</v>
+        <v>865</v>
       </c>
       <c r="E182" s="85" t="s">
-        <v>742</v>
+        <v>717</v>
       </c>
       <c r="F182" s="85" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="G182" s="85" t="s">
-        <v>916</v>
+        <v>880</v>
       </c>
       <c r="H182" s="85" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="I182" s="85"/>
       <c r="J182" s="85" t="s">
-        <v>1042</v>
+        <v>963</v>
       </c>
       <c r="K182" s="85" t="s">
-        <v>1038</v>
+        <v>1080</v>
       </c>
       <c r="L182" s="85" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
       <c r="M182" s="85" t="s">
-        <v>956</v>
+        <v>916</v>
       </c>
       <c r="N182" s="85" t="s">
-        <v>958</v>
+        <v>918</v>
       </c>
       <c r="O182" s="85"/>
       <c r="P182" s="85" t="s">
-        <v>960</v>
+        <v>920</v>
       </c>
       <c r="Q182" s="85" t="s">
-        <v>1022</v>
+        <v>628</v>
       </c>
       <c r="R182" s="85" t="s">
-        <v>962</v>
+        <v>922</v>
       </c>
     </row>
     <row r="183" spans="2:18">
@@ -13554,26 +13533,26 @@
       <c r="B184" s="56"/>
       <c r="C184" s="1"/>
       <c r="D184" s="84" t="s">
-        <v>963</v>
+        <v>923</v>
       </c>
       <c r="E184" s="84" t="s">
-        <v>965</v>
+        <v>925</v>
       </c>
       <c r="F184" s="84"/>
       <c r="G184" s="84" t="s">
-        <v>675</v>
+        <v>1023</v>
       </c>
       <c r="H184" s="84" t="s">
-        <v>815</v>
+        <v>1067</v>
       </c>
       <c r="I184" s="84" t="s">
-        <v>1068</v>
+        <v>985</v>
       </c>
       <c r="J184" s="84" t="s">
-        <v>1092</v>
+        <v>1002</v>
       </c>
       <c r="K184" s="84" t="s">
-        <v>861</v>
+        <v>828</v>
       </c>
       <c r="L184" s="84"/>
       <c r="M184" s="84"/>
@@ -13590,16 +13569,16 @@
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="80" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="E185" s="80" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F185" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G185" s="81" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="H185" s="80" t="s">
         <v>240</v>
@@ -13608,10 +13587,10 @@
         <v>226</v>
       </c>
       <c r="J185" s="98" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="K185" s="80" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="L185" s="80" t="s">
         <v>198</v>
@@ -13627,26 +13606,26 @@
       <c r="B186" s="58"/>
       <c r="C186" s="1"/>
       <c r="D186" s="85" t="s">
-        <v>964</v>
+        <v>924</v>
       </c>
       <c r="E186" s="85" t="s">
-        <v>966</v>
+        <v>926</v>
       </c>
       <c r="F186" s="85"/>
       <c r="G186" s="85" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="H186" s="85" t="s">
-        <v>816</v>
+        <v>785</v>
       </c>
       <c r="I186" s="85" t="s">
-        <v>1069</v>
+        <v>986</v>
       </c>
       <c r="J186" s="85" t="s">
-        <v>1093</v>
+        <v>1003</v>
       </c>
       <c r="K186" s="85" t="s">
-        <v>862</v>
+        <v>829</v>
       </c>
       <c r="L186" s="85"/>
       <c r="M186" s="85"/>
@@ -13679,45 +13658,45 @@
       <c r="B188" s="56"/>
       <c r="C188" s="1"/>
       <c r="D188" s="84" t="s">
-        <v>967</v>
+        <v>927</v>
       </c>
       <c r="E188" s="84" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="F188" s="84" t="s">
-        <v>969</v>
+        <v>929</v>
       </c>
       <c r="G188" s="84" t="s">
-        <v>969</v>
+        <v>929</v>
       </c>
       <c r="H188" s="84" t="s">
-        <v>1076</v>
+        <v>989</v>
       </c>
       <c r="I188" s="84"/>
       <c r="J188" s="84" t="s">
-        <v>1055</v>
+        <v>976</v>
       </c>
       <c r="K188" s="84" t="s">
-        <v>869</v>
+        <v>1035</v>
       </c>
       <c r="L188" s="84" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="M188" s="84" t="s">
-        <v>971</v>
+        <v>1081</v>
       </c>
       <c r="N188" s="84" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="O188" s="84"/>
       <c r="P188" s="84" t="s">
-        <v>973</v>
+        <v>1082</v>
       </c>
       <c r="Q188" s="84" t="s">
-        <v>973</v>
+        <v>1082</v>
       </c>
       <c r="R188" s="84" t="s">
-        <v>1037</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="189" spans="2:18" ht="58.5">
@@ -13727,94 +13706,94 @@
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="80" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="E189" s="80" t="s">
         <v>219</v>
       </c>
       <c r="F189" s="80" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G189" s="80" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="H189" s="98" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="I189" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J189" s="98" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="K189" s="80" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="L189" s="98" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="M189" s="80" t="s">
         <v>220</v>
       </c>
       <c r="N189" s="80" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="O189" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P189" s="80" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="Q189" s="80" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="R189" s="80" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="190" spans="2:18">
       <c r="B190" s="58"/>
       <c r="C190" s="1"/>
       <c r="D190" s="85" t="s">
-        <v>968</v>
+        <v>928</v>
       </c>
       <c r="E190" s="85" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="F190" s="85" t="s">
-        <v>970</v>
+        <v>930</v>
       </c>
       <c r="G190" s="85" t="s">
-        <v>970</v>
+        <v>930</v>
       </c>
       <c r="H190" s="85" t="s">
-        <v>1077</v>
+        <v>990</v>
       </c>
       <c r="I190" s="85"/>
       <c r="J190" s="85" t="s">
-        <v>1056</v>
+        <v>977</v>
       </c>
       <c r="K190" s="85" t="s">
-        <v>870</v>
+        <v>695</v>
       </c>
       <c r="L190" s="85" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="M190" s="85" t="s">
-        <v>972</v>
+        <v>931</v>
       </c>
       <c r="N190" s="85" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="O190" s="85"/>
       <c r="P190" s="85" t="s">
-        <v>974</v>
+        <v>932</v>
       </c>
       <c r="Q190" s="85" t="s">
-        <v>974</v>
+        <v>932</v>
       </c>
       <c r="R190" s="85" t="s">
-        <v>1038</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="191" spans="2:18">
@@ -13840,26 +13819,26 @@
       <c r="B192" s="56"/>
       <c r="C192" s="1"/>
       <c r="D192" s="84" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="E192" s="84" t="s">
-        <v>975</v>
+        <v>933</v>
       </c>
       <c r="F192" s="84"/>
       <c r="G192" s="84" t="s">
-        <v>689</v>
+        <v>1026</v>
       </c>
       <c r="H192" s="84" t="s">
-        <v>757</v>
+        <v>729</v>
       </c>
       <c r="I192" s="84" t="s">
-        <v>977</v>
+        <v>935</v>
       </c>
       <c r="J192" s="84" t="s">
-        <v>1021</v>
+        <v>1044</v>
       </c>
       <c r="K192" s="84" t="s">
-        <v>979</v>
+        <v>937</v>
       </c>
       <c r="L192" s="84"/>
       <c r="M192" s="84"/>
@@ -13876,22 +13855,22 @@
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="80" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="E193" s="98" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="F193" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G193" s="81" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="H193" s="80" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="I193" s="80" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="J193" s="80" t="s">
         <v>204</v>
@@ -13913,26 +13892,26 @@
       <c r="B194" s="58"/>
       <c r="C194" s="1"/>
       <c r="D194" s="85" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="E194" s="85" t="s">
-        <v>976</v>
+        <v>934</v>
       </c>
       <c r="F194" s="85"/>
       <c r="G194" s="85" t="s">
-        <v>690</v>
+        <v>1027</v>
       </c>
       <c r="H194" s="85" t="s">
-        <v>758</v>
+        <v>730</v>
       </c>
       <c r="I194" s="85" t="s">
-        <v>978</v>
+        <v>936</v>
       </c>
       <c r="J194" s="85" t="s">
-        <v>1022</v>
+        <v>628</v>
       </c>
       <c r="K194" s="85" t="s">
-        <v>980</v>
+        <v>938</v>
       </c>
       <c r="L194" s="85"/>
       <c r="M194" s="85"/>
@@ -13965,45 +13944,45 @@
       <c r="B196" s="56"/>
       <c r="C196" s="1"/>
       <c r="D196" s="84" t="s">
-        <v>981</v>
+        <v>939</v>
       </c>
       <c r="E196" s="84" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F196" s="84" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G196" s="84" t="s">
-        <v>1015</v>
+        <v>1036</v>
       </c>
       <c r="H196" s="84" t="s">
-        <v>1039</v>
+        <v>1083</v>
       </c>
       <c r="I196" s="84"/>
       <c r="J196" s="84" t="s">
-        <v>983</v>
+        <v>941</v>
       </c>
       <c r="K196" s="84" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L196" s="84" t="s">
-        <v>1076</v>
+        <v>989</v>
       </c>
       <c r="M196" s="84" t="s">
-        <v>985</v>
+        <v>943</v>
       </c>
       <c r="N196" s="84" t="s">
-        <v>987</v>
+        <v>945</v>
       </c>
       <c r="O196" s="84"/>
       <c r="P196" s="84" t="s">
-        <v>755</v>
+        <v>727</v>
       </c>
       <c r="Q196" s="84" t="s">
-        <v>673</v>
+        <v>1022</v>
       </c>
       <c r="R196" s="84" t="s">
-        <v>983</v>
+        <v>941</v>
       </c>
     </row>
     <row r="197" spans="2:18" ht="58.5">
@@ -14013,7 +13992,7 @@
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="80" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="E197" s="80" t="s">
         <v>188</v>
@@ -14022,7 +14001,7 @@
         <v>236</v>
       </c>
       <c r="G197" s="81" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="H197" s="80" t="s">
         <v>192</v>
@@ -14031,76 +14010,76 @@
         <v>186</v>
       </c>
       <c r="J197" s="80" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="K197" s="80" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="L197" s="80" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M197" s="80" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="N197" s="80" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="O197" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P197" s="80" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="Q197" s="80" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="R197" s="80" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="198" spans="2:18">
       <c r="B198" s="58"/>
       <c r="C198" s="1"/>
       <c r="D198" s="85" t="s">
-        <v>982</v>
+        <v>940</v>
       </c>
       <c r="E198" s="85" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F198" s="85" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G198" s="85" t="s">
-        <v>1016</v>
+        <v>1037</v>
       </c>
       <c r="H198" s="85" t="s">
-        <v>1040</v>
+        <v>1084</v>
       </c>
       <c r="I198" s="85"/>
       <c r="J198" s="85" t="s">
-        <v>984</v>
+        <v>942</v>
       </c>
       <c r="K198" s="85" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L198" s="85" t="s">
-        <v>1077</v>
+        <v>990</v>
       </c>
       <c r="M198" s="85" t="s">
-        <v>986</v>
+        <v>944</v>
       </c>
       <c r="N198" s="85" t="s">
-        <v>988</v>
+        <v>946</v>
       </c>
       <c r="O198" s="85"/>
       <c r="P198" s="85" t="s">
-        <v>756</v>
+        <v>728</v>
       </c>
       <c r="Q198" s="85" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="R198" s="85" t="s">
-        <v>984</v>
+        <v>942</v>
       </c>
     </row>
     <row r="199" spans="2:18">
@@ -14126,26 +14105,26 @@
       <c r="B200" s="56"/>
       <c r="C200" s="1"/>
       <c r="D200" s="84" t="s">
-        <v>989</v>
+        <v>947</v>
       </c>
       <c r="E200" s="84" t="s">
-        <v>991</v>
+        <v>949</v>
       </c>
       <c r="F200" s="84"/>
       <c r="G200" s="84" t="s">
-        <v>877</v>
+        <v>844</v>
       </c>
       <c r="H200" s="84" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="I200" s="84" t="s">
-        <v>993</v>
+        <v>951</v>
       </c>
       <c r="J200" s="84" t="s">
-        <v>817</v>
+        <v>786</v>
       </c>
       <c r="K200" s="84" t="s">
-        <v>987</v>
+        <v>945</v>
       </c>
       <c r="L200" s="84"/>
       <c r="M200" s="84"/>
@@ -14162,28 +14141,28 @@
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="80" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="E201" s="80" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="F201" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G201" s="81" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="H201" s="80" t="s">
         <v>237</v>
       </c>
       <c r="I201" s="80" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="J201" s="80" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="K201" s="80" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="L201" s="80" t="s">
         <v>198</v>
@@ -14199,26 +14178,26 @@
       <c r="B202" s="58"/>
       <c r="C202" s="1"/>
       <c r="D202" s="85" t="s">
-        <v>990</v>
+        <v>948</v>
       </c>
       <c r="E202" s="85" t="s">
-        <v>992</v>
+        <v>950</v>
       </c>
       <c r="F202" s="85"/>
       <c r="G202" s="85" t="s">
-        <v>878</v>
+        <v>845</v>
       </c>
       <c r="H202" s="85" t="s">
-        <v>1012</v>
+        <v>1021</v>
       </c>
       <c r="I202" s="85" t="s">
-        <v>994</v>
+        <v>952</v>
       </c>
       <c r="J202" s="85" t="s">
-        <v>818</v>
+        <v>787</v>
       </c>
       <c r="K202" s="85" t="s">
-        <v>988</v>
+        <v>946</v>
       </c>
       <c r="L202" s="85"/>
       <c r="M202" s="85"/>
